--- a/xls/vistosi/vistosi_originario.xlsx
+++ b/xls/vistosi/vistosi_originario.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="17560" yWindow="860" windowWidth="28900" windowHeight="20320"/>
+    <workbookView xWindow="720" yWindow="4880" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -7941,7 +7941,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7951,8 +7951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
+      <selection activeCell="G1" sqref="A1:M1109 A137:M140 A176:M187 A210:M217 A220:M223 A1052:M1083 A1088:M1099 A137:M140 A176:M187 A210:M217 A220:M223 A1052:M1083 A1088:M1099 A137:M140 A176:M187 A210:M217 A220:M223 A1052:M1083 A1088:M1099"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -42264,9 +42264,7 @@
       <c r="M1109" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1109"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/xls/vistosi/vistosi_originario.xlsx
+++ b/xls/vistosi/vistosi_originario.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="4880" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="-33200" yWindow="-4420" windowWidth="29960" windowHeight="16180"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7723" uniqueCount="2475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7723" uniqueCount="2479">
   <si>
     <t>Descrizione</t>
   </si>
@@ -5366,9 +5366,6 @@
     <t>MINIGIOG SOSPE 35NERO             CROMO  E27</t>
   </si>
   <si>
-    <t>cristallo/ro</t>
-  </si>
-  <si>
     <t>SPGIOM35NEBR</t>
   </si>
   <si>
@@ -7418,33 +7415,6 @@
     <t>Attacco</t>
   </si>
   <si>
-    <t>fumè</t>
-  </si>
-  <si>
-    <t>fumè/ottone</t>
-  </si>
-  <si>
-    <t>fumè/rame</t>
-  </si>
-  <si>
-    <t>fumè/marrone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fumè trasparente </t>
-  </si>
-  <si>
-    <t>fumè/bianco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fumè </t>
-  </si>
-  <si>
-    <t>fumè/trasparente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fumè/trasparente </t>
-  </si>
-  <si>
     <t>NARANZA SP Poco</t>
   </si>
   <si>
@@ -7454,7 +7424,49 @@
     <t>cristallo/nichel/nero</t>
   </si>
   <si>
-    <t>cristallo/trasparante</t>
+    <t>fume'/ottone</t>
+  </si>
+  <si>
+    <t>fume'/rame</t>
+  </si>
+  <si>
+    <t>fume'</t>
+  </si>
+  <si>
+    <t>fume'/marrone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fume' trasparente </t>
+  </si>
+  <si>
+    <t>fume'/bianco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fume' </t>
+  </si>
+  <si>
+    <t>cristallo/anco</t>
+  </si>
+  <si>
+    <t>cristallo/traspar</t>
+  </si>
+  <si>
+    <t>cristallo/trasparte</t>
+  </si>
+  <si>
+    <t>mero</t>
+  </si>
+  <si>
+    <t>cristallo/cristall argento</t>
+  </si>
+  <si>
+    <t>fume'/trasparente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fume'/trasparente </t>
+  </si>
+  <si>
+    <t>fume/trasparente</t>
   </si>
 </sst>
 </file>
@@ -7525,12 +7537,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -7595,7 +7613,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -7615,6 +7633,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8" hidden="1"/>
@@ -7941,7 +7960,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7951,8 +7970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:M1109 A137:M140 A176:M187 A210:M217 A220:M223 A1052:M1083 A1088:M1099 A137:M140 A176:M187 A210:M217 A220:M223 A1052:M1083 A1088:M1099 A137:M140 A176:M187 A210:M217 A220:M223 A1052:M1083 A1088:M1099"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7960,7 +7979,7 @@
     <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49.6640625" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="53.5" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="9" max="9" width="26.5" bestFit="1" customWidth="1"/>
@@ -7970,35 +7989,35 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15">
       <c r="A1" s="8" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2456</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2459</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2457</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2459</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2456</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2460</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>2458</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>2461</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>2472</v>
+        <v>2462</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -8069,7 +8088,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>4</v>
@@ -8098,7 +8117,7 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>2464</v>
+        <v>2465</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>4</v>
@@ -8249,7 +8268,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>2462</v>
+        <v>2466</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
@@ -8280,7 +8299,7 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>2462</v>
+        <v>2466</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>4</v>
@@ -8629,7 +8648,7 @@
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>2462</v>
+        <v>2466</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>4</v>
@@ -8662,7 +8681,7 @@
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>2462</v>
+        <v>2466</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>4</v>
@@ -8695,7 +8714,7 @@
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>2462</v>
+        <v>2466</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>4</v>
@@ -8728,7 +8747,7 @@
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>2462</v>
+        <v>2466</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>4</v>
@@ -9759,7 +9778,7 @@
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
-        <v>2465</v>
+        <v>2467</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>4</v>
@@ -12200,7 +12219,7 @@
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3" t="s">
-        <v>2462</v>
+        <v>2466</v>
       </c>
       <c r="F137" s="3" t="s">
         <v>4</v>
@@ -12549,7 +12568,7 @@
       </c>
       <c r="D148" s="3"/>
       <c r="E148" s="3" t="s">
-        <v>2462</v>
+        <v>2466</v>
       </c>
       <c r="F148" s="3" t="s">
         <v>4</v>
@@ -12582,7 +12601,7 @@
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3" t="s">
-        <v>2462</v>
+        <v>2466</v>
       </c>
       <c r="F149" s="3" t="s">
         <v>4</v>
@@ -12615,7 +12634,7 @@
       </c>
       <c r="D150" s="3"/>
       <c r="E150" s="3" t="s">
-        <v>2462</v>
+        <v>2466</v>
       </c>
       <c r="F150" s="3" t="s">
         <v>4</v>
@@ -12648,7 +12667,7 @@
       </c>
       <c r="D151" s="3"/>
       <c r="E151" s="3" t="s">
-        <v>2462</v>
+        <v>2466</v>
       </c>
       <c r="F151" s="3" t="s">
         <v>4</v>
@@ -13065,7 +13084,7 @@
       </c>
       <c r="D164" s="3"/>
       <c r="E164" s="3" t="s">
-        <v>2466</v>
+        <v>2468</v>
       </c>
       <c r="F164" s="3" t="s">
         <v>4</v>
@@ -13313,7 +13332,7 @@
       </c>
       <c r="D172" s="3"/>
       <c r="E172" s="3" t="s">
-        <v>2466</v>
+        <v>2468</v>
       </c>
       <c r="F172" s="3" t="s">
         <v>4</v>
@@ -13344,7 +13363,7 @@
       </c>
       <c r="D173" s="3"/>
       <c r="E173" s="3" t="s">
-        <v>2466</v>
+        <v>2468</v>
       </c>
       <c r="F173" s="3" t="s">
         <v>4</v>
@@ -13526,7 +13545,7 @@
       </c>
       <c r="D179" s="3"/>
       <c r="E179" s="3" t="s">
-        <v>2466</v>
+        <v>2468</v>
       </c>
       <c r="F179" s="3" t="s">
         <v>4</v>
@@ -13557,7 +13576,7 @@
       </c>
       <c r="D180" s="3"/>
       <c r="E180" s="3" t="s">
-        <v>2466</v>
+        <v>2468</v>
       </c>
       <c r="F180" s="3" t="s">
         <v>4</v>
@@ -13588,7 +13607,7 @@
       </c>
       <c r="D181" s="3"/>
       <c r="E181" s="3" t="s">
-        <v>2466</v>
+        <v>2468</v>
       </c>
       <c r="F181" s="3" t="s">
         <v>4</v>
@@ -14481,7 +14500,7 @@
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3" t="s">
-        <v>2467</v>
+        <v>2469</v>
       </c>
       <c r="F210" s="3" t="s">
         <v>473</v>
@@ -14597,7 +14616,7 @@
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3" t="s">
-        <v>2468</v>
+        <v>2470</v>
       </c>
       <c r="F214" s="3" t="s">
         <v>473</v>
@@ -26464,7 +26483,7 @@
       </c>
       <c r="D599" s="3"/>
       <c r="E599" s="3" t="s">
-        <v>496</v>
+        <v>1367</v>
       </c>
       <c r="F599" s="3" t="s">
         <v>1296</v>
@@ -26495,7 +26514,7 @@
       </c>
       <c r="D600" s="3"/>
       <c r="E600" s="3" t="s">
-        <v>496</v>
+        <v>1367</v>
       </c>
       <c r="F600" s="3" t="s">
         <v>1296</v>
@@ -26898,7 +26917,7 @@
       </c>
       <c r="D613" s="3"/>
       <c r="E613" s="3" t="s">
-        <v>1354</v>
+        <v>2471</v>
       </c>
       <c r="F613" s="3" t="s">
         <v>1296</v>
@@ -27053,7 +27072,7 @@
       </c>
       <c r="D618" s="3"/>
       <c r="E618" s="3" t="s">
-        <v>496</v>
+        <v>1367</v>
       </c>
       <c r="F618" s="3" t="s">
         <v>1296</v>
@@ -27084,7 +27103,7 @@
       </c>
       <c r="D619" s="3"/>
       <c r="E619" s="3" t="s">
-        <v>496</v>
+        <v>1367</v>
       </c>
       <c r="F619" s="3" t="s">
         <v>1296</v>
@@ -27766,7 +27785,7 @@
       </c>
       <c r="D641" s="3"/>
       <c r="E641" s="3" t="s">
-        <v>496</v>
+        <v>1367</v>
       </c>
       <c r="F641" s="3" t="s">
         <v>1296</v>
@@ -27797,7 +27816,7 @@
       </c>
       <c r="D642" s="3"/>
       <c r="E642" s="3" t="s">
-        <v>496</v>
+        <v>1367</v>
       </c>
       <c r="F642" s="3" t="s">
         <v>1296</v>
@@ -28386,7 +28405,7 @@
       </c>
       <c r="D661" s="3"/>
       <c r="E661" s="3" t="s">
-        <v>496</v>
+        <v>1367</v>
       </c>
       <c r="F661" s="3" t="s">
         <v>1296</v>
@@ -28417,7 +28436,7 @@
       </c>
       <c r="D662" s="3"/>
       <c r="E662" s="3" t="s">
-        <v>496</v>
+        <v>1367</v>
       </c>
       <c r="F662" s="3" t="s">
         <v>1296</v>
@@ -29006,7 +29025,7 @@
       </c>
       <c r="D681" s="3"/>
       <c r="E681" s="3" t="s">
-        <v>496</v>
+        <v>1367</v>
       </c>
       <c r="F681" s="3" t="s">
         <v>1296</v>
@@ -29037,7 +29056,7 @@
       </c>
       <c r="D682" s="3"/>
       <c r="E682" s="3" t="s">
-        <v>496</v>
+        <v>1367</v>
       </c>
       <c r="F682" s="3" t="s">
         <v>1296</v>
@@ -29502,7 +29521,7 @@
       </c>
       <c r="D697" s="3"/>
       <c r="E697" s="3" t="s">
-        <v>496</v>
+        <v>1367</v>
       </c>
       <c r="F697" s="3" t="s">
         <v>1296</v>
@@ -29533,7 +29552,7 @@
       </c>
       <c r="D698" s="3"/>
       <c r="E698" s="3" t="s">
-        <v>496</v>
+        <v>1367</v>
       </c>
       <c r="F698" s="3" t="s">
         <v>1296</v>
@@ -29998,7 +30017,7 @@
       </c>
       <c r="D713" s="3"/>
       <c r="E713" s="3" t="s">
-        <v>496</v>
+        <v>1367</v>
       </c>
       <c r="F713" s="3" t="s">
         <v>1296</v>
@@ -30029,7 +30048,7 @@
       </c>
       <c r="D714" s="3"/>
       <c r="E714" s="3" t="s">
-        <v>496</v>
+        <v>1367</v>
       </c>
       <c r="F714" s="3" t="s">
         <v>1296</v>
@@ -30617,8 +30636,8 @@
         <v>397</v>
       </c>
       <c r="D733" s="3"/>
-      <c r="E733" s="3" t="s">
-        <v>1436</v>
+      <c r="E733" s="9" t="s">
+        <v>552</v>
       </c>
       <c r="F733" s="3" t="s">
         <v>1296</v>
@@ -30649,7 +30668,7 @@
       </c>
       <c r="D734" s="3"/>
       <c r="E734" s="3" t="s">
-        <v>496</v>
+        <v>1367</v>
       </c>
       <c r="F734" s="3" t="s">
         <v>1296</v>
@@ -30680,7 +30699,7 @@
       </c>
       <c r="D735" s="3"/>
       <c r="E735" s="3" t="s">
-        <v>496</v>
+        <v>1367</v>
       </c>
       <c r="F735" s="3" t="s">
         <v>1296</v>
@@ -31269,7 +31288,7 @@
       </c>
       <c r="D754" s="3"/>
       <c r="E754" s="3" t="s">
-        <v>496</v>
+        <v>1367</v>
       </c>
       <c r="F754" s="3" t="s">
         <v>1296</v>
@@ -31300,7 +31319,7 @@
       </c>
       <c r="D755" s="3"/>
       <c r="E755" s="3" t="s">
-        <v>496</v>
+        <v>1367</v>
       </c>
       <c r="F755" s="3" t="s">
         <v>1296</v>
@@ -31889,7 +31908,7 @@
       </c>
       <c r="D774" s="3"/>
       <c r="E774" s="3" t="s">
-        <v>496</v>
+        <v>1367</v>
       </c>
       <c r="F774" s="3" t="s">
         <v>1296</v>
@@ -31920,7 +31939,7 @@
       </c>
       <c r="D775" s="3"/>
       <c r="E775" s="3" t="s">
-        <v>496</v>
+        <v>1367</v>
       </c>
       <c r="F775" s="3" t="s">
         <v>1296</v>
@@ -32447,7 +32466,7 @@
       </c>
       <c r="D792" s="3"/>
       <c r="E792" s="3" t="s">
-        <v>552</v>
+        <v>2472</v>
       </c>
       <c r="F792" s="3" t="s">
         <v>1296</v>
@@ -32478,7 +32497,7 @@
       </c>
       <c r="D793" s="3"/>
       <c r="E793" s="3" t="s">
-        <v>552</v>
+        <v>2472</v>
       </c>
       <c r="F793" s="3" t="s">
         <v>1296</v>
@@ -32509,7 +32528,7 @@
       </c>
       <c r="D794" s="3"/>
       <c r="E794" s="3" t="s">
-        <v>496</v>
+        <v>1367</v>
       </c>
       <c r="F794" s="3" t="s">
         <v>1296</v>
@@ -32540,7 +32559,7 @@
       </c>
       <c r="D795" s="3"/>
       <c r="E795" s="3" t="s">
-        <v>496</v>
+        <v>1367</v>
       </c>
       <c r="F795" s="3" t="s">
         <v>1296</v>
@@ -32570,8 +32589,8 @@
         <v>397</v>
       </c>
       <c r="D796" s="3"/>
-      <c r="E796" s="3" t="s">
-        <v>1778</v>
+      <c r="E796" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="F796" s="3" t="s">
         <v>1296</v>
@@ -32592,17 +32611,17 @@
     </row>
     <row r="797" spans="1:13">
       <c r="A797" s="2" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B797" s="3" t="s">
         <v>1779</v>
-      </c>
-      <c r="B797" s="3" t="s">
-        <v>1780</v>
       </c>
       <c r="C797" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D797" s="3"/>
-      <c r="E797" s="3" t="s">
-        <v>1778</v>
+      <c r="E797" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="F797" s="3" t="s">
         <v>1296</v>
@@ -32623,17 +32642,17 @@
     </row>
     <row r="798" spans="1:13">
       <c r="A798" s="2" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B798" s="3" t="s">
         <v>1781</v>
-      </c>
-      <c r="B798" s="3" t="s">
-        <v>1782</v>
       </c>
       <c r="C798" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D798" s="3"/>
-      <c r="E798" s="3" t="s">
-        <v>2473</v>
+      <c r="E798" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="F798" s="3" t="s">
         <v>1296</v>
@@ -32654,17 +32673,17 @@
     </row>
     <row r="799" spans="1:13">
       <c r="A799" s="2" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B799" s="3" t="s">
         <v>1783</v>
-      </c>
-      <c r="B799" s="3" t="s">
-        <v>1784</v>
       </c>
       <c r="C799" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D799" s="3"/>
-      <c r="E799" s="3" t="s">
-        <v>2473</v>
+      <c r="E799" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="F799" s="3" t="s">
         <v>1296</v>
@@ -32685,10 +32704,10 @@
     </row>
     <row r="800" spans="1:13">
       <c r="A800" s="2" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B800" s="3" t="s">
         <v>1785</v>
-      </c>
-      <c r="B800" s="3" t="s">
-        <v>1786</v>
       </c>
       <c r="C800" s="3" t="s">
         <v>397</v>
@@ -32716,10 +32735,10 @@
     </row>
     <row r="801" spans="1:13">
       <c r="A801" s="2" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B801" s="3" t="s">
         <v>1787</v>
-      </c>
-      <c r="B801" s="3" t="s">
-        <v>1788</v>
       </c>
       <c r="C801" s="3" t="s">
         <v>1349</v>
@@ -32747,10 +32766,10 @@
     </row>
     <row r="802" spans="1:13">
       <c r="A802" s="2" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B802" s="3" t="s">
         <v>1789</v>
-      </c>
-      <c r="B802" s="3" t="s">
-        <v>1790</v>
       </c>
       <c r="C802" s="3" t="s">
         <v>1349</v>
@@ -32778,10 +32797,10 @@
     </row>
     <row r="803" spans="1:13">
       <c r="A803" s="2" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B803" s="3" t="s">
         <v>1791</v>
-      </c>
-      <c r="B803" s="3" t="s">
-        <v>1792</v>
       </c>
       <c r="C803" s="3" t="s">
         <v>397</v>
@@ -32809,16 +32828,16 @@
     </row>
     <row r="804" spans="1:13">
       <c r="A804" s="2" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B804" s="3" t="s">
         <v>1793</v>
-      </c>
-      <c r="B804" s="3" t="s">
-        <v>1794</v>
       </c>
       <c r="C804" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D804" s="3"/>
-      <c r="E804" s="3" t="s">
+      <c r="E804" s="9" t="s">
         <v>552</v>
       </c>
       <c r="F804" s="3" t="s">
@@ -32827,7 +32846,7 @@
       <c r="G804" s="3"/>
       <c r="H804" s="3"/>
       <c r="I804" s="3" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="J804" s="4" t="s">
         <v>6</v>
@@ -32840,10 +32859,10 @@
     </row>
     <row r="805" spans="1:13">
       <c r="A805" s="2" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B805" s="3" t="s">
         <v>1796</v>
-      </c>
-      <c r="B805" s="3" t="s">
-        <v>1797</v>
       </c>
       <c r="C805" s="3" t="s">
         <v>397</v>
@@ -32858,7 +32877,7 @@
       <c r="G805" s="3"/>
       <c r="H805" s="3"/>
       <c r="I805" s="3" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="J805" s="4" t="s">
         <v>6</v>
@@ -32871,10 +32890,10 @@
     </row>
     <row r="806" spans="1:13">
       <c r="A806" s="2" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B806" s="3" t="s">
         <v>1798</v>
-      </c>
-      <c r="B806" s="3" t="s">
-        <v>1799</v>
       </c>
       <c r="C806" s="3" t="s">
         <v>1349</v>
@@ -32889,7 +32908,7 @@
       <c r="G806" s="3"/>
       <c r="H806" s="3"/>
       <c r="I806" s="3" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="J806" s="4" t="s">
         <v>6</v>
@@ -32902,10 +32921,10 @@
     </row>
     <row r="807" spans="1:13">
       <c r="A807" s="2" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B807" s="3" t="s">
         <v>1800</v>
-      </c>
-      <c r="B807" s="3" t="s">
-        <v>1801</v>
       </c>
       <c r="C807" s="3" t="s">
         <v>1349</v>
@@ -32920,7 +32939,7 @@
       <c r="G807" s="3"/>
       <c r="H807" s="3"/>
       <c r="I807" s="3" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="J807" s="4" t="s">
         <v>6</v>
@@ -32933,10 +32952,10 @@
     </row>
     <row r="808" spans="1:13">
       <c r="A808" s="2" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B808" s="3" t="s">
         <v>1802</v>
-      </c>
-      <c r="B808" s="3" t="s">
-        <v>1803</v>
       </c>
       <c r="C808" s="3" t="s">
         <v>397</v>
@@ -32951,7 +32970,7 @@
       <c r="G808" s="3"/>
       <c r="H808" s="3"/>
       <c r="I808" s="3" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="J808" s="4" t="s">
         <v>6</v>
@@ -32964,17 +32983,17 @@
     </row>
     <row r="809" spans="1:13">
       <c r="A809" s="2" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B809" s="3" t="s">
         <v>1804</v>
-      </c>
-      <c r="B809" s="3" t="s">
-        <v>1805</v>
       </c>
       <c r="C809" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D809" s="3"/>
-      <c r="E809" s="3" t="s">
-        <v>1354</v>
+      <c r="E809" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="F809" s="3" t="s">
         <v>1296</v>
@@ -32982,7 +33001,7 @@
       <c r="G809" s="3"/>
       <c r="H809" s="3"/>
       <c r="I809" s="3" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="J809" s="4" t="s">
         <v>6</v>
@@ -32995,16 +33014,16 @@
     </row>
     <row r="810" spans="1:13">
       <c r="A810" s="2" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B810" s="3" t="s">
         <v>1806</v>
-      </c>
-      <c r="B810" s="3" t="s">
-        <v>1807</v>
       </c>
       <c r="C810" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D810" s="3"/>
-      <c r="E810" s="3" t="s">
+      <c r="E810" s="9" t="s">
         <v>1354</v>
       </c>
       <c r="F810" s="3" t="s">
@@ -33013,7 +33032,7 @@
       <c r="G810" s="3"/>
       <c r="H810" s="3"/>
       <c r="I810" s="3" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="J810" s="4" t="s">
         <v>6</v>
@@ -33026,16 +33045,16 @@
     </row>
     <row r="811" spans="1:13">
       <c r="A811" s="2" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="B811" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="C811" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D811" s="3"/>
-      <c r="E811" s="3" t="s">
+      <c r="E811" s="9" t="s">
         <v>1354</v>
       </c>
       <c r="F811" s="3" t="s">
@@ -33044,7 +33063,7 @@
       <c r="G811" s="3"/>
       <c r="H811" s="3"/>
       <c r="I811" s="3" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="J811" s="4" t="s">
         <v>6</v>
@@ -33057,10 +33076,10 @@
     </row>
     <row r="812" spans="1:13">
       <c r="A812" s="2" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B812" s="3" t="s">
         <v>1809</v>
-      </c>
-      <c r="B812" s="3" t="s">
-        <v>1810</v>
       </c>
       <c r="C812" s="3" t="s">
         <v>397</v>
@@ -33075,7 +33094,7 @@
       <c r="G812" s="3"/>
       <c r="H812" s="3"/>
       <c r="I812" s="3" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="J812" s="4" t="s">
         <v>6</v>
@@ -33088,10 +33107,10 @@
     </row>
     <row r="813" spans="1:13">
       <c r="A813" s="2" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B813" s="3" t="s">
         <v>1811</v>
-      </c>
-      <c r="B813" s="3" t="s">
-        <v>1812</v>
       </c>
       <c r="C813" s="3" t="s">
         <v>1349</v>
@@ -33106,7 +33125,7 @@
       <c r="G813" s="3"/>
       <c r="H813" s="3"/>
       <c r="I813" s="3" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="J813" s="4" t="s">
         <v>6</v>
@@ -33119,17 +33138,17 @@
     </row>
     <row r="814" spans="1:13">
       <c r="A814" s="2" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B814" s="3" t="s">
         <v>1813</v>
-      </c>
-      <c r="B814" s="3" t="s">
-        <v>1814</v>
       </c>
       <c r="C814" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D814" s="3"/>
       <c r="E814" s="3" t="s">
-        <v>552</v>
+        <v>2472</v>
       </c>
       <c r="F814" s="3" t="s">
         <v>1296</v>
@@ -33137,7 +33156,7 @@
       <c r="G814" s="3"/>
       <c r="H814" s="3"/>
       <c r="I814" s="3" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="J814" s="4" t="s">
         <v>6</v>
@@ -33150,17 +33169,17 @@
     </row>
     <row r="815" spans="1:13">
       <c r="A815" s="2" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B815" s="3" t="s">
         <v>1815</v>
-      </c>
-      <c r="B815" s="3" t="s">
-        <v>1816</v>
       </c>
       <c r="C815" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D815" s="3"/>
       <c r="E815" s="3" t="s">
-        <v>496</v>
+        <v>1367</v>
       </c>
       <c r="F815" s="3" t="s">
         <v>1296</v>
@@ -33168,7 +33187,7 @@
       <c r="G815" s="3"/>
       <c r="H815" s="3"/>
       <c r="I815" s="3" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="J815" s="4" t="s">
         <v>6</v>
@@ -33181,17 +33200,17 @@
     </row>
     <row r="816" spans="1:13">
       <c r="A816" s="2" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B816" s="3" t="s">
         <v>1817</v>
-      </c>
-      <c r="B816" s="3" t="s">
-        <v>1818</v>
       </c>
       <c r="C816" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D816" s="3"/>
       <c r="E816" s="3" t="s">
-        <v>496</v>
+        <v>1367</v>
       </c>
       <c r="F816" s="3" t="s">
         <v>1296</v>
@@ -33199,7 +33218,7 @@
       <c r="G816" s="3"/>
       <c r="H816" s="3"/>
       <c r="I816" s="3" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="J816" s="4" t="s">
         <v>6</v>
@@ -33212,17 +33231,17 @@
     </row>
     <row r="817" spans="1:13">
       <c r="A817" s="2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B817" s="3" t="s">
         <v>1819</v>
-      </c>
-      <c r="B817" s="3" t="s">
-        <v>1820</v>
       </c>
       <c r="C817" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D817" s="3"/>
-      <c r="E817" s="3" t="s">
-        <v>1778</v>
+      <c r="E817" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="F817" s="3" t="s">
         <v>1296</v>
@@ -33230,7 +33249,7 @@
       <c r="G817" s="3"/>
       <c r="H817" s="3"/>
       <c r="I817" s="3" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="J817" s="4" t="s">
         <v>6</v>
@@ -33243,17 +33262,17 @@
     </row>
     <row r="818" spans="1:13">
       <c r="A818" s="2" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B818" s="3" t="s">
         <v>1821</v>
-      </c>
-      <c r="B818" s="3" t="s">
-        <v>1822</v>
       </c>
       <c r="C818" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D818" s="3"/>
-      <c r="E818" s="3" t="s">
-        <v>1778</v>
+      <c r="E818" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="F818" s="3" t="s">
         <v>1296</v>
@@ -33261,7 +33280,7 @@
       <c r="G818" s="3"/>
       <c r="H818" s="3"/>
       <c r="I818" s="3" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="J818" s="4" t="s">
         <v>6</v>
@@ -33274,17 +33293,17 @@
     </row>
     <row r="819" spans="1:13">
       <c r="A819" s="2" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="B819" s="3" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="C819" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D819" s="3"/>
-      <c r="E819" s="3" t="s">
-        <v>1778</v>
+      <c r="E819" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="F819" s="3" t="s">
         <v>1296</v>
@@ -33292,7 +33311,7 @@
       <c r="G819" s="3"/>
       <c r="H819" s="3"/>
       <c r="I819" s="3" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="J819" s="4" t="s">
         <v>6</v>
@@ -33305,17 +33324,17 @@
     </row>
     <row r="820" spans="1:13">
       <c r="A820" s="2" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B820" s="3" t="s">
         <v>1824</v>
-      </c>
-      <c r="B820" s="3" t="s">
-        <v>1825</v>
       </c>
       <c r="C820" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D820" s="3"/>
-      <c r="E820" s="3" t="s">
-        <v>2473</v>
+      <c r="E820" s="9" t="s">
+        <v>2463</v>
       </c>
       <c r="F820" s="3" t="s">
         <v>1296</v>
@@ -33323,7 +33342,7 @@
       <c r="G820" s="3"/>
       <c r="H820" s="3"/>
       <c r="I820" s="3" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="J820" s="4" t="s">
         <v>6</v>
@@ -33336,17 +33355,17 @@
     </row>
     <row r="821" spans="1:13">
       <c r="A821" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B821" s="3" t="s">
         <v>1826</v>
-      </c>
-      <c r="B821" s="3" t="s">
-        <v>1827</v>
       </c>
       <c r="C821" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D821" s="3"/>
-      <c r="E821" s="3" t="s">
-        <v>2473</v>
+      <c r="E821" s="9" t="s">
+        <v>2463</v>
       </c>
       <c r="F821" s="3" t="s">
         <v>1296</v>
@@ -33354,7 +33373,7 @@
       <c r="G821" s="3"/>
       <c r="H821" s="3"/>
       <c r="I821" s="3" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="J821" s="4" t="s">
         <v>6</v>
@@ -33367,10 +33386,10 @@
     </row>
     <row r="822" spans="1:13">
       <c r="A822" s="2" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B822" s="3" t="s">
         <v>1828</v>
-      </c>
-      <c r="B822" s="3" t="s">
-        <v>1829</v>
       </c>
       <c r="C822" s="3" t="s">
         <v>397</v>
@@ -33385,7 +33404,7 @@
       <c r="G822" s="3"/>
       <c r="H822" s="3"/>
       <c r="I822" s="3" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="J822" s="4" t="s">
         <v>6</v>
@@ -33398,10 +33417,10 @@
     </row>
     <row r="823" spans="1:13">
       <c r="A823" s="2" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B823" s="3" t="s">
         <v>1830</v>
-      </c>
-      <c r="B823" s="3" t="s">
-        <v>1831</v>
       </c>
       <c r="C823" s="3" t="s">
         <v>1349</v>
@@ -33416,7 +33435,7 @@
       <c r="G823" s="3"/>
       <c r="H823" s="3"/>
       <c r="I823" s="3" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="J823" s="4" t="s">
         <v>6</v>
@@ -33429,10 +33448,10 @@
     </row>
     <row r="824" spans="1:13">
       <c r="A824" s="2" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B824" s="3" t="s">
         <v>1832</v>
-      </c>
-      <c r="B824" s="3" t="s">
-        <v>1833</v>
       </c>
       <c r="C824" s="3" t="s">
         <v>1349</v>
@@ -33447,7 +33466,7 @@
       <c r="G824" s="3"/>
       <c r="H824" s="3"/>
       <c r="I824" s="3" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="J824" s="4" t="s">
         <v>6</v>
@@ -33460,10 +33479,10 @@
     </row>
     <row r="825" spans="1:13">
       <c r="A825" s="2" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B825" s="3" t="s">
         <v>1834</v>
-      </c>
-      <c r="B825" s="3" t="s">
-        <v>1835</v>
       </c>
       <c r="C825" s="3" t="s">
         <v>397</v>
@@ -33478,7 +33497,7 @@
       <c r="G825" s="3"/>
       <c r="H825" s="3"/>
       <c r="I825" s="3" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="J825" s="4" t="s">
         <v>6</v>
@@ -33491,10 +33510,10 @@
     </row>
     <row r="826" spans="1:13">
       <c r="A826" s="2" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B826" s="3" t="s">
         <v>1836</v>
-      </c>
-      <c r="B826" s="3" t="s">
-        <v>1837</v>
       </c>
       <c r="C826" s="3" t="s">
         <v>1349</v>
@@ -33509,7 +33528,7 @@
       <c r="G826" s="3"/>
       <c r="H826" s="3"/>
       <c r="I826" s="3" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="J826" s="4" t="s">
         <v>6</v>
@@ -33522,10 +33541,10 @@
     </row>
     <row r="827" spans="1:13">
       <c r="A827" s="2" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B827" s="3" t="s">
         <v>1839</v>
-      </c>
-      <c r="B827" s="3" t="s">
-        <v>1840</v>
       </c>
       <c r="C827" s="3" t="s">
         <v>397</v>
@@ -33540,7 +33559,7 @@
       <c r="G827" s="3"/>
       <c r="H827" s="3"/>
       <c r="I827" s="3" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="J827" s="4" t="s">
         <v>6</v>
@@ -33553,10 +33572,10 @@
     </row>
     <row r="828" spans="1:13">
       <c r="A828" s="2" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B828" s="3" t="s">
         <v>1841</v>
-      </c>
-      <c r="B828" s="3" t="s">
-        <v>1842</v>
       </c>
       <c r="C828" s="3" t="s">
         <v>1349</v>
@@ -33571,7 +33590,7 @@
       <c r="G828" s="3"/>
       <c r="H828" s="3"/>
       <c r="I828" s="3" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="J828" s="4" t="s">
         <v>6</v>
@@ -33584,10 +33603,10 @@
     </row>
     <row r="829" spans="1:13">
       <c r="A829" s="2" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B829" s="3" t="s">
         <v>1843</v>
-      </c>
-      <c r="B829" s="3" t="s">
-        <v>1844</v>
       </c>
       <c r="C829" s="3" t="s">
         <v>397</v>
@@ -33602,7 +33621,7 @@
       <c r="G829" s="3"/>
       <c r="H829" s="3"/>
       <c r="I829" s="3" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="J829" s="4" t="s">
         <v>6</v>
@@ -33615,17 +33634,17 @@
     </row>
     <row r="830" spans="1:13">
       <c r="A830" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B830" s="3" t="s">
         <v>1845</v>
-      </c>
-      <c r="B830" s="3" t="s">
-        <v>1846</v>
       </c>
       <c r="C830" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D830" s="3"/>
-      <c r="E830" s="3" t="s">
-        <v>1354</v>
+      <c r="E830" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="F830" s="3" t="s">
         <v>1296</v>
@@ -33633,7 +33652,7 @@
       <c r="G830" s="3"/>
       <c r="H830" s="3"/>
       <c r="I830" s="3" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="J830" s="4" t="s">
         <v>6</v>
@@ -33646,17 +33665,17 @@
     </row>
     <row r="831" spans="1:13">
       <c r="A831" s="2" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B831" s="3" t="s">
         <v>1847</v>
-      </c>
-      <c r="B831" s="3" t="s">
-        <v>1848</v>
       </c>
       <c r="C831" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D831" s="3"/>
-      <c r="E831" s="3" t="s">
-        <v>1354</v>
+      <c r="E831" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="F831" s="3" t="s">
         <v>1296</v>
@@ -33664,7 +33683,7 @@
       <c r="G831" s="3"/>
       <c r="H831" s="3"/>
       <c r="I831" s="3" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="J831" s="4" t="s">
         <v>6</v>
@@ -33677,10 +33696,10 @@
     </row>
     <row r="832" spans="1:13">
       <c r="A832" s="2" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B832" s="3" t="s">
         <v>1849</v>
-      </c>
-      <c r="B832" s="3" t="s">
-        <v>1850</v>
       </c>
       <c r="C832" s="3" t="s">
         <v>397</v>
@@ -33695,7 +33714,7 @@
       <c r="G832" s="3"/>
       <c r="H832" s="3"/>
       <c r="I832" s="3" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="J832" s="4" t="s">
         <v>6</v>
@@ -33708,10 +33727,10 @@
     </row>
     <row r="833" spans="1:13">
       <c r="A833" s="2" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B833" s="3" t="s">
         <v>1851</v>
-      </c>
-      <c r="B833" s="3" t="s">
-        <v>1852</v>
       </c>
       <c r="C833" s="3" t="s">
         <v>1349</v>
@@ -33726,7 +33745,7 @@
       <c r="G833" s="3"/>
       <c r="H833" s="3"/>
       <c r="I833" s="3" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="J833" s="4" t="s">
         <v>6</v>
@@ -33739,17 +33758,17 @@
     </row>
     <row r="834" spans="1:13">
       <c r="A834" s="2" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B834" s="3" t="s">
         <v>1853</v>
-      </c>
-      <c r="B834" s="3" t="s">
-        <v>1854</v>
       </c>
       <c r="C834" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D834" s="3"/>
-      <c r="E834" s="3" t="s">
-        <v>552</v>
+      <c r="E834" s="9" t="s">
+        <v>2473</v>
       </c>
       <c r="F834" s="3" t="s">
         <v>1296</v>
@@ -33757,7 +33776,7 @@
       <c r="G834" s="3"/>
       <c r="H834" s="3"/>
       <c r="I834" s="3" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="J834" s="4" t="s">
         <v>6</v>
@@ -33770,16 +33789,16 @@
     </row>
     <row r="835" spans="1:13">
       <c r="A835" s="2" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B835" s="3" t="s">
         <v>1855</v>
-      </c>
-      <c r="B835" s="3" t="s">
-        <v>1856</v>
       </c>
       <c r="C835" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D835" s="3"/>
-      <c r="E835" s="3" t="s">
+      <c r="E835" s="9" t="s">
         <v>552</v>
       </c>
       <c r="F835" s="3" t="s">
@@ -33788,7 +33807,7 @@
       <c r="G835" s="3"/>
       <c r="H835" s="3"/>
       <c r="I835" s="3" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="J835" s="4" t="s">
         <v>6</v>
@@ -33801,17 +33820,17 @@
     </row>
     <row r="836" spans="1:13">
       <c r="A836" s="2" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B836" s="3" t="s">
         <v>1857</v>
-      </c>
-      <c r="B836" s="3" t="s">
-        <v>1858</v>
       </c>
       <c r="C836" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D836" s="3"/>
       <c r="E836" s="3" t="s">
-        <v>496</v>
+        <v>1367</v>
       </c>
       <c r="F836" s="3" t="s">
         <v>1296</v>
@@ -33819,7 +33838,7 @@
       <c r="G836" s="3"/>
       <c r="H836" s="3"/>
       <c r="I836" s="3" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="J836" s="4" t="s">
         <v>6</v>
@@ -33832,17 +33851,17 @@
     </row>
     <row r="837" spans="1:13">
       <c r="A837" s="2" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B837" s="3" t="s">
         <v>1859</v>
-      </c>
-      <c r="B837" s="3" t="s">
-        <v>1860</v>
       </c>
       <c r="C837" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D837" s="3"/>
       <c r="E837" s="3" t="s">
-        <v>496</v>
+        <v>1367</v>
       </c>
       <c r="F837" s="3" t="s">
         <v>1296</v>
@@ -33850,7 +33869,7 @@
       <c r="G837" s="3"/>
       <c r="H837" s="3"/>
       <c r="I837" s="3" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="J837" s="4" t="s">
         <v>6</v>
@@ -33863,17 +33882,17 @@
     </row>
     <row r="838" spans="1:13">
       <c r="A838" s="2" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B838" s="3" t="s">
         <v>1861</v>
-      </c>
-      <c r="B838" s="3" t="s">
-        <v>1862</v>
       </c>
       <c r="C838" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D838" s="3"/>
-      <c r="E838" s="3" t="s">
-        <v>1778</v>
+      <c r="E838" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="F838" s="3" t="s">
         <v>1296</v>
@@ -33881,7 +33900,7 @@
       <c r="G838" s="3"/>
       <c r="H838" s="3"/>
       <c r="I838" s="3" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="J838" s="4" t="s">
         <v>6</v>
@@ -33894,17 +33913,17 @@
     </row>
     <row r="839" spans="1:13">
       <c r="A839" s="2" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B839" s="3" t="s">
         <v>1863</v>
-      </c>
-      <c r="B839" s="3" t="s">
-        <v>1864</v>
       </c>
       <c r="C839" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D839" s="3"/>
-      <c r="E839" s="3" t="s">
-        <v>1778</v>
+      <c r="E839" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="F839" s="3" t="s">
         <v>1296</v>
@@ -33912,7 +33931,7 @@
       <c r="G839" s="3"/>
       <c r="H839" s="3"/>
       <c r="I839" s="3" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="J839" s="4" t="s">
         <v>6</v>
@@ -33925,17 +33944,17 @@
     </row>
     <row r="840" spans="1:13">
       <c r="A840" s="2" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B840" s="3" t="s">
         <v>1865</v>
-      </c>
-      <c r="B840" s="3" t="s">
-        <v>1866</v>
       </c>
       <c r="C840" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D840" s="3"/>
-      <c r="E840" s="3" t="s">
-        <v>2473</v>
+      <c r="E840" s="9" t="s">
+        <v>1660</v>
       </c>
       <c r="F840" s="3" t="s">
         <v>1296</v>
@@ -33943,7 +33962,7 @@
       <c r="G840" s="3"/>
       <c r="H840" s="3"/>
       <c r="I840" s="3" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="J840" s="4" t="s">
         <v>6</v>
@@ -33956,17 +33975,17 @@
     </row>
     <row r="841" spans="1:13">
       <c r="A841" s="2" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B841" s="3" t="s">
         <v>1867</v>
-      </c>
-      <c r="B841" s="3" t="s">
-        <v>1868</v>
       </c>
       <c r="C841" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D841" s="3"/>
-      <c r="E841" s="3" t="s">
-        <v>2473</v>
+      <c r="E841" s="9" t="s">
+        <v>1660</v>
       </c>
       <c r="F841" s="3" t="s">
         <v>1296</v>
@@ -33974,7 +33993,7 @@
       <c r="G841" s="3"/>
       <c r="H841" s="3"/>
       <c r="I841" s="3" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="J841" s="4" t="s">
         <v>6</v>
@@ -33987,10 +34006,10 @@
     </row>
     <row r="842" spans="1:13">
       <c r="A842" s="2" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B842" s="3" t="s">
         <v>1869</v>
-      </c>
-      <c r="B842" s="3" t="s">
-        <v>1870</v>
       </c>
       <c r="C842" s="3" t="s">
         <v>397</v>
@@ -34005,7 +34024,7 @@
       <c r="G842" s="3"/>
       <c r="H842" s="3"/>
       <c r="I842" s="3" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="J842" s="4" t="s">
         <v>6</v>
@@ -34018,10 +34037,10 @@
     </row>
     <row r="843" spans="1:13">
       <c r="A843" s="2" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B843" s="3" t="s">
         <v>1871</v>
-      </c>
-      <c r="B843" s="3" t="s">
-        <v>1872</v>
       </c>
       <c r="C843" s="3" t="s">
         <v>1349</v>
@@ -34036,7 +34055,7 @@
       <c r="G843" s="3"/>
       <c r="H843" s="3"/>
       <c r="I843" s="3" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="J843" s="4" t="s">
         <v>6</v>
@@ -34049,10 +34068,10 @@
     </row>
     <row r="844" spans="1:13">
       <c r="A844" s="2" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B844" s="3" t="s">
         <v>1873</v>
-      </c>
-      <c r="B844" s="3" t="s">
-        <v>1874</v>
       </c>
       <c r="C844" s="3" t="s">
         <v>1349</v>
@@ -34067,7 +34086,7 @@
       <c r="G844" s="3"/>
       <c r="H844" s="3"/>
       <c r="I844" s="3" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="J844" s="4" t="s">
         <v>6</v>
@@ -34080,10 +34099,10 @@
     </row>
     <row r="845" spans="1:13">
       <c r="A845" s="2" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B845" s="3" t="s">
         <v>1875</v>
-      </c>
-      <c r="B845" s="3" t="s">
-        <v>1876</v>
       </c>
       <c r="C845" s="3" t="s">
         <v>397</v>
@@ -34098,7 +34117,7 @@
       <c r="G845" s="3"/>
       <c r="H845" s="3"/>
       <c r="I845" s="3" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="J845" s="4" t="s">
         <v>6</v>
@@ -34111,10 +34130,10 @@
     </row>
     <row r="846" spans="1:13">
       <c r="A846" s="2" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B846" s="3" t="s">
         <v>1877</v>
-      </c>
-      <c r="B846" s="3" t="s">
-        <v>1878</v>
       </c>
       <c r="C846" s="3" t="s">
         <v>397</v>
@@ -34129,7 +34148,7 @@
       <c r="G846" s="3"/>
       <c r="H846" s="3"/>
       <c r="I846" s="3" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="J846" s="4" t="s">
         <v>6</v>
@@ -34142,10 +34161,10 @@
     </row>
     <row r="847" spans="1:13">
       <c r="A847" s="2" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B847" s="3" t="s">
         <v>1880</v>
-      </c>
-      <c r="B847" s="3" t="s">
-        <v>1881</v>
       </c>
       <c r="C847" s="3" t="s">
         <v>1349</v>
@@ -34160,7 +34179,7 @@
       <c r="G847" s="3"/>
       <c r="H847" s="3"/>
       <c r="I847" s="3" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="J847" s="4" t="s">
         <v>6</v>
@@ -34173,10 +34192,10 @@
     </row>
     <row r="848" spans="1:13">
       <c r="A848" s="2" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B848" s="3" t="s">
         <v>1882</v>
-      </c>
-      <c r="B848" s="3" t="s">
-        <v>1883</v>
       </c>
       <c r="C848" s="3" t="s">
         <v>1349</v>
@@ -34191,7 +34210,7 @@
       <c r="G848" s="3"/>
       <c r="H848" s="3"/>
       <c r="I848" s="3" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="J848" s="4" t="s">
         <v>6</v>
@@ -34204,10 +34223,10 @@
     </row>
     <row r="849" spans="1:13">
       <c r="A849" s="2" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B849" s="3" t="s">
         <v>1884</v>
-      </c>
-      <c r="B849" s="3" t="s">
-        <v>1885</v>
       </c>
       <c r="C849" s="3" t="s">
         <v>397</v>
@@ -34222,7 +34241,7 @@
       <c r="G849" s="3"/>
       <c r="H849" s="3"/>
       <c r="I849" s="3" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="J849" s="4" t="s">
         <v>6</v>
@@ -34235,17 +34254,17 @@
     </row>
     <row r="850" spans="1:13">
       <c r="A850" s="2" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B850" s="3" t="s">
         <v>1886</v>
-      </c>
-      <c r="B850" s="3" t="s">
-        <v>1887</v>
       </c>
       <c r="C850" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D850" s="3"/>
       <c r="E850" s="3" t="s">
-        <v>1354</v>
+        <v>2471</v>
       </c>
       <c r="F850" s="3" t="s">
         <v>1296</v>
@@ -34253,7 +34272,7 @@
       <c r="G850" s="3"/>
       <c r="H850" s="3"/>
       <c r="I850" s="3" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="J850" s="4" t="s">
         <v>6</v>
@@ -34266,17 +34285,17 @@
     </row>
     <row r="851" spans="1:13">
       <c r="A851" s="2" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B851" s="3" t="s">
         <v>1888</v>
-      </c>
-      <c r="B851" s="3" t="s">
-        <v>1889</v>
       </c>
       <c r="C851" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D851" s="3"/>
       <c r="E851" s="3" t="s">
-        <v>1354</v>
+        <v>2471</v>
       </c>
       <c r="F851" s="3" t="s">
         <v>1296</v>
@@ -34284,7 +34303,7 @@
       <c r="G851" s="3"/>
       <c r="H851" s="3"/>
       <c r="I851" s="3" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="J851" s="4" t="s">
         <v>6</v>
@@ -34297,10 +34316,10 @@
     </row>
     <row r="852" spans="1:13">
       <c r="A852" s="2" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B852" s="3" t="s">
         <v>1890</v>
-      </c>
-      <c r="B852" s="3" t="s">
-        <v>1891</v>
       </c>
       <c r="C852" s="3" t="s">
         <v>397</v>
@@ -34315,7 +34334,7 @@
       <c r="G852" s="3"/>
       <c r="H852" s="3"/>
       <c r="I852" s="3" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="J852" s="4" t="s">
         <v>6</v>
@@ -34328,10 +34347,10 @@
     </row>
     <row r="853" spans="1:13">
       <c r="A853" s="2" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B853" s="3" t="s">
         <v>1892</v>
-      </c>
-      <c r="B853" s="3" t="s">
-        <v>1893</v>
       </c>
       <c r="C853" s="3" t="s">
         <v>1349</v>
@@ -34346,7 +34365,7 @@
       <c r="G853" s="3"/>
       <c r="H853" s="3"/>
       <c r="I853" s="3" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="J853" s="4" t="s">
         <v>6</v>
@@ -34359,16 +34378,16 @@
     </row>
     <row r="854" spans="1:13">
       <c r="A854" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B854" s="3" t="s">
         <v>1894</v>
-      </c>
-      <c r="B854" s="3" t="s">
-        <v>1895</v>
       </c>
       <c r="C854" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D854" s="3"/>
-      <c r="E854" s="3" t="s">
+      <c r="E854" s="9" t="s">
         <v>552</v>
       </c>
       <c r="F854" s="3" t="s">
@@ -34377,7 +34396,7 @@
       <c r="G854" s="3"/>
       <c r="H854" s="3"/>
       <c r="I854" s="3" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="J854" s="4" t="s">
         <v>6</v>
@@ -34390,16 +34409,16 @@
     </row>
     <row r="855" spans="1:13">
       <c r="A855" s="2" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B855" s="3" t="s">
         <v>1896</v>
-      </c>
-      <c r="B855" s="3" t="s">
-        <v>1897</v>
       </c>
       <c r="C855" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D855" s="3"/>
-      <c r="E855" s="3" t="s">
+      <c r="E855" s="9" t="s">
         <v>552</v>
       </c>
       <c r="F855" s="3" t="s">
@@ -34408,7 +34427,7 @@
       <c r="G855" s="3"/>
       <c r="H855" s="3"/>
       <c r="I855" s="3" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="J855" s="4" t="s">
         <v>6</v>
@@ -34421,17 +34440,17 @@
     </row>
     <row r="856" spans="1:13">
       <c r="A856" s="2" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B856" s="3" t="s">
         <v>1898</v>
-      </c>
-      <c r="B856" s="3" t="s">
-        <v>1899</v>
       </c>
       <c r="C856" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D856" s="3"/>
       <c r="E856" s="3" t="s">
-        <v>496</v>
+        <v>1367</v>
       </c>
       <c r="F856" s="3" t="s">
         <v>1296</v>
@@ -34439,7 +34458,7 @@
       <c r="G856" s="3"/>
       <c r="H856" s="3"/>
       <c r="I856" s="3" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="J856" s="4" t="s">
         <v>6</v>
@@ -34452,17 +34471,17 @@
     </row>
     <row r="857" spans="1:13">
       <c r="A857" s="2" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B857" s="3" t="s">
         <v>1900</v>
-      </c>
-      <c r="B857" s="3" t="s">
-        <v>1901</v>
       </c>
       <c r="C857" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D857" s="3"/>
       <c r="E857" s="3" t="s">
-        <v>496</v>
+        <v>1367</v>
       </c>
       <c r="F857" s="3" t="s">
         <v>1296</v>
@@ -34470,7 +34489,7 @@
       <c r="G857" s="3"/>
       <c r="H857" s="3"/>
       <c r="I857" s="3" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="J857" s="4" t="s">
         <v>6</v>
@@ -34483,17 +34502,17 @@
     </row>
     <row r="858" spans="1:13">
       <c r="A858" s="2" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B858" s="3" t="s">
         <v>1902</v>
-      </c>
-      <c r="B858" s="3" t="s">
-        <v>1903</v>
       </c>
       <c r="C858" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D858" s="3"/>
-      <c r="E858" s="3" t="s">
-        <v>1778</v>
+      <c r="E858" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="F858" s="3" t="s">
         <v>1296</v>
@@ -34501,7 +34520,7 @@
       <c r="G858" s="3"/>
       <c r="H858" s="3"/>
       <c r="I858" s="3" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="J858" s="4" t="s">
         <v>6</v>
@@ -34514,17 +34533,17 @@
     </row>
     <row r="859" spans="1:13">
       <c r="A859" s="2" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B859" s="3" t="s">
         <v>1904</v>
-      </c>
-      <c r="B859" s="3" t="s">
-        <v>1905</v>
       </c>
       <c r="C859" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D859" s="3"/>
-      <c r="E859" s="3" t="s">
-        <v>1778</v>
+      <c r="E859" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="F859" s="3" t="s">
         <v>1296</v>
@@ -34532,7 +34551,7 @@
       <c r="G859" s="3"/>
       <c r="H859" s="3"/>
       <c r="I859" s="3" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="J859" s="4" t="s">
         <v>6</v>
@@ -34545,17 +34564,17 @@
     </row>
     <row r="860" spans="1:13">
       <c r="A860" s="2" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B860" s="3" t="s">
         <v>1906</v>
-      </c>
-      <c r="B860" s="3" t="s">
-        <v>1907</v>
       </c>
       <c r="C860" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D860" s="3"/>
-      <c r="E860" s="3" t="s">
-        <v>2473</v>
+      <c r="E860" s="9" t="s">
+        <v>2463</v>
       </c>
       <c r="F860" s="3" t="s">
         <v>1296</v>
@@ -34563,7 +34582,7 @@
       <c r="G860" s="3"/>
       <c r="H860" s="3"/>
       <c r="I860" s="3" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="J860" s="4" t="s">
         <v>6</v>
@@ -34576,17 +34595,17 @@
     </row>
     <row r="861" spans="1:13">
       <c r="A861" s="2" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B861" s="3" t="s">
         <v>1908</v>
-      </c>
-      <c r="B861" s="3" t="s">
-        <v>1909</v>
       </c>
       <c r="C861" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D861" s="3"/>
-      <c r="E861" s="3" t="s">
-        <v>2473</v>
+      <c r="E861" s="9" t="s">
+        <v>2463</v>
       </c>
       <c r="F861" s="3" t="s">
         <v>1296</v>
@@ -34594,7 +34613,7 @@
       <c r="G861" s="3"/>
       <c r="H861" s="3"/>
       <c r="I861" s="3" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="J861" s="4" t="s">
         <v>6</v>
@@ -34607,10 +34626,10 @@
     </row>
     <row r="862" spans="1:13">
       <c r="A862" s="2" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B862" s="3" t="s">
         <v>1910</v>
-      </c>
-      <c r="B862" s="3" t="s">
-        <v>1911</v>
       </c>
       <c r="C862" s="3" t="s">
         <v>397</v>
@@ -34625,7 +34644,7 @@
       <c r="G862" s="3"/>
       <c r="H862" s="3"/>
       <c r="I862" s="3" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="J862" s="4" t="s">
         <v>6</v>
@@ -34638,10 +34657,10 @@
     </row>
     <row r="863" spans="1:13">
       <c r="A863" s="2" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B863" s="3" t="s">
         <v>1912</v>
-      </c>
-      <c r="B863" s="3" t="s">
-        <v>1913</v>
       </c>
       <c r="C863" s="3" t="s">
         <v>1349</v>
@@ -34656,7 +34675,7 @@
       <c r="G863" s="3"/>
       <c r="H863" s="3"/>
       <c r="I863" s="3" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="J863" s="4" t="s">
         <v>6</v>
@@ -34669,10 +34688,10 @@
     </row>
     <row r="864" spans="1:13">
       <c r="A864" s="2" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B864" s="3" t="s">
         <v>1914</v>
-      </c>
-      <c r="B864" s="3" t="s">
-        <v>1915</v>
       </c>
       <c r="C864" s="3" t="s">
         <v>1349</v>
@@ -34687,7 +34706,7 @@
       <c r="G864" s="3"/>
       <c r="H864" s="3"/>
       <c r="I864" s="3" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="J864" s="4" t="s">
         <v>6</v>
@@ -34700,10 +34719,10 @@
     </row>
     <row r="865" spans="1:13">
       <c r="A865" s="2" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B865" s="3" t="s">
         <v>1916</v>
-      </c>
-      <c r="B865" s="3" t="s">
-        <v>1917</v>
       </c>
       <c r="C865" s="3" t="s">
         <v>397</v>
@@ -34718,7 +34737,7 @@
       <c r="G865" s="3"/>
       <c r="H865" s="3"/>
       <c r="I865" s="3" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="J865" s="4" t="s">
         <v>6</v>
@@ -34731,10 +34750,10 @@
     </row>
     <row r="866" spans="1:13">
       <c r="A866" s="2" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B866" s="3" t="s">
         <v>1918</v>
-      </c>
-      <c r="B866" s="3" t="s">
-        <v>1919</v>
       </c>
       <c r="C866" s="3" t="s">
         <v>397</v>
@@ -34749,7 +34768,7 @@
       <c r="G866" s="3"/>
       <c r="H866" s="3"/>
       <c r="I866" s="3" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="J866" s="4" t="s">
         <v>6</v>
@@ -34762,10 +34781,10 @@
     </row>
     <row r="867" spans="1:13">
       <c r="A867" s="2" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B867" s="3" t="s">
         <v>1921</v>
-      </c>
-      <c r="B867" s="3" t="s">
-        <v>1922</v>
       </c>
       <c r="C867" s="3" t="s">
         <v>1349</v>
@@ -34780,7 +34799,7 @@
       <c r="G867" s="3"/>
       <c r="H867" s="3"/>
       <c r="I867" s="3" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="J867" s="4" t="s">
         <v>6</v>
@@ -34793,10 +34812,10 @@
     </row>
     <row r="868" spans="1:13">
       <c r="A868" s="2" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B868" s="3" t="s">
         <v>1923</v>
-      </c>
-      <c r="B868" s="3" t="s">
-        <v>1924</v>
       </c>
       <c r="C868" s="3" t="s">
         <v>1349</v>
@@ -34811,7 +34830,7 @@
       <c r="G868" s="3"/>
       <c r="H868" s="3"/>
       <c r="I868" s="3" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="J868" s="4" t="s">
         <v>6</v>
@@ -34824,10 +34843,10 @@
     </row>
     <row r="869" spans="1:13">
       <c r="A869" s="2" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B869" s="3" t="s">
         <v>1925</v>
-      </c>
-      <c r="B869" s="3" t="s">
-        <v>1926</v>
       </c>
       <c r="C869" s="3" t="s">
         <v>397</v>
@@ -34842,7 +34861,7 @@
       <c r="G869" s="3"/>
       <c r="H869" s="3"/>
       <c r="I869" s="3" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="J869" s="4" t="s">
         <v>6</v>
@@ -34855,17 +34874,17 @@
     </row>
     <row r="870" spans="1:13">
       <c r="A870" s="2" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B870" s="3" t="s">
         <v>1927</v>
-      </c>
-      <c r="B870" s="3" t="s">
-        <v>1928</v>
       </c>
       <c r="C870" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D870" s="3"/>
-      <c r="E870" s="3" t="s">
-        <v>1354</v>
+      <c r="E870" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="F870" s="3" t="s">
         <v>1296</v>
@@ -34873,7 +34892,7 @@
       <c r="G870" s="3"/>
       <c r="H870" s="3"/>
       <c r="I870" s="3" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="J870" s="4" t="s">
         <v>6</v>
@@ -34886,17 +34905,17 @@
     </row>
     <row r="871" spans="1:13">
       <c r="A871" s="2" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B871" s="3" t="s">
         <v>1929</v>
-      </c>
-      <c r="B871" s="3" t="s">
-        <v>1930</v>
       </c>
       <c r="C871" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D871" s="3"/>
-      <c r="E871" s="3" t="s">
-        <v>1354</v>
+      <c r="E871" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="F871" s="3" t="s">
         <v>1296</v>
@@ -34904,7 +34923,7 @@
       <c r="G871" s="3"/>
       <c r="H871" s="3"/>
       <c r="I871" s="3" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="J871" s="4" t="s">
         <v>6</v>
@@ -34917,10 +34936,10 @@
     </row>
     <row r="872" spans="1:13">
       <c r="A872" s="2" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B872" s="3" t="s">
         <v>1931</v>
-      </c>
-      <c r="B872" s="3" t="s">
-        <v>1932</v>
       </c>
       <c r="C872" s="3" t="s">
         <v>397</v>
@@ -34935,7 +34954,7 @@
       <c r="G872" s="3"/>
       <c r="H872" s="3"/>
       <c r="I872" s="3" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="J872" s="4" t="s">
         <v>6</v>
@@ -34948,10 +34967,10 @@
     </row>
     <row r="873" spans="1:13">
       <c r="A873" s="2" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B873" s="3" t="s">
         <v>1933</v>
-      </c>
-      <c r="B873" s="3" t="s">
-        <v>1934</v>
       </c>
       <c r="C873" s="3" t="s">
         <v>1349</v>
@@ -34966,7 +34985,7 @@
       <c r="G873" s="3"/>
       <c r="H873" s="3"/>
       <c r="I873" s="3" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="J873" s="4" t="s">
         <v>6</v>
@@ -34979,10 +34998,10 @@
     </row>
     <row r="874" spans="1:13">
       <c r="A874" s="2" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B874" s="3" t="s">
         <v>1936</v>
-      </c>
-      <c r="B874" s="3" t="s">
-        <v>1937</v>
       </c>
       <c r="C874" s="3" t="s">
         <v>1349</v>
@@ -34997,7 +35016,7 @@
       <c r="G874" s="3"/>
       <c r="H874" s="3"/>
       <c r="I874" s="3" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="J874" s="4" t="s">
         <v>6</v>
@@ -35010,10 +35029,10 @@
     </row>
     <row r="875" spans="1:13">
       <c r="A875" s="2" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B875" s="3" t="s">
         <v>1938</v>
-      </c>
-      <c r="B875" s="3" t="s">
-        <v>1939</v>
       </c>
       <c r="C875" s="3" t="s">
         <v>397</v>
@@ -35028,7 +35047,7 @@
       <c r="G875" s="3"/>
       <c r="H875" s="3"/>
       <c r="I875" s="3" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="J875" s="4" t="s">
         <v>6</v>
@@ -35041,10 +35060,10 @@
     </row>
     <row r="876" spans="1:13">
       <c r="A876" s="2" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B876" s="3" t="s">
         <v>1940</v>
-      </c>
-      <c r="B876" s="3" t="s">
-        <v>1941</v>
       </c>
       <c r="C876" s="3" t="s">
         <v>1349</v>
@@ -35059,7 +35078,7 @@
       <c r="G876" s="3"/>
       <c r="H876" s="3"/>
       <c r="I876" s="3" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="J876" s="4" t="s">
         <v>6</v>
@@ -35072,10 +35091,10 @@
     </row>
     <row r="877" spans="1:13">
       <c r="A877" s="2" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B877" s="3" t="s">
         <v>1942</v>
-      </c>
-      <c r="B877" s="3" t="s">
-        <v>1943</v>
       </c>
       <c r="C877" s="3" t="s">
         <v>397</v>
@@ -35090,7 +35109,7 @@
       <c r="G877" s="3"/>
       <c r="H877" s="3"/>
       <c r="I877" s="3" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="J877" s="4" t="s">
         <v>6</v>
@@ -35103,10 +35122,10 @@
     </row>
     <row r="878" spans="1:13">
       <c r="A878" s="2" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B878" s="3" t="s">
         <v>1944</v>
-      </c>
-      <c r="B878" s="3" t="s">
-        <v>1945</v>
       </c>
       <c r="C878" s="3" t="s">
         <v>397</v>
@@ -35121,7 +35140,7 @@
       <c r="G878" s="3"/>
       <c r="H878" s="3"/>
       <c r="I878" s="3" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="J878" s="4" t="s">
         <v>6</v>
@@ -35134,10 +35153,10 @@
     </row>
     <row r="879" spans="1:13">
       <c r="A879" s="2" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B879" s="3" t="s">
         <v>1946</v>
-      </c>
-      <c r="B879" s="3" t="s">
-        <v>1947</v>
       </c>
       <c r="C879" s="3" t="s">
         <v>1349</v>
@@ -35152,7 +35171,7 @@
       <c r="G879" s="3"/>
       <c r="H879" s="3"/>
       <c r="I879" s="3" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="J879" s="4" t="s">
         <v>6</v>
@@ -35165,10 +35184,10 @@
     </row>
     <row r="880" spans="1:13">
       <c r="A880" s="2" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B880" s="3" t="s">
         <v>1948</v>
-      </c>
-      <c r="B880" s="3" t="s">
-        <v>1949</v>
       </c>
       <c r="C880" s="3" t="s">
         <v>1349</v>
@@ -35183,7 +35202,7 @@
       <c r="G880" s="3"/>
       <c r="H880" s="3"/>
       <c r="I880" s="3" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="J880" s="4" t="s">
         <v>6</v>
@@ -35196,10 +35215,10 @@
     </row>
     <row r="881" spans="1:13">
       <c r="A881" s="2" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B881" s="3" t="s">
         <v>1950</v>
-      </c>
-      <c r="B881" s="3" t="s">
-        <v>1951</v>
       </c>
       <c r="C881" s="3" t="s">
         <v>397</v>
@@ -35214,7 +35233,7 @@
       <c r="G881" s="3"/>
       <c r="H881" s="3"/>
       <c r="I881" s="3" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="J881" s="4" t="s">
         <v>6</v>
@@ -35227,16 +35246,16 @@
     </row>
     <row r="882" spans="1:13">
       <c r="A882" s="2" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B882" s="3" t="s">
         <v>1952</v>
-      </c>
-      <c r="B882" s="3" t="s">
-        <v>1953</v>
       </c>
       <c r="C882" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D882" s="3"/>
-      <c r="E882" s="3" t="s">
+      <c r="E882" s="9" t="s">
         <v>552</v>
       </c>
       <c r="F882" s="3" t="s">
@@ -35245,7 +35264,7 @@
       <c r="G882" s="3"/>
       <c r="H882" s="3"/>
       <c r="I882" s="3" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="J882" s="4" t="s">
         <v>6</v>
@@ -35258,16 +35277,16 @@
     </row>
     <row r="883" spans="1:13">
       <c r="A883" s="2" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B883" s="3" t="s">
         <v>1954</v>
-      </c>
-      <c r="B883" s="3" t="s">
-        <v>1955</v>
       </c>
       <c r="C883" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D883" s="3"/>
-      <c r="E883" s="3" t="s">
+      <c r="E883" s="9" t="s">
         <v>552</v>
       </c>
       <c r="F883" s="3" t="s">
@@ -35276,7 +35295,7 @@
       <c r="G883" s="3"/>
       <c r="H883" s="3"/>
       <c r="I883" s="3" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="J883" s="4" t="s">
         <v>6</v>
@@ -35289,17 +35308,17 @@
     </row>
     <row r="884" spans="1:13">
       <c r="A884" s="2" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B884" s="3" t="s">
         <v>1956</v>
-      </c>
-      <c r="B884" s="3" t="s">
-        <v>1957</v>
       </c>
       <c r="C884" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D884" s="3"/>
       <c r="E884" s="3" t="s">
-        <v>496</v>
+        <v>1367</v>
       </c>
       <c r="F884" s="3" t="s">
         <v>1296</v>
@@ -35307,7 +35326,7 @@
       <c r="G884" s="3"/>
       <c r="H884" s="3"/>
       <c r="I884" s="3" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="J884" s="4" t="s">
         <v>6</v>
@@ -35320,17 +35339,17 @@
     </row>
     <row r="885" spans="1:13">
       <c r="A885" s="2" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B885" s="3" t="s">
         <v>1958</v>
-      </c>
-      <c r="B885" s="3" t="s">
-        <v>1959</v>
       </c>
       <c r="C885" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D885" s="3"/>
       <c r="E885" s="3" t="s">
-        <v>496</v>
+        <v>1367</v>
       </c>
       <c r="F885" s="3" t="s">
         <v>1296</v>
@@ -35338,7 +35357,7 @@
       <c r="G885" s="3"/>
       <c r="H885" s="3"/>
       <c r="I885" s="3" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="J885" s="4" t="s">
         <v>6</v>
@@ -35351,17 +35370,17 @@
     </row>
     <row r="886" spans="1:13">
       <c r="A886" s="2" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B886" s="3" t="s">
         <v>1960</v>
-      </c>
-      <c r="B886" s="3" t="s">
-        <v>1961</v>
       </c>
       <c r="C886" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D886" s="3"/>
-      <c r="E886" s="3" t="s">
-        <v>194</v>
+      <c r="E886" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="F886" s="3" t="s">
         <v>1296</v>
@@ -35369,7 +35388,7 @@
       <c r="G886" s="3"/>
       <c r="H886" s="3"/>
       <c r="I886" s="3" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="J886" s="4" t="s">
         <v>6</v>
@@ -35382,17 +35401,17 @@
     </row>
     <row r="887" spans="1:13">
       <c r="A887" s="2" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B887" s="3" t="s">
         <v>1962</v>
-      </c>
-      <c r="B887" s="3" t="s">
-        <v>1963</v>
       </c>
       <c r="C887" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D887" s="3"/>
-      <c r="E887" s="3" t="s">
-        <v>194</v>
+      <c r="E887" s="9" t="s">
+        <v>2474</v>
       </c>
       <c r="F887" s="3" t="s">
         <v>1296</v>
@@ -35400,7 +35419,7 @@
       <c r="G887" s="3"/>
       <c r="H887" s="3"/>
       <c r="I887" s="3" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="J887" s="4" t="s">
         <v>6</v>
@@ -35413,17 +35432,17 @@
     </row>
     <row r="888" spans="1:13">
       <c r="A888" s="2" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B888" s="3" t="s">
         <v>1964</v>
-      </c>
-      <c r="B888" s="3" t="s">
-        <v>1965</v>
       </c>
       <c r="C888" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D888" s="3"/>
-      <c r="E888" s="3" t="s">
-        <v>2473</v>
+      <c r="E888" s="9" t="s">
+        <v>2463</v>
       </c>
       <c r="F888" s="3" t="s">
         <v>1296</v>
@@ -35431,7 +35450,7 @@
       <c r="G888" s="3"/>
       <c r="H888" s="3"/>
       <c r="I888" s="3" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="J888" s="4" t="s">
         <v>6</v>
@@ -35444,17 +35463,17 @@
     </row>
     <row r="889" spans="1:13">
       <c r="A889" s="2" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B889" s="3" t="s">
         <v>1966</v>
-      </c>
-      <c r="B889" s="3" t="s">
-        <v>1967</v>
       </c>
       <c r="C889" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D889" s="3"/>
-      <c r="E889" s="3" t="s">
-        <v>2473</v>
+      <c r="E889" s="9" t="s">
+        <v>2463</v>
       </c>
       <c r="F889" s="3" t="s">
         <v>1296</v>
@@ -35462,7 +35481,7 @@
       <c r="G889" s="3"/>
       <c r="H889" s="3"/>
       <c r="I889" s="3" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="J889" s="4" t="s">
         <v>6</v>
@@ -35475,10 +35494,10 @@
     </row>
     <row r="890" spans="1:13">
       <c r="A890" s="2" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B890" s="3" t="s">
         <v>1968</v>
-      </c>
-      <c r="B890" s="3" t="s">
-        <v>1969</v>
       </c>
       <c r="C890" s="3" t="s">
         <v>1349</v>
@@ -35493,7 +35512,7 @@
       <c r="G890" s="3"/>
       <c r="H890" s="3"/>
       <c r="I890" s="3" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="J890" s="4" t="s">
         <v>6</v>
@@ -35506,10 +35525,10 @@
     </row>
     <row r="891" spans="1:13">
       <c r="A891" s="2" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B891" s="3" t="s">
         <v>1970</v>
-      </c>
-      <c r="B891" s="3" t="s">
-        <v>1971</v>
       </c>
       <c r="C891" s="3" t="s">
         <v>397</v>
@@ -35524,7 +35543,7 @@
       <c r="G891" s="3"/>
       <c r="H891" s="3"/>
       <c r="I891" s="3" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="J891" s="4" t="s">
         <v>6</v>
@@ -35537,10 +35556,10 @@
     </row>
     <row r="892" spans="1:13">
       <c r="A892" s="2" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B892" s="3" t="s">
         <v>1972</v>
-      </c>
-      <c r="B892" s="3" t="s">
-        <v>1973</v>
       </c>
       <c r="C892" s="3" t="s">
         <v>1349</v>
@@ -35555,7 +35574,7 @@
       <c r="G892" s="3"/>
       <c r="H892" s="3"/>
       <c r="I892" s="3" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="J892" s="4" t="s">
         <v>6</v>
@@ -35568,10 +35587,10 @@
     </row>
     <row r="893" spans="1:13">
       <c r="A893" s="2" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B893" s="3" t="s">
         <v>1974</v>
-      </c>
-      <c r="B893" s="3" t="s">
-        <v>1975</v>
       </c>
       <c r="C893" s="3" t="s">
         <v>397</v>
@@ -35586,7 +35605,7 @@
       <c r="G893" s="3"/>
       <c r="H893" s="3"/>
       <c r="I893" s="3" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="J893" s="4" t="s">
         <v>6</v>
@@ -35599,10 +35618,10 @@
     </row>
     <row r="894" spans="1:13">
       <c r="A894" s="2" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B894" s="3" t="s">
         <v>1976</v>
-      </c>
-      <c r="B894" s="3" t="s">
-        <v>1977</v>
       </c>
       <c r="C894" s="3" t="s">
         <v>1349</v>
@@ -35617,7 +35636,7 @@
       <c r="G894" s="3"/>
       <c r="H894" s="3"/>
       <c r="I894" s="3" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="J894" s="4" t="s">
         <v>6</v>
@@ -35630,10 +35649,10 @@
     </row>
     <row r="895" spans="1:13">
       <c r="A895" s="2" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B895" s="3" t="s">
         <v>1979</v>
-      </c>
-      <c r="B895" s="3" t="s">
-        <v>1980</v>
       </c>
       <c r="C895" s="3" t="s">
         <v>397</v>
@@ -35648,7 +35667,7 @@
       <c r="G895" s="3"/>
       <c r="H895" s="3"/>
       <c r="I895" s="3" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="J895" s="4" t="s">
         <v>6</v>
@@ -35661,10 +35680,10 @@
     </row>
     <row r="896" spans="1:13">
       <c r="A896" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B896" s="3" t="s">
         <v>1981</v>
-      </c>
-      <c r="B896" s="3" t="s">
-        <v>1982</v>
       </c>
       <c r="C896" s="3" t="s">
         <v>1349</v>
@@ -35679,7 +35698,7 @@
       <c r="G896" s="3"/>
       <c r="H896" s="3"/>
       <c r="I896" s="3" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="J896" s="4" t="s">
         <v>6</v>
@@ -35692,10 +35711,10 @@
     </row>
     <row r="897" spans="1:13">
       <c r="A897" s="2" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B897" s="3" t="s">
         <v>1983</v>
-      </c>
-      <c r="B897" s="3" t="s">
-        <v>1984</v>
       </c>
       <c r="C897" s="3" t="s">
         <v>397</v>
@@ -35710,7 +35729,7 @@
       <c r="G897" s="3"/>
       <c r="H897" s="3"/>
       <c r="I897" s="3" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="J897" s="4" t="s">
         <v>6</v>
@@ -35723,10 +35742,10 @@
     </row>
     <row r="898" spans="1:13">
       <c r="A898" s="2" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B898" s="3" t="s">
         <v>1985</v>
-      </c>
-      <c r="B898" s="3" t="s">
-        <v>1986</v>
       </c>
       <c r="C898" s="3" t="s">
         <v>397</v>
@@ -35741,7 +35760,7 @@
       <c r="G898" s="3"/>
       <c r="H898" s="3"/>
       <c r="I898" s="3" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="J898" s="4" t="s">
         <v>6</v>
@@ -35754,10 +35773,10 @@
     </row>
     <row r="899" spans="1:13">
       <c r="A899" s="2" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B899" s="3" t="s">
         <v>1987</v>
-      </c>
-      <c r="B899" s="3" t="s">
-        <v>1988</v>
       </c>
       <c r="C899" s="3" t="s">
         <v>1349</v>
@@ -35772,7 +35791,7 @@
       <c r="G899" s="3"/>
       <c r="H899" s="3"/>
       <c r="I899" s="3" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="J899" s="4" t="s">
         <v>6</v>
@@ -35785,10 +35804,10 @@
     </row>
     <row r="900" spans="1:13">
       <c r="A900" s="2" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B900" s="3" t="s">
         <v>1989</v>
-      </c>
-      <c r="B900" s="3" t="s">
-        <v>1990</v>
       </c>
       <c r="C900" s="3" t="s">
         <v>1349</v>
@@ -35803,7 +35822,7 @@
       <c r="G900" s="3"/>
       <c r="H900" s="3"/>
       <c r="I900" s="3" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="J900" s="4" t="s">
         <v>6</v>
@@ -35816,10 +35835,10 @@
     </row>
     <row r="901" spans="1:13">
       <c r="A901" s="2" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B901" s="3" t="s">
         <v>1991</v>
-      </c>
-      <c r="B901" s="3" t="s">
-        <v>1992</v>
       </c>
       <c r="C901" s="3" t="s">
         <v>397</v>
@@ -35834,7 +35853,7 @@
       <c r="G901" s="3"/>
       <c r="H901" s="3"/>
       <c r="I901" s="3" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="J901" s="4" t="s">
         <v>6</v>
@@ -35847,16 +35866,16 @@
     </row>
     <row r="902" spans="1:13">
       <c r="A902" s="2" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B902" s="3" t="s">
         <v>1993</v>
-      </c>
-      <c r="B902" s="3" t="s">
-        <v>1994</v>
       </c>
       <c r="C902" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D902" s="3"/>
-      <c r="E902" s="3" t="s">
+      <c r="E902" s="9" t="s">
         <v>552</v>
       </c>
       <c r="F902" s="3" t="s">
@@ -35865,7 +35884,7 @@
       <c r="G902" s="3"/>
       <c r="H902" s="3"/>
       <c r="I902" s="3" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="J902" s="4" t="s">
         <v>6</v>
@@ -35878,16 +35897,16 @@
     </row>
     <row r="903" spans="1:13">
       <c r="A903" s="2" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B903" s="3" t="s">
         <v>1995</v>
-      </c>
-      <c r="B903" s="3" t="s">
-        <v>1996</v>
       </c>
       <c r="C903" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D903" s="3"/>
-      <c r="E903" s="3" t="s">
+      <c r="E903" s="9" t="s">
         <v>552</v>
       </c>
       <c r="F903" s="3" t="s">
@@ -35896,7 +35915,7 @@
       <c r="G903" s="3"/>
       <c r="H903" s="3"/>
       <c r="I903" s="3" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="J903" s="4" t="s">
         <v>6</v>
@@ -35909,17 +35928,17 @@
     </row>
     <row r="904" spans="1:13">
       <c r="A904" s="2" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B904" s="3" t="s">
         <v>1997</v>
-      </c>
-      <c r="B904" s="3" t="s">
-        <v>1998</v>
       </c>
       <c r="C904" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D904" s="3"/>
       <c r="E904" s="3" t="s">
-        <v>496</v>
+        <v>1367</v>
       </c>
       <c r="F904" s="3" t="s">
         <v>1296</v>
@@ -35927,7 +35946,7 @@
       <c r="G904" s="3"/>
       <c r="H904" s="3"/>
       <c r="I904" s="3" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="J904" s="4" t="s">
         <v>6</v>
@@ -35940,17 +35959,17 @@
     </row>
     <row r="905" spans="1:13">
       <c r="A905" s="2" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B905" s="3" t="s">
         <v>1999</v>
-      </c>
-      <c r="B905" s="3" t="s">
-        <v>2000</v>
       </c>
       <c r="C905" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D905" s="3"/>
       <c r="E905" s="3" t="s">
-        <v>496</v>
+        <v>1367</v>
       </c>
       <c r="F905" s="3" t="s">
         <v>1296</v>
@@ -35958,7 +35977,7 @@
       <c r="G905" s="3"/>
       <c r="H905" s="3"/>
       <c r="I905" s="3" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="J905" s="4" t="s">
         <v>6</v>
@@ -35971,10 +35990,10 @@
     </row>
     <row r="906" spans="1:13">
       <c r="A906" s="2" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B906" s="3" t="s">
         <v>2001</v>
-      </c>
-      <c r="B906" s="3" t="s">
-        <v>2002</v>
       </c>
       <c r="C906" s="3" t="s">
         <v>397</v>
@@ -35989,7 +36008,7 @@
       <c r="G906" s="3"/>
       <c r="H906" s="3"/>
       <c r="I906" s="3" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="J906" s="4" t="s">
         <v>6</v>
@@ -36002,10 +36021,10 @@
     </row>
     <row r="907" spans="1:13">
       <c r="A907" s="2" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B907" s="3" t="s">
         <v>2003</v>
-      </c>
-      <c r="B907" s="3" t="s">
-        <v>2004</v>
       </c>
       <c r="C907" s="3" t="s">
         <v>1349</v>
@@ -36020,7 +36039,7 @@
       <c r="G907" s="3"/>
       <c r="H907" s="3"/>
       <c r="I907" s="3" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="J907" s="4" t="s">
         <v>6</v>
@@ -36033,17 +36052,17 @@
     </row>
     <row r="908" spans="1:13">
       <c r="A908" s="2" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B908" s="3" t="s">
         <v>2005</v>
-      </c>
-      <c r="B908" s="3" t="s">
-        <v>2006</v>
       </c>
       <c r="C908" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D908" s="3"/>
-      <c r="E908" s="3" t="s">
-        <v>2473</v>
+      <c r="E908" s="9" t="s">
+        <v>2463</v>
       </c>
       <c r="F908" s="3" t="s">
         <v>1296</v>
@@ -36051,7 +36070,7 @@
       <c r="G908" s="3"/>
       <c r="H908" s="3"/>
       <c r="I908" s="3" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="J908" s="4" t="s">
         <v>6</v>
@@ -36064,17 +36083,17 @@
     </row>
     <row r="909" spans="1:13">
       <c r="A909" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B909" s="3" t="s">
         <v>2007</v>
-      </c>
-      <c r="B909" s="3" t="s">
-        <v>2008</v>
       </c>
       <c r="C909" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D909" s="3"/>
-      <c r="E909" s="3" t="s">
-        <v>2473</v>
+      <c r="E909" s="9" t="s">
+        <v>2463</v>
       </c>
       <c r="F909" s="3" t="s">
         <v>1296</v>
@@ -36082,7 +36101,7 @@
       <c r="G909" s="3"/>
       <c r="H909" s="3"/>
       <c r="I909" s="3" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="J909" s="4" t="s">
         <v>6</v>
@@ -36095,10 +36114,10 @@
     </row>
     <row r="910" spans="1:13">
       <c r="A910" s="2" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B910" s="3" t="s">
         <v>2009</v>
-      </c>
-      <c r="B910" s="3" t="s">
-        <v>2010</v>
       </c>
       <c r="C910" s="3" t="s">
         <v>1349</v>
@@ -36113,7 +36132,7 @@
       <c r="G910" s="3"/>
       <c r="H910" s="3"/>
       <c r="I910" s="3" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="J910" s="4" t="s">
         <v>6</v>
@@ -36126,10 +36145,10 @@
     </row>
     <row r="911" spans="1:13">
       <c r="A911" s="2" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B911" s="3" t="s">
         <v>2011</v>
-      </c>
-      <c r="B911" s="3" t="s">
-        <v>2012</v>
       </c>
       <c r="C911" s="3" t="s">
         <v>397</v>
@@ -36144,7 +36163,7 @@
       <c r="G911" s="3"/>
       <c r="H911" s="3"/>
       <c r="I911" s="3" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="J911" s="4" t="s">
         <v>6</v>
@@ -36157,10 +36176,10 @@
     </row>
     <row r="912" spans="1:13">
       <c r="A912" s="2" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B912" s="3" t="s">
         <v>2013</v>
-      </c>
-      <c r="B912" s="3" t="s">
-        <v>2014</v>
       </c>
       <c r="C912" s="3" t="s">
         <v>1349</v>
@@ -36175,7 +36194,7 @@
       <c r="G912" s="3"/>
       <c r="H912" s="3"/>
       <c r="I912" s="3" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="J912" s="4" t="s">
         <v>6</v>
@@ -36188,10 +36207,10 @@
     </row>
     <row r="913" spans="1:13">
       <c r="A913" s="2" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B913" s="3" t="s">
         <v>2015</v>
-      </c>
-      <c r="B913" s="3" t="s">
-        <v>2016</v>
       </c>
       <c r="C913" s="3" t="s">
         <v>397</v>
@@ -36206,7 +36225,7 @@
       <c r="G913" s="3"/>
       <c r="H913" s="3"/>
       <c r="I913" s="3" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="J913" s="4" t="s">
         <v>6</v>
@@ -36219,10 +36238,10 @@
     </row>
     <row r="914" spans="1:13">
       <c r="A914" s="2" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B914" s="3" t="s">
         <v>2017</v>
-      </c>
-      <c r="B914" s="3" t="s">
-        <v>2018</v>
       </c>
       <c r="C914" s="3" t="s">
         <v>1349</v>
@@ -36237,7 +36256,7 @@
       <c r="G914" s="3"/>
       <c r="H914" s="3"/>
       <c r="I914" s="3" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="J914" s="4" t="s">
         <v>6</v>
@@ -36250,10 +36269,10 @@
     </row>
     <row r="915" spans="1:13">
       <c r="A915" s="2" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B915" s="3" t="s">
         <v>2020</v>
-      </c>
-      <c r="B915" s="3" t="s">
-        <v>2021</v>
       </c>
       <c r="C915" s="3" t="s">
         <v>397</v>
@@ -36268,7 +36287,7 @@
       <c r="G915" s="3"/>
       <c r="H915" s="3"/>
       <c r="I915" s="3" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="J915" s="4" t="s">
         <v>6</v>
@@ -36281,10 +36300,10 @@
     </row>
     <row r="916" spans="1:13">
       <c r="A916" s="2" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B916" s="3" t="s">
         <v>2022</v>
-      </c>
-      <c r="B916" s="3" t="s">
-        <v>2023</v>
       </c>
       <c r="C916" s="3" t="s">
         <v>1349</v>
@@ -36299,7 +36318,7 @@
       <c r="G916" s="3"/>
       <c r="H916" s="3"/>
       <c r="I916" s="3" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="J916" s="4" t="s">
         <v>6</v>
@@ -36312,10 +36331,10 @@
     </row>
     <row r="917" spans="1:13">
       <c r="A917" s="2" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B917" s="3" t="s">
         <v>2024</v>
-      </c>
-      <c r="B917" s="3" t="s">
-        <v>2025</v>
       </c>
       <c r="C917" s="3" t="s">
         <v>397</v>
@@ -36330,7 +36349,7 @@
       <c r="G917" s="3"/>
       <c r="H917" s="3"/>
       <c r="I917" s="3" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="J917" s="4" t="s">
         <v>6</v>
@@ -36343,10 +36362,10 @@
     </row>
     <row r="918" spans="1:13">
       <c r="A918" s="2" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B918" s="3" t="s">
         <v>2026</v>
-      </c>
-      <c r="B918" s="3" t="s">
-        <v>2027</v>
       </c>
       <c r="C918" s="3" t="s">
         <v>397</v>
@@ -36361,7 +36380,7 @@
       <c r="G918" s="3"/>
       <c r="H918" s="3"/>
       <c r="I918" s="3" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="J918" s="4" t="s">
         <v>6</v>
@@ -36374,10 +36393,10 @@
     </row>
     <row r="919" spans="1:13">
       <c r="A919" s="2" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B919" s="3" t="s">
         <v>2028</v>
-      </c>
-      <c r="B919" s="3" t="s">
-        <v>2029</v>
       </c>
       <c r="C919" s="3" t="s">
         <v>1349</v>
@@ -36392,7 +36411,7 @@
       <c r="G919" s="3"/>
       <c r="H919" s="3"/>
       <c r="I919" s="3" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="J919" s="4" t="s">
         <v>6</v>
@@ -36405,10 +36424,10 @@
     </row>
     <row r="920" spans="1:13">
       <c r="A920" s="2" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B920" s="3" t="s">
         <v>2030</v>
-      </c>
-      <c r="B920" s="3" t="s">
-        <v>2031</v>
       </c>
       <c r="C920" s="3" t="s">
         <v>1349</v>
@@ -36423,7 +36442,7 @@
       <c r="G920" s="3"/>
       <c r="H920" s="3"/>
       <c r="I920" s="3" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="J920" s="4" t="s">
         <v>6</v>
@@ -36436,10 +36455,10 @@
     </row>
     <row r="921" spans="1:13">
       <c r="A921" s="2" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B921" s="3" t="s">
         <v>2032</v>
-      </c>
-      <c r="B921" s="3" t="s">
-        <v>2033</v>
       </c>
       <c r="C921" s="3" t="s">
         <v>397</v>
@@ -36454,7 +36473,7 @@
       <c r="G921" s="3"/>
       <c r="H921" s="3"/>
       <c r="I921" s="3" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="J921" s="4" t="s">
         <v>6</v>
@@ -36467,16 +36486,16 @@
     </row>
     <row r="922" spans="1:13">
       <c r="A922" s="2" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B922" s="3" t="s">
         <v>2034</v>
-      </c>
-      <c r="B922" s="3" t="s">
-        <v>2035</v>
       </c>
       <c r="C922" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D922" s="3"/>
-      <c r="E922" s="3" t="s">
+      <c r="E922" s="9" t="s">
         <v>552</v>
       </c>
       <c r="F922" s="3" t="s">
@@ -36485,7 +36504,7 @@
       <c r="G922" s="3"/>
       <c r="H922" s="3"/>
       <c r="I922" s="3" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="J922" s="4" t="s">
         <v>6</v>
@@ -36498,16 +36517,16 @@
     </row>
     <row r="923" spans="1:13">
       <c r="A923" s="2" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B923" s="3" t="s">
         <v>2036</v>
-      </c>
-      <c r="B923" s="3" t="s">
-        <v>2037</v>
       </c>
       <c r="C923" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D923" s="3"/>
-      <c r="E923" s="3" t="s">
+      <c r="E923" s="9" t="s">
         <v>552</v>
       </c>
       <c r="F923" s="3" t="s">
@@ -36516,7 +36535,7 @@
       <c r="G923" s="3"/>
       <c r="H923" s="3"/>
       <c r="I923" s="3" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="J923" s="4" t="s">
         <v>6</v>
@@ -36529,17 +36548,17 @@
     </row>
     <row r="924" spans="1:13">
       <c r="A924" s="2" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B924" s="3" t="s">
         <v>2038</v>
-      </c>
-      <c r="B924" s="3" t="s">
-        <v>2039</v>
       </c>
       <c r="C924" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D924" s="3"/>
       <c r="E924" s="3" t="s">
-        <v>496</v>
+        <v>1367</v>
       </c>
       <c r="F924" s="3" t="s">
         <v>1296</v>
@@ -36547,7 +36566,7 @@
       <c r="G924" s="3"/>
       <c r="H924" s="3"/>
       <c r="I924" s="3" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="J924" s="4" t="s">
         <v>6</v>
@@ -36560,17 +36579,17 @@
     </row>
     <row r="925" spans="1:13">
       <c r="A925" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B925" s="3" t="s">
         <v>2040</v>
-      </c>
-      <c r="B925" s="3" t="s">
-        <v>2041</v>
       </c>
       <c r="C925" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D925" s="3"/>
       <c r="E925" s="3" t="s">
-        <v>496</v>
+        <v>1367</v>
       </c>
       <c r="F925" s="3" t="s">
         <v>1296</v>
@@ -36578,7 +36597,7 @@
       <c r="G925" s="3"/>
       <c r="H925" s="3"/>
       <c r="I925" s="3" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="J925" s="4" t="s">
         <v>6</v>
@@ -36591,17 +36610,17 @@
     </row>
     <row r="926" spans="1:13">
       <c r="A926" s="2" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B926" s="3" t="s">
         <v>2042</v>
-      </c>
-      <c r="B926" s="3" t="s">
-        <v>2043</v>
       </c>
       <c r="C926" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D926" s="3"/>
-      <c r="E926" s="3" t="s">
-        <v>194</v>
+      <c r="E926" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="F926" s="3" t="s">
         <v>1296</v>
@@ -36609,7 +36628,7 @@
       <c r="G926" s="3"/>
       <c r="H926" s="3"/>
       <c r="I926" s="3" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="J926" s="4" t="s">
         <v>6</v>
@@ -36622,17 +36641,17 @@
     </row>
     <row r="927" spans="1:13">
       <c r="A927" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B927" s="3" t="s">
         <v>2044</v>
-      </c>
-      <c r="B927" s="3" t="s">
-        <v>2045</v>
       </c>
       <c r="C927" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D927" s="3"/>
-      <c r="E927" s="3" t="s">
-        <v>194</v>
+      <c r="E927" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="F927" s="3" t="s">
         <v>1296</v>
@@ -36640,7 +36659,7 @@
       <c r="G927" s="3"/>
       <c r="H927" s="3"/>
       <c r="I927" s="3" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="J927" s="4" t="s">
         <v>6</v>
@@ -36653,17 +36672,17 @@
     </row>
     <row r="928" spans="1:13">
       <c r="A928" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B928" s="3" t="s">
         <v>2046</v>
-      </c>
-      <c r="B928" s="3" t="s">
-        <v>2047</v>
       </c>
       <c r="C928" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D928" s="3"/>
-      <c r="E928" s="3" t="s">
-        <v>2473</v>
+      <c r="E928" s="9" t="s">
+        <v>2463</v>
       </c>
       <c r="F928" s="3" t="s">
         <v>1296</v>
@@ -36671,7 +36690,7 @@
       <c r="G928" s="3"/>
       <c r="H928" s="3"/>
       <c r="I928" s="3" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="J928" s="4" t="s">
         <v>6</v>
@@ -36684,17 +36703,17 @@
     </row>
     <row r="929" spans="1:13">
       <c r="A929" s="2" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B929" s="3" t="s">
         <v>2048</v>
-      </c>
-      <c r="B929" s="3" t="s">
-        <v>2049</v>
       </c>
       <c r="C929" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D929" s="3"/>
-      <c r="E929" s="3" t="s">
-        <v>2473</v>
+      <c r="E929" s="9" t="s">
+        <v>2463</v>
       </c>
       <c r="F929" s="3" t="s">
         <v>1296</v>
@@ -36702,7 +36721,7 @@
       <c r="G929" s="3"/>
       <c r="H929" s="3"/>
       <c r="I929" s="3" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="J929" s="4" t="s">
         <v>6</v>
@@ -36715,10 +36734,10 @@
     </row>
     <row r="930" spans="1:13">
       <c r="A930" s="2" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B930" s="3" t="s">
         <v>2050</v>
-      </c>
-      <c r="B930" s="3" t="s">
-        <v>2051</v>
       </c>
       <c r="C930" s="3" t="s">
         <v>1349</v>
@@ -36733,7 +36752,7 @@
       <c r="G930" s="3"/>
       <c r="H930" s="3"/>
       <c r="I930" s="3" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="J930" s="4" t="s">
         <v>6</v>
@@ -36746,10 +36765,10 @@
     </row>
     <row r="931" spans="1:13">
       <c r="A931" s="2" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B931" s="3" t="s">
         <v>2052</v>
-      </c>
-      <c r="B931" s="3" t="s">
-        <v>2053</v>
       </c>
       <c r="C931" s="3" t="s">
         <v>397</v>
@@ -36764,7 +36783,7 @@
       <c r="G931" s="3"/>
       <c r="H931" s="3"/>
       <c r="I931" s="3" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="J931" s="4" t="s">
         <v>6</v>
@@ -36777,10 +36796,10 @@
     </row>
     <row r="932" spans="1:13">
       <c r="A932" s="2" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B932" s="3" t="s">
         <v>2054</v>
-      </c>
-      <c r="B932" s="3" t="s">
-        <v>2055</v>
       </c>
       <c r="C932" s="3" t="s">
         <v>1349</v>
@@ -36795,7 +36814,7 @@
       <c r="G932" s="3"/>
       <c r="H932" s="3"/>
       <c r="I932" s="3" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="J932" s="4" t="s">
         <v>6</v>
@@ -36808,10 +36827,10 @@
     </row>
     <row r="933" spans="1:13">
       <c r="A933" s="2" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B933" s="3" t="s">
         <v>2056</v>
-      </c>
-      <c r="B933" s="3" t="s">
-        <v>2057</v>
       </c>
       <c r="C933" s="3" t="s">
         <v>397</v>
@@ -36826,7 +36845,7 @@
       <c r="G933" s="3"/>
       <c r="H933" s="3"/>
       <c r="I933" s="3" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="J933" s="4" t="s">
         <v>6</v>
@@ -36839,16 +36858,16 @@
     </row>
     <row r="934" spans="1:13">
       <c r="A934" s="2" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B934" s="3" t="s">
         <v>2058</v>
-      </c>
-      <c r="B934" s="3" t="s">
-        <v>2059</v>
       </c>
       <c r="C934" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D934" s="3"/>
-      <c r="E934" s="3" t="s">
+      <c r="E934" s="9" t="s">
         <v>552</v>
       </c>
       <c r="F934" s="3" t="s">
@@ -36857,7 +36876,7 @@
       <c r="G934" s="3"/>
       <c r="H934" s="3"/>
       <c r="I934" s="3" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="J934" s="4" t="s">
         <v>6</v>
@@ -36870,17 +36889,17 @@
     </row>
     <row r="935" spans="1:13">
       <c r="A935" s="2" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B935" s="3" t="s">
         <v>2060</v>
-      </c>
-      <c r="B935" s="3" t="s">
-        <v>2061</v>
       </c>
       <c r="C935" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D935" s="3"/>
       <c r="E935" s="3" t="s">
-        <v>496</v>
+        <v>1367</v>
       </c>
       <c r="F935" s="3" t="s">
         <v>1296</v>
@@ -36888,7 +36907,7 @@
       <c r="G935" s="3"/>
       <c r="H935" s="3"/>
       <c r="I935" s="3" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="J935" s="4" t="s">
         <v>6</v>
@@ -36901,17 +36920,17 @@
     </row>
     <row r="936" spans="1:13">
       <c r="A936" s="2" t="s">
+        <v>2061</v>
+      </c>
+      <c r="B936" s="3" t="s">
         <v>2062</v>
-      </c>
-      <c r="B936" s="3" t="s">
-        <v>2063</v>
       </c>
       <c r="C936" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D936" s="3"/>
       <c r="E936" s="3" t="s">
-        <v>496</v>
+        <v>1367</v>
       </c>
       <c r="F936" s="3" t="s">
         <v>1296</v>
@@ -36919,7 +36938,7 @@
       <c r="G936" s="3"/>
       <c r="H936" s="3"/>
       <c r="I936" s="3" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="J936" s="4" t="s">
         <v>6</v>
@@ -36932,17 +36951,17 @@
     </row>
     <row r="937" spans="1:13">
       <c r="A937" s="2" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B937" s="3" t="s">
         <v>2064</v>
-      </c>
-      <c r="B937" s="3" t="s">
-        <v>2065</v>
       </c>
       <c r="C937" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D937" s="3"/>
-      <c r="E937" s="3" t="s">
-        <v>1778</v>
+      <c r="E937" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="F937" s="3" t="s">
         <v>1296</v>
@@ -36950,7 +36969,7 @@
       <c r="G937" s="3"/>
       <c r="H937" s="3"/>
       <c r="I937" s="3" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="J937" s="4" t="s">
         <v>6</v>
@@ -36963,17 +36982,17 @@
     </row>
     <row r="938" spans="1:13">
       <c r="A938" s="2" t="s">
+        <v>2065</v>
+      </c>
+      <c r="B938" s="3" t="s">
         <v>2066</v>
-      </c>
-      <c r="B938" s="3" t="s">
-        <v>2067</v>
       </c>
       <c r="C938" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D938" s="3"/>
-      <c r="E938" s="3" t="s">
-        <v>1778</v>
+      <c r="E938" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="F938" s="3" t="s">
         <v>1296</v>
@@ -36981,7 +37000,7 @@
       <c r="G938" s="3"/>
       <c r="H938" s="3"/>
       <c r="I938" s="3" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="J938" s="4" t="s">
         <v>6</v>
@@ -36994,17 +37013,17 @@
     </row>
     <row r="939" spans="1:13">
       <c r="A939" s="2" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B939" s="3" t="s">
         <v>2068</v>
-      </c>
-      <c r="B939" s="3" t="s">
-        <v>2069</v>
       </c>
       <c r="C939" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D939" s="3"/>
-      <c r="E939" s="3" t="s">
-        <v>2473</v>
+      <c r="E939" s="9" t="s">
+        <v>2463</v>
       </c>
       <c r="F939" s="3" t="s">
         <v>1296</v>
@@ -37012,7 +37031,7 @@
       <c r="G939" s="3"/>
       <c r="H939" s="3"/>
       <c r="I939" s="3" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="J939" s="4" t="s">
         <v>6</v>
@@ -37025,17 +37044,17 @@
     </row>
     <row r="940" spans="1:13">
       <c r="A940" s="2" t="s">
+        <v>2069</v>
+      </c>
+      <c r="B940" s="3" t="s">
         <v>2070</v>
-      </c>
-      <c r="B940" s="3" t="s">
-        <v>2071</v>
       </c>
       <c r="C940" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D940" s="3"/>
-      <c r="E940" s="3" t="s">
-        <v>2473</v>
+      <c r="E940" s="9" t="s">
+        <v>2463</v>
       </c>
       <c r="F940" s="3" t="s">
         <v>1296</v>
@@ -37043,7 +37062,7 @@
       <c r="G940" s="3"/>
       <c r="H940" s="3"/>
       <c r="I940" s="3" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="J940" s="4" t="s">
         <v>6</v>
@@ -37056,10 +37075,10 @@
     </row>
     <row r="941" spans="1:13">
       <c r="A941" s="2" t="s">
+        <v>2071</v>
+      </c>
+      <c r="B941" s="3" t="s">
         <v>2072</v>
-      </c>
-      <c r="B941" s="3" t="s">
-        <v>2073</v>
       </c>
       <c r="C941" s="3" t="s">
         <v>397</v>
@@ -37074,7 +37093,7 @@
       <c r="G941" s="3"/>
       <c r="H941" s="3"/>
       <c r="I941" s="3" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="J941" s="4" t="s">
         <v>6</v>
@@ -37087,10 +37106,10 @@
     </row>
     <row r="942" spans="1:13">
       <c r="A942" s="2" t="s">
+        <v>2073</v>
+      </c>
+      <c r="B942" s="3" t="s">
         <v>2074</v>
-      </c>
-      <c r="B942" s="3" t="s">
-        <v>2075</v>
       </c>
       <c r="C942" s="3" t="s">
         <v>1349</v>
@@ -37105,7 +37124,7 @@
       <c r="G942" s="3"/>
       <c r="H942" s="3"/>
       <c r="I942" s="3" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="J942" s="4" t="s">
         <v>6</v>
@@ -37118,16 +37137,16 @@
     </row>
     <row r="943" spans="1:13">
       <c r="A943" s="2" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B943" s="3" t="s">
         <v>2076</v>
-      </c>
-      <c r="B943" s="3" t="s">
-        <v>2077</v>
       </c>
       <c r="C943" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D943" s="3"/>
-      <c r="E943" s="3" t="s">
+      <c r="E943" s="9" t="s">
         <v>160</v>
       </c>
       <c r="F943" s="3" t="s">
@@ -37136,7 +37155,7 @@
       <c r="G943" s="3"/>
       <c r="H943" s="3"/>
       <c r="I943" s="3" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="J943" s="4" t="s">
         <v>6</v>
@@ -37149,16 +37168,16 @@
     </row>
     <row r="944" spans="1:13">
       <c r="A944" s="2" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B944" s="3" t="s">
         <v>2079</v>
-      </c>
-      <c r="B944" s="3" t="s">
-        <v>2080</v>
       </c>
       <c r="C944" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D944" s="3"/>
-      <c r="E944" s="3" t="s">
+      <c r="E944" s="9" t="s">
         <v>160</v>
       </c>
       <c r="F944" s="3" t="s">
@@ -37167,7 +37186,7 @@
       <c r="G944" s="3"/>
       <c r="H944" s="3"/>
       <c r="I944" s="3" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="J944" s="4" t="s">
         <v>6</v>
@@ -37180,16 +37199,16 @@
     </row>
     <row r="945" spans="1:13">
       <c r="A945" s="2" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B945" s="3" t="s">
         <v>2081</v>
-      </c>
-      <c r="B945" s="3" t="s">
-        <v>2082</v>
       </c>
       <c r="C945" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D945" s="3"/>
-      <c r="E945" s="3" t="s">
+      <c r="E945" s="9" t="s">
         <v>167</v>
       </c>
       <c r="F945" s="3" t="s">
@@ -37198,7 +37217,7 @@
       <c r="G945" s="3"/>
       <c r="H945" s="3"/>
       <c r="I945" s="3" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="J945" s="4" t="s">
         <v>6</v>
@@ -37211,16 +37230,16 @@
     </row>
     <row r="946" spans="1:13">
       <c r="A946" s="2" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B946" s="3" t="s">
         <v>2084</v>
-      </c>
-      <c r="B946" s="3" t="s">
-        <v>2085</v>
       </c>
       <c r="C946" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D946" s="3"/>
-      <c r="E946" s="3" t="s">
+      <c r="E946" s="9" t="s">
         <v>167</v>
       </c>
       <c r="F946" s="3" t="s">
@@ -37229,7 +37248,7 @@
       <c r="G946" s="3"/>
       <c r="H946" s="3"/>
       <c r="I946" s="3" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="J946" s="4" t="s">
         <v>6</v>
@@ -37242,17 +37261,17 @@
     </row>
     <row r="947" spans="1:13">
       <c r="A947" s="2" t="s">
+        <v>2085</v>
+      </c>
+      <c r="B947" s="3" t="s">
         <v>2086</v>
-      </c>
-      <c r="B947" s="3" t="s">
-        <v>2087</v>
       </c>
       <c r="C947" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D947" s="3"/>
-      <c r="E947" s="3" t="s">
-        <v>1354</v>
+      <c r="E947" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="F947" s="3" t="s">
         <v>1296</v>
@@ -37260,7 +37279,7 @@
       <c r="G947" s="3"/>
       <c r="H947" s="3"/>
       <c r="I947" s="3" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="J947" s="4" t="s">
         <v>6</v>
@@ -37273,17 +37292,17 @@
     </row>
     <row r="948" spans="1:13">
       <c r="A948" s="2" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B948" s="3" t="s">
         <v>2088</v>
-      </c>
-      <c r="B948" s="3" t="s">
-        <v>2089</v>
       </c>
       <c r="C948" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D948" s="3"/>
-      <c r="E948" s="3" t="s">
-        <v>1354</v>
+      <c r="E948" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="F948" s="3" t="s">
         <v>1296</v>
@@ -37291,7 +37310,7 @@
       <c r="G948" s="3"/>
       <c r="H948" s="3"/>
       <c r="I948" s="3" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="J948" s="4" t="s">
         <v>6</v>
@@ -37304,16 +37323,16 @@
     </row>
     <row r="949" spans="1:13">
       <c r="A949" s="2" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B949" s="3" t="s">
         <v>2090</v>
-      </c>
-      <c r="B949" s="3" t="s">
-        <v>2091</v>
       </c>
       <c r="C949" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D949" s="3"/>
-      <c r="E949" s="3" t="s">
+      <c r="E949" s="9" t="s">
         <v>142</v>
       </c>
       <c r="F949" s="3" t="s">
@@ -37322,7 +37341,7 @@
       <c r="G949" s="3"/>
       <c r="H949" s="3"/>
       <c r="I949" s="3" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="J949" s="4" t="s">
         <v>6</v>
@@ -37335,16 +37354,16 @@
     </row>
     <row r="950" spans="1:13">
       <c r="A950" s="2" t="s">
+        <v>2091</v>
+      </c>
+      <c r="B950" s="3" t="s">
         <v>2092</v>
-      </c>
-      <c r="B950" s="3" t="s">
-        <v>2093</v>
       </c>
       <c r="C950" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D950" s="3"/>
-      <c r="E950" s="3" t="s">
+      <c r="E950" s="9" t="s">
         <v>142</v>
       </c>
       <c r="F950" s="3" t="s">
@@ -37353,7 +37372,7 @@
       <c r="G950" s="3"/>
       <c r="H950" s="3"/>
       <c r="I950" s="3" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="J950" s="4" t="s">
         <v>6</v>
@@ -37366,16 +37385,16 @@
     </row>
     <row r="951" spans="1:13">
       <c r="A951" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="B951" s="3" t="s">
         <v>2094</v>
-      </c>
-      <c r="B951" s="3" t="s">
-        <v>2095</v>
       </c>
       <c r="C951" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D951" s="3"/>
-      <c r="E951" s="3" t="s">
+      <c r="E951" s="9" t="s">
         <v>552</v>
       </c>
       <c r="F951" s="3" t="s">
@@ -37384,7 +37403,7 @@
       <c r="G951" s="3"/>
       <c r="H951" s="3"/>
       <c r="I951" s="3" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="J951" s="4" t="s">
         <v>6</v>
@@ -37397,16 +37416,16 @@
     </row>
     <row r="952" spans="1:13">
       <c r="A952" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B952" s="3" t="s">
         <v>2096</v>
-      </c>
-      <c r="B952" s="3" t="s">
-        <v>2097</v>
       </c>
       <c r="C952" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D952" s="3"/>
-      <c r="E952" s="3" t="s">
+      <c r="E952" s="9" t="s">
         <v>552</v>
       </c>
       <c r="F952" s="3" t="s">
@@ -37415,7 +37434,7 @@
       <c r="G952" s="3"/>
       <c r="H952" s="3"/>
       <c r="I952" s="3" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="J952" s="4" t="s">
         <v>6</v>
@@ -37428,17 +37447,17 @@
     </row>
     <row r="953" spans="1:13">
       <c r="A953" s="2" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B953" s="3" t="s">
         <v>2098</v>
-      </c>
-      <c r="B953" s="3" t="s">
-        <v>2099</v>
       </c>
       <c r="C953" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D953" s="3"/>
-      <c r="E953" s="3" t="s">
-        <v>95</v>
+      <c r="E953" s="9" t="s">
+        <v>1367</v>
       </c>
       <c r="F953" s="3" t="s">
         <v>1296</v>
@@ -37446,7 +37465,7 @@
       <c r="G953" s="3"/>
       <c r="H953" s="3"/>
       <c r="I953" s="3" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="J953" s="4" t="s">
         <v>6</v>
@@ -37459,16 +37478,16 @@
     </row>
     <row r="954" spans="1:13">
       <c r="A954" s="2" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B954" s="3" t="s">
         <v>2100</v>
-      </c>
-      <c r="B954" s="3" t="s">
-        <v>2101</v>
       </c>
       <c r="C954" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D954" s="3"/>
-      <c r="E954" s="3" t="s">
+      <c r="E954" s="9" t="s">
         <v>1367</v>
       </c>
       <c r="F954" s="3" t="s">
@@ -37477,7 +37496,7 @@
       <c r="G954" s="3"/>
       <c r="H954" s="3"/>
       <c r="I954" s="3" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="J954" s="4" t="s">
         <v>6</v>
@@ -37490,17 +37509,17 @@
     </row>
     <row r="955" spans="1:13">
       <c r="A955" s="2" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B955" s="3" t="s">
         <v>2102</v>
-      </c>
-      <c r="B955" s="3" t="s">
-        <v>2103</v>
       </c>
       <c r="C955" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D955" s="3"/>
-      <c r="E955" s="3" t="s">
-        <v>194</v>
+      <c r="E955" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="F955" s="3" t="s">
         <v>1296</v>
@@ -37508,7 +37527,7 @@
       <c r="G955" s="3"/>
       <c r="H955" s="3"/>
       <c r="I955" s="3" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="J955" s="4" t="s">
         <v>6</v>
@@ -37521,17 +37540,17 @@
     </row>
     <row r="956" spans="1:13">
       <c r="A956" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B956" s="3" t="s">
         <v>2104</v>
-      </c>
-      <c r="B956" s="3" t="s">
-        <v>2105</v>
       </c>
       <c r="C956" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D956" s="3"/>
-      <c r="E956" s="3" t="s">
-        <v>194</v>
+      <c r="E956" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="F956" s="3" t="s">
         <v>1296</v>
@@ -37539,7 +37558,7 @@
       <c r="G956" s="3"/>
       <c r="H956" s="3"/>
       <c r="I956" s="3" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="J956" s="4" t="s">
         <v>6</v>
@@ -37552,17 +37571,17 @@
     </row>
     <row r="957" spans="1:13">
       <c r="A957" s="2" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B957" s="3" t="s">
         <v>2106</v>
-      </c>
-      <c r="B957" s="3" t="s">
-        <v>2107</v>
       </c>
       <c r="C957" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D957" s="3"/>
-      <c r="E957" s="3" t="s">
-        <v>194</v>
+      <c r="E957" s="9" t="s">
+        <v>2463</v>
       </c>
       <c r="F957" s="3" t="s">
         <v>1296</v>
@@ -37570,7 +37589,7 @@
       <c r="G957" s="3"/>
       <c r="H957" s="3"/>
       <c r="I957" s="3" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="J957" s="4" t="s">
         <v>6</v>
@@ -37583,17 +37602,17 @@
     </row>
     <row r="958" spans="1:13">
       <c r="A958" s="2" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B958" s="3" t="s">
         <v>2108</v>
-      </c>
-      <c r="B958" s="3" t="s">
-        <v>2109</v>
       </c>
       <c r="C958" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D958" s="3"/>
-      <c r="E958" s="3" t="s">
-        <v>194</v>
+      <c r="E958" s="9" t="s">
+        <v>2463</v>
       </c>
       <c r="F958" s="3" t="s">
         <v>1296</v>
@@ -37601,7 +37620,7 @@
       <c r="G958" s="3"/>
       <c r="H958" s="3"/>
       <c r="I958" s="3" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="J958" s="4" t="s">
         <v>6</v>
@@ -37614,16 +37633,16 @@
     </row>
     <row r="959" spans="1:13">
       <c r="A959" s="2" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B959" s="3" t="s">
         <v>2110</v>
-      </c>
-      <c r="B959" s="3" t="s">
-        <v>2111</v>
       </c>
       <c r="C959" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D959" s="3"/>
-      <c r="E959" s="3" t="s">
+      <c r="E959" s="9" t="s">
         <v>200</v>
       </c>
       <c r="F959" s="3" t="s">
@@ -37632,7 +37651,7 @@
       <c r="G959" s="3"/>
       <c r="H959" s="3"/>
       <c r="I959" s="3" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="J959" s="4" t="s">
         <v>6</v>
@@ -37645,16 +37664,16 @@
     </row>
     <row r="960" spans="1:13">
       <c r="A960" s="2" t="s">
+        <v>2111</v>
+      </c>
+      <c r="B960" s="3" t="s">
         <v>2112</v>
-      </c>
-      <c r="B960" s="3" t="s">
-        <v>2113</v>
       </c>
       <c r="C960" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D960" s="3"/>
-      <c r="E960" s="3" t="s">
+      <c r="E960" s="9" t="s">
         <v>200</v>
       </c>
       <c r="F960" s="3" t="s">
@@ -37663,7 +37682,7 @@
       <c r="G960" s="3"/>
       <c r="H960" s="3"/>
       <c r="I960" s="3" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="J960" s="4" t="s">
         <v>6</v>
@@ -37676,16 +37695,16 @@
     </row>
     <row r="961" spans="1:13">
       <c r="A961" s="2" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B961" s="3" t="s">
         <v>2114</v>
-      </c>
-      <c r="B961" s="3" t="s">
-        <v>2115</v>
       </c>
       <c r="C961" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D961" s="3"/>
-      <c r="E961" s="3" t="s">
+      <c r="E961" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F961" s="3" t="s">
@@ -37694,7 +37713,7 @@
       <c r="G961" s="3"/>
       <c r="H961" s="3"/>
       <c r="I961" s="3" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="J961" s="4" t="s">
         <v>6</v>
@@ -37707,16 +37726,16 @@
     </row>
     <row r="962" spans="1:13">
       <c r="A962" s="2" t="s">
+        <v>2115</v>
+      </c>
+      <c r="B962" s="3" t="s">
         <v>2116</v>
-      </c>
-      <c r="B962" s="3" t="s">
-        <v>2117</v>
       </c>
       <c r="C962" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D962" s="3"/>
-      <c r="E962" s="3" t="s">
+      <c r="E962" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F962" s="3" t="s">
@@ -37725,7 +37744,7 @@
       <c r="G962" s="3"/>
       <c r="H962" s="3"/>
       <c r="I962" s="3" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="J962" s="4" t="s">
         <v>6</v>
@@ -37738,10 +37757,10 @@
     </row>
     <row r="963" spans="1:13">
       <c r="A963" s="2" t="s">
+        <v>2117</v>
+      </c>
+      <c r="B963" s="3" t="s">
         <v>2118</v>
-      </c>
-      <c r="B963" s="3" t="s">
-        <v>2119</v>
       </c>
       <c r="C963" s="3" t="s">
         <v>1349</v>
@@ -37756,7 +37775,7 @@
       <c r="G963" s="3"/>
       <c r="H963" s="3"/>
       <c r="I963" s="3" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="J963" s="4" t="s">
         <v>6</v>
@@ -37769,10 +37788,10 @@
     </row>
     <row r="964" spans="1:13">
       <c r="A964" s="2" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B964" s="3" t="s">
         <v>2120</v>
-      </c>
-      <c r="B964" s="3" t="s">
-        <v>2121</v>
       </c>
       <c r="C964" s="3" t="s">
         <v>397</v>
@@ -37787,7 +37806,7 @@
       <c r="G964" s="3"/>
       <c r="H964" s="3"/>
       <c r="I964" s="3" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="J964" s="4" t="s">
         <v>6</v>
@@ -37800,10 +37819,10 @@
     </row>
     <row r="965" spans="1:13">
       <c r="A965" s="2" t="s">
+        <v>2121</v>
+      </c>
+      <c r="B965" s="3" t="s">
         <v>2122</v>
-      </c>
-      <c r="B965" s="3" t="s">
-        <v>2123</v>
       </c>
       <c r="C965" s="3" t="s">
         <v>397</v>
@@ -37818,7 +37837,7 @@
       <c r="G965" s="3"/>
       <c r="H965" s="3"/>
       <c r="I965" s="3" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="J965" s="4" t="s">
         <v>6</v>
@@ -37831,10 +37850,10 @@
     </row>
     <row r="966" spans="1:13">
       <c r="A966" s="2" t="s">
+        <v>2124</v>
+      </c>
+      <c r="B966" s="3" t="s">
         <v>2125</v>
-      </c>
-      <c r="B966" s="3" t="s">
-        <v>2126</v>
       </c>
       <c r="C966" s="3" t="s">
         <v>1349</v>
@@ -37849,7 +37868,7 @@
       <c r="G966" s="3"/>
       <c r="H966" s="3"/>
       <c r="I966" s="3" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="J966" s="4" t="s">
         <v>6</v>
@@ -37862,10 +37881,10 @@
     </row>
     <row r="967" spans="1:13">
       <c r="A967" s="2" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B967" s="3" t="s">
         <v>2127</v>
-      </c>
-      <c r="B967" s="3" t="s">
-        <v>2128</v>
       </c>
       <c r="C967" s="3" t="s">
         <v>1349</v>
@@ -37880,7 +37899,7 @@
       <c r="G967" s="3"/>
       <c r="H967" s="3"/>
       <c r="I967" s="3" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="J967" s="4" t="s">
         <v>6</v>
@@ -37893,10 +37912,10 @@
     </row>
     <row r="968" spans="1:13">
       <c r="A968" s="2" t="s">
+        <v>2128</v>
+      </c>
+      <c r="B968" s="3" t="s">
         <v>2129</v>
-      </c>
-      <c r="B968" s="3" t="s">
-        <v>2130</v>
       </c>
       <c r="C968" s="3" t="s">
         <v>397</v>
@@ -37911,7 +37930,7 @@
       <c r="G968" s="3"/>
       <c r="H968" s="3"/>
       <c r="I968" s="3" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="J968" s="4" t="s">
         <v>6</v>
@@ -37924,17 +37943,17 @@
     </row>
     <row r="969" spans="1:13">
       <c r="A969" s="2" t="s">
+        <v>2130</v>
+      </c>
+      <c r="B969" s="3" t="s">
         <v>2131</v>
-      </c>
-      <c r="B969" s="3" t="s">
-        <v>2132</v>
       </c>
       <c r="C969" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D969" s="3"/>
-      <c r="E969" s="3" t="s">
-        <v>1354</v>
+      <c r="E969" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="F969" s="3" t="s">
         <v>1296</v>
@@ -37942,7 +37961,7 @@
       <c r="G969" s="3"/>
       <c r="H969" s="3"/>
       <c r="I969" s="3" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="J969" s="4" t="s">
         <v>6</v>
@@ -37955,17 +37974,17 @@
     </row>
     <row r="970" spans="1:13">
       <c r="A970" s="2" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B970" s="3" t="s">
         <v>2133</v>
-      </c>
-      <c r="B970" s="3" t="s">
-        <v>2134</v>
       </c>
       <c r="C970" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D970" s="3"/>
-      <c r="E970" s="3" t="s">
-        <v>1354</v>
+      <c r="E970" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="F970" s="3" t="s">
         <v>1296</v>
@@ -37973,7 +37992,7 @@
       <c r="G970" s="3"/>
       <c r="H970" s="3"/>
       <c r="I970" s="3" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="J970" s="4" t="s">
         <v>6</v>
@@ -37986,10 +38005,10 @@
     </row>
     <row r="971" spans="1:13">
       <c r="A971" s="2" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B971" s="3" t="s">
         <v>2135</v>
-      </c>
-      <c r="B971" s="3" t="s">
-        <v>2136</v>
       </c>
       <c r="C971" s="3" t="s">
         <v>397</v>
@@ -38004,7 +38023,7 @@
       <c r="G971" s="3"/>
       <c r="H971" s="3"/>
       <c r="I971" s="3" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="J971" s="4" t="s">
         <v>6</v>
@@ -38017,10 +38036,10 @@
     </row>
     <row r="972" spans="1:13">
       <c r="A972" s="2" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B972" s="3" t="s">
         <v>2137</v>
-      </c>
-      <c r="B972" s="3" t="s">
-        <v>2138</v>
       </c>
       <c r="C972" s="3" t="s">
         <v>1349</v>
@@ -38035,7 +38054,7 @@
       <c r="G972" s="3"/>
       <c r="H972" s="3"/>
       <c r="I972" s="3" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="J972" s="4" t="s">
         <v>6</v>
@@ -38048,16 +38067,16 @@
     </row>
     <row r="973" spans="1:13">
       <c r="A973" s="2" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B973" s="3" t="s">
         <v>2139</v>
-      </c>
-      <c r="B973" s="3" t="s">
-        <v>2140</v>
       </c>
       <c r="C973" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D973" s="3"/>
-      <c r="E973" s="3" t="s">
+      <c r="E973" s="9" t="s">
         <v>552</v>
       </c>
       <c r="F973" s="3" t="s">
@@ -38066,7 +38085,7 @@
       <c r="G973" s="3"/>
       <c r="H973" s="3"/>
       <c r="I973" s="3" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="J973" s="4" t="s">
         <v>6</v>
@@ -38079,16 +38098,16 @@
     </row>
     <row r="974" spans="1:13">
       <c r="A974" s="2" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B974" s="3" t="s">
         <v>2141</v>
-      </c>
-      <c r="B974" s="3" t="s">
-        <v>2142</v>
       </c>
       <c r="C974" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D974" s="3"/>
-      <c r="E974" s="3" t="s">
+      <c r="E974" s="9" t="s">
         <v>552</v>
       </c>
       <c r="F974" s="3" t="s">
@@ -38097,7 +38116,7 @@
       <c r="G974" s="3"/>
       <c r="H974" s="3"/>
       <c r="I974" s="3" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="J974" s="4" t="s">
         <v>6</v>
@@ -38110,17 +38129,17 @@
     </row>
     <row r="975" spans="1:13">
       <c r="A975" s="2" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B975" s="3" t="s">
         <v>2143</v>
-      </c>
-      <c r="B975" s="3" t="s">
-        <v>2144</v>
       </c>
       <c r="C975" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D975" s="3"/>
       <c r="E975" s="3" t="s">
-        <v>496</v>
+        <v>1367</v>
       </c>
       <c r="F975" s="3" t="s">
         <v>1296</v>
@@ -38128,7 +38147,7 @@
       <c r="G975" s="3"/>
       <c r="H975" s="3"/>
       <c r="I975" s="3" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="J975" s="4" t="s">
         <v>6</v>
@@ -38141,17 +38160,17 @@
     </row>
     <row r="976" spans="1:13">
       <c r="A976" s="2" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B976" s="3" t="s">
         <v>2145</v>
-      </c>
-      <c r="B976" s="3" t="s">
-        <v>2146</v>
       </c>
       <c r="C976" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D976" s="3"/>
       <c r="E976" s="3" t="s">
-        <v>496</v>
+        <v>1367</v>
       </c>
       <c r="F976" s="3" t="s">
         <v>1296</v>
@@ -38159,7 +38178,7 @@
       <c r="G976" s="3"/>
       <c r="H976" s="3"/>
       <c r="I976" s="3" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="J976" s="4" t="s">
         <v>6</v>
@@ -38172,17 +38191,17 @@
     </row>
     <row r="977" spans="1:13">
       <c r="A977" s="2" t="s">
+        <v>2146</v>
+      </c>
+      <c r="B977" s="3" t="s">
         <v>2147</v>
-      </c>
-      <c r="B977" s="3" t="s">
-        <v>2148</v>
       </c>
       <c r="C977" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D977" s="3"/>
-      <c r="E977" s="3" t="s">
-        <v>1778</v>
+      <c r="E977" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="F977" s="3" t="s">
         <v>1296</v>
@@ -38190,7 +38209,7 @@
       <c r="G977" s="3"/>
       <c r="H977" s="3"/>
       <c r="I977" s="3" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="J977" s="4" t="s">
         <v>6</v>
@@ -38203,17 +38222,17 @@
     </row>
     <row r="978" spans="1:13">
       <c r="A978" s="2" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B978" s="3" t="s">
         <v>2149</v>
-      </c>
-      <c r="B978" s="3" t="s">
-        <v>2150</v>
       </c>
       <c r="C978" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D978" s="3"/>
-      <c r="E978" s="3" t="s">
-        <v>1778</v>
+      <c r="E978" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="F978" s="3" t="s">
         <v>1296</v>
@@ -38221,7 +38240,7 @@
       <c r="G978" s="3"/>
       <c r="H978" s="3"/>
       <c r="I978" s="3" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="J978" s="4" t="s">
         <v>6</v>
@@ -38234,17 +38253,17 @@
     </row>
     <row r="979" spans="1:13">
       <c r="A979" s="2" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B979" s="3" t="s">
         <v>2151</v>
-      </c>
-      <c r="B979" s="3" t="s">
-        <v>2152</v>
       </c>
       <c r="C979" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D979" s="3"/>
-      <c r="E979" s="3" t="s">
-        <v>2473</v>
+      <c r="E979" s="9" t="s">
+        <v>2463</v>
       </c>
       <c r="F979" s="3" t="s">
         <v>1296</v>
@@ -38252,7 +38271,7 @@
       <c r="G979" s="3"/>
       <c r="H979" s="3"/>
       <c r="I979" s="3" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="J979" s="4" t="s">
         <v>6</v>
@@ -38265,17 +38284,17 @@
     </row>
     <row r="980" spans="1:13">
       <c r="A980" s="2" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B980" s="3" t="s">
         <v>2153</v>
-      </c>
-      <c r="B980" s="3" t="s">
-        <v>2154</v>
       </c>
       <c r="C980" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D980" s="3"/>
-      <c r="E980" s="3" t="s">
-        <v>2473</v>
+      <c r="E980" s="9" t="s">
+        <v>2463</v>
       </c>
       <c r="F980" s="3" t="s">
         <v>1296</v>
@@ -38283,7 +38302,7 @@
       <c r="G980" s="3"/>
       <c r="H980" s="3"/>
       <c r="I980" s="3" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="J980" s="4" t="s">
         <v>6</v>
@@ -38296,10 +38315,10 @@
     </row>
     <row r="981" spans="1:13">
       <c r="A981" s="2" t="s">
+        <v>2154</v>
+      </c>
+      <c r="B981" s="3" t="s">
         <v>2155</v>
-      </c>
-      <c r="B981" s="3" t="s">
-        <v>2156</v>
       </c>
       <c r="C981" s="3" t="s">
         <v>397</v>
@@ -38314,7 +38333,7 @@
       <c r="G981" s="3"/>
       <c r="H981" s="3"/>
       <c r="I981" s="3" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="J981" s="4" t="s">
         <v>6</v>
@@ -38327,10 +38346,10 @@
     </row>
     <row r="982" spans="1:13">
       <c r="A982" s="2" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B982" s="3" t="s">
         <v>2157</v>
-      </c>
-      <c r="B982" s="3" t="s">
-        <v>2158</v>
       </c>
       <c r="C982" s="3" t="s">
         <v>1349</v>
@@ -38345,7 +38364,7 @@
       <c r="G982" s="3"/>
       <c r="H982" s="3"/>
       <c r="I982" s="3" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="J982" s="4" t="s">
         <v>6</v>
@@ -38358,10 +38377,10 @@
     </row>
     <row r="983" spans="1:13">
       <c r="A983" s="2" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B983" s="3" t="s">
         <v>2159</v>
-      </c>
-      <c r="B983" s="3" t="s">
-        <v>2160</v>
       </c>
       <c r="C983" s="3" t="s">
         <v>1349</v>
@@ -38376,7 +38395,7 @@
       <c r="G983" s="3"/>
       <c r="H983" s="3"/>
       <c r="I983" s="3" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="J983" s="4" t="s">
         <v>6</v>
@@ -38389,10 +38408,10 @@
     </row>
     <row r="984" spans="1:13">
       <c r="A984" s="2" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B984" s="3" t="s">
         <v>2161</v>
-      </c>
-      <c r="B984" s="3" t="s">
-        <v>2162</v>
       </c>
       <c r="C984" s="3" t="s">
         <v>397</v>
@@ -38407,7 +38426,7 @@
       <c r="G984" s="3"/>
       <c r="H984" s="3"/>
       <c r="I984" s="3" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="J984" s="4" t="s">
         <v>6</v>
@@ -38420,16 +38439,16 @@
     </row>
     <row r="985" spans="1:13">
       <c r="A985" s="2" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B985" s="3" t="s">
         <v>2163</v>
-      </c>
-      <c r="B985" s="3" t="s">
-        <v>2164</v>
       </c>
       <c r="C985" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D985" s="3"/>
-      <c r="E985" s="3" t="s">
+      <c r="E985" s="9" t="s">
         <v>160</v>
       </c>
       <c r="F985" s="3" t="s">
@@ -38438,7 +38457,7 @@
       <c r="G985" s="3"/>
       <c r="H985" s="3"/>
       <c r="I985" s="3" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="J985" s="4" t="s">
         <v>6</v>
@@ -38451,16 +38470,16 @@
     </row>
     <row r="986" spans="1:13">
       <c r="A986" s="2" t="s">
+        <v>2165</v>
+      </c>
+      <c r="B986" s="3" t="s">
         <v>2166</v>
-      </c>
-      <c r="B986" s="3" t="s">
-        <v>2167</v>
       </c>
       <c r="C986" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D986" s="3"/>
-      <c r="E986" s="3" t="s">
+      <c r="E986" s="9" t="s">
         <v>160</v>
       </c>
       <c r="F986" s="3" t="s">
@@ -38469,7 +38488,7 @@
       <c r="G986" s="3"/>
       <c r="H986" s="3"/>
       <c r="I986" s="3" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="J986" s="4" t="s">
         <v>6</v>
@@ -38482,16 +38501,16 @@
     </row>
     <row r="987" spans="1:13">
       <c r="A987" s="2" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B987" s="3" t="s">
         <v>2168</v>
-      </c>
-      <c r="B987" s="3" t="s">
-        <v>2169</v>
       </c>
       <c r="C987" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D987" s="3"/>
-      <c r="E987" s="3" t="s">
+      <c r="E987" s="9" t="s">
         <v>167</v>
       </c>
       <c r="F987" s="3" t="s">
@@ -38500,7 +38519,7 @@
       <c r="G987" s="3"/>
       <c r="H987" s="3"/>
       <c r="I987" s="3" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="J987" s="4" t="s">
         <v>6</v>
@@ -38513,16 +38532,16 @@
     </row>
     <row r="988" spans="1:13">
       <c r="A988" s="2" t="s">
+        <v>2170</v>
+      </c>
+      <c r="B988" s="3" t="s">
         <v>2171</v>
-      </c>
-      <c r="B988" s="3" t="s">
-        <v>2172</v>
       </c>
       <c r="C988" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D988" s="3"/>
-      <c r="E988" s="3" t="s">
+      <c r="E988" s="9" t="s">
         <v>167</v>
       </c>
       <c r="F988" s="3" t="s">
@@ -38531,7 +38550,7 @@
       <c r="G988" s="3"/>
       <c r="H988" s="3"/>
       <c r="I988" s="3" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="J988" s="4" t="s">
         <v>6</v>
@@ -38544,17 +38563,17 @@
     </row>
     <row r="989" spans="1:13">
       <c r="A989" s="2" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B989" s="3" t="s">
         <v>2173</v>
-      </c>
-      <c r="B989" s="3" t="s">
-        <v>2174</v>
       </c>
       <c r="C989" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D989" s="3"/>
-      <c r="E989" s="3" t="s">
-        <v>1354</v>
+      <c r="E989" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="F989" s="3" t="s">
         <v>1296</v>
@@ -38562,7 +38581,7 @@
       <c r="G989" s="3"/>
       <c r="H989" s="3"/>
       <c r="I989" s="3" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="J989" s="4" t="s">
         <v>6</v>
@@ -38575,17 +38594,17 @@
     </row>
     <row r="990" spans="1:13">
       <c r="A990" s="2" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B990" s="3" t="s">
         <v>2175</v>
-      </c>
-      <c r="B990" s="3" t="s">
-        <v>2176</v>
       </c>
       <c r="C990" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D990" s="3"/>
-      <c r="E990" s="3" t="s">
-        <v>1354</v>
+      <c r="E990" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="F990" s="3" t="s">
         <v>1296</v>
@@ -38593,7 +38612,7 @@
       <c r="G990" s="3"/>
       <c r="H990" s="3"/>
       <c r="I990" s="3" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="J990" s="4" t="s">
         <v>6</v>
@@ -38606,16 +38625,16 @@
     </row>
     <row r="991" spans="1:13">
       <c r="A991" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B991" s="3" t="s">
         <v>2177</v>
-      </c>
-      <c r="B991" s="3" t="s">
-        <v>2178</v>
       </c>
       <c r="C991" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D991" s="3"/>
-      <c r="E991" s="3" t="s">
+      <c r="E991" s="9" t="s">
         <v>142</v>
       </c>
       <c r="F991" s="3" t="s">
@@ -38624,7 +38643,7 @@
       <c r="G991" s="3"/>
       <c r="H991" s="3"/>
       <c r="I991" s="3" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="J991" s="4" t="s">
         <v>6</v>
@@ -38637,16 +38656,16 @@
     </row>
     <row r="992" spans="1:13">
       <c r="A992" s="2" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B992" s="3" t="s">
         <v>2179</v>
-      </c>
-      <c r="B992" s="3" t="s">
-        <v>2180</v>
       </c>
       <c r="C992" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D992" s="3"/>
-      <c r="E992" s="3" t="s">
+      <c r="E992" s="9" t="s">
         <v>142</v>
       </c>
       <c r="F992" s="3" t="s">
@@ -38655,7 +38674,7 @@
       <c r="G992" s="3"/>
       <c r="H992" s="3"/>
       <c r="I992" s="3" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="J992" s="4" t="s">
         <v>6</v>
@@ -38668,16 +38687,16 @@
     </row>
     <row r="993" spans="1:13">
       <c r="A993" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="B993" s="3" t="s">
         <v>2181</v>
-      </c>
-      <c r="B993" s="3" t="s">
-        <v>2182</v>
       </c>
       <c r="C993" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D993" s="3"/>
-      <c r="E993" s="3" t="s">
+      <c r="E993" s="9" t="s">
         <v>552</v>
       </c>
       <c r="F993" s="3" t="s">
@@ -38686,7 +38705,7 @@
       <c r="G993" s="3"/>
       <c r="H993" s="3"/>
       <c r="I993" s="3" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="J993" s="4" t="s">
         <v>6</v>
@@ -38699,16 +38718,16 @@
     </row>
     <row r="994" spans="1:13">
       <c r="A994" s="2" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B994" s="3" t="s">
         <v>2183</v>
-      </c>
-      <c r="B994" s="3" t="s">
-        <v>2184</v>
       </c>
       <c r="C994" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D994" s="3"/>
-      <c r="E994" s="3" t="s">
+      <c r="E994" s="9" t="s">
         <v>552</v>
       </c>
       <c r="F994" s="3" t="s">
@@ -38717,7 +38736,7 @@
       <c r="G994" s="3"/>
       <c r="H994" s="3"/>
       <c r="I994" s="3" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="J994" s="4" t="s">
         <v>6</v>
@@ -38730,16 +38749,16 @@
     </row>
     <row r="995" spans="1:13">
       <c r="A995" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="B995" s="3" t="s">
         <v>2185</v>
-      </c>
-      <c r="B995" s="3" t="s">
-        <v>2186</v>
       </c>
       <c r="C995" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D995" s="3"/>
-      <c r="E995" s="3" t="s">
+      <c r="E995" s="9" t="s">
         <v>1367</v>
       </c>
       <c r="F995" s="3" t="s">
@@ -38748,7 +38767,7 @@
       <c r="G995" s="3"/>
       <c r="H995" s="3"/>
       <c r="I995" s="3" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="J995" s="4" t="s">
         <v>6</v>
@@ -38761,16 +38780,16 @@
     </row>
     <row r="996" spans="1:13">
       <c r="A996" s="2" t="s">
+        <v>2186</v>
+      </c>
+      <c r="B996" s="3" t="s">
         <v>2187</v>
-      </c>
-      <c r="B996" s="3" t="s">
-        <v>2188</v>
       </c>
       <c r="C996" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D996" s="3"/>
-      <c r="E996" s="3" t="s">
+      <c r="E996" s="9" t="s">
         <v>1367</v>
       </c>
       <c r="F996" s="3" t="s">
@@ -38779,7 +38798,7 @@
       <c r="G996" s="3"/>
       <c r="H996" s="3"/>
       <c r="I996" s="3" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="J996" s="4" t="s">
         <v>6</v>
@@ -38792,17 +38811,17 @@
     </row>
     <row r="997" spans="1:13">
       <c r="A997" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="B997" s="3" t="s">
         <v>2189</v>
-      </c>
-      <c r="B997" s="3" t="s">
-        <v>2190</v>
       </c>
       <c r="C997" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D997" s="3"/>
-      <c r="E997" s="3" t="s">
-        <v>194</v>
+      <c r="E997" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="F997" s="3" t="s">
         <v>1296</v>
@@ -38810,7 +38829,7 @@
       <c r="G997" s="3"/>
       <c r="H997" s="3"/>
       <c r="I997" s="3" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="J997" s="4" t="s">
         <v>6</v>
@@ -38823,17 +38842,17 @@
     </row>
     <row r="998" spans="1:13">
       <c r="A998" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="B998" s="3" t="s">
         <v>2191</v>
-      </c>
-      <c r="B998" s="3" t="s">
-        <v>2192</v>
       </c>
       <c r="C998" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D998" s="3"/>
-      <c r="E998" s="3" t="s">
-        <v>194</v>
+      <c r="E998" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="F998" s="3" t="s">
         <v>1296</v>
@@ -38841,7 +38860,7 @@
       <c r="G998" s="3"/>
       <c r="H998" s="3"/>
       <c r="I998" s="3" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="J998" s="4" t="s">
         <v>6</v>
@@ -38854,17 +38873,17 @@
     </row>
     <row r="999" spans="1:13">
       <c r="A999" s="2" t="s">
+        <v>2192</v>
+      </c>
+      <c r="B999" s="3" t="s">
         <v>2193</v>
-      </c>
-      <c r="B999" s="3" t="s">
-        <v>2194</v>
       </c>
       <c r="C999" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D999" s="3"/>
-      <c r="E999" s="3" t="s">
-        <v>194</v>
+      <c r="E999" s="9" t="s">
+        <v>2463</v>
       </c>
       <c r="F999" s="3" t="s">
         <v>1296</v>
@@ -38872,7 +38891,7 @@
       <c r="G999" s="3"/>
       <c r="H999" s="3"/>
       <c r="I999" s="3" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="J999" s="4" t="s">
         <v>6</v>
@@ -38885,17 +38904,17 @@
     </row>
     <row r="1000" spans="1:13">
       <c r="A1000" s="2" t="s">
+        <v>2194</v>
+      </c>
+      <c r="B1000" s="3" t="s">
         <v>2195</v>
-      </c>
-      <c r="B1000" s="3" t="s">
-        <v>2196</v>
       </c>
       <c r="C1000" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D1000" s="3"/>
-      <c r="E1000" s="3" t="s">
-        <v>194</v>
+      <c r="E1000" s="9" t="s">
+        <v>2463</v>
       </c>
       <c r="F1000" s="3" t="s">
         <v>1296</v>
@@ -38903,7 +38922,7 @@
       <c r="G1000" s="3"/>
       <c r="H1000" s="3"/>
       <c r="I1000" s="3" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="J1000" s="4" t="s">
         <v>6</v>
@@ -38916,16 +38935,16 @@
     </row>
     <row r="1001" spans="1:13">
       <c r="A1001" s="2" t="s">
+        <v>2196</v>
+      </c>
+      <c r="B1001" s="3" t="s">
         <v>2197</v>
-      </c>
-      <c r="B1001" s="3" t="s">
-        <v>2198</v>
       </c>
       <c r="C1001" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D1001" s="3"/>
-      <c r="E1001" s="3" t="s">
+      <c r="E1001" s="9" t="s">
         <v>200</v>
       </c>
       <c r="F1001" s="3" t="s">
@@ -38934,7 +38953,7 @@
       <c r="G1001" s="3"/>
       <c r="H1001" s="3"/>
       <c r="I1001" s="3" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="J1001" s="4" t="s">
         <v>6</v>
@@ -38947,16 +38966,16 @@
     </row>
     <row r="1002" spans="1:13">
       <c r="A1002" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="B1002" s="3" t="s">
         <v>2199</v>
-      </c>
-      <c r="B1002" s="3" t="s">
-        <v>2200</v>
       </c>
       <c r="C1002" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D1002" s="3"/>
-      <c r="E1002" s="3" t="s">
+      <c r="E1002" s="9" t="s">
         <v>200</v>
       </c>
       <c r="F1002" s="3" t="s">
@@ -38965,7 +38984,7 @@
       <c r="G1002" s="3"/>
       <c r="H1002" s="3"/>
       <c r="I1002" s="3" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="J1002" s="4" t="s">
         <v>6</v>
@@ -38978,16 +38997,16 @@
     </row>
     <row r="1003" spans="1:13">
       <c r="A1003" s="2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="B1003" s="3" t="s">
         <v>2201</v>
-      </c>
-      <c r="B1003" s="3" t="s">
-        <v>2202</v>
       </c>
       <c r="C1003" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D1003" s="3"/>
-      <c r="E1003" s="3" t="s">
+      <c r="E1003" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F1003" s="3" t="s">
@@ -38996,7 +39015,7 @@
       <c r="G1003" s="3"/>
       <c r="H1003" s="3"/>
       <c r="I1003" s="3" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="J1003" s="4" t="s">
         <v>6</v>
@@ -39009,16 +39028,16 @@
     </row>
     <row r="1004" spans="1:13">
       <c r="A1004" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="B1004" s="3" t="s">
         <v>2203</v>
-      </c>
-      <c r="B1004" s="3" t="s">
-        <v>2204</v>
       </c>
       <c r="C1004" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D1004" s="3"/>
-      <c r="E1004" s="3" t="s">
+      <c r="E1004" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F1004" s="3" t="s">
@@ -39027,7 +39046,7 @@
       <c r="G1004" s="3"/>
       <c r="H1004" s="3"/>
       <c r="I1004" s="3" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="J1004" s="4" t="s">
         <v>6</v>
@@ -39040,17 +39059,17 @@
     </row>
     <row r="1005" spans="1:13">
       <c r="A1005" s="2" t="s">
+        <v>2204</v>
+      </c>
+      <c r="B1005" s="3" t="s">
         <v>2205</v>
-      </c>
-      <c r="B1005" s="3" t="s">
-        <v>2206</v>
       </c>
       <c r="C1005" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D1005" s="3"/>
-      <c r="E1005" s="3" t="s">
-        <v>160</v>
+      <c r="E1005" s="9" t="s">
+        <v>2475</v>
       </c>
       <c r="F1005" s="3" t="s">
         <v>1296</v>
@@ -39071,16 +39090,16 @@
     </row>
     <row r="1006" spans="1:13">
       <c r="A1006" s="2" t="s">
+        <v>2206</v>
+      </c>
+      <c r="B1006" s="3" t="s">
         <v>2207</v>
-      </c>
-      <c r="B1006" s="3" t="s">
-        <v>2208</v>
       </c>
       <c r="C1006" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D1006" s="3"/>
-      <c r="E1006" s="3" t="s">
+      <c r="E1006" s="9" t="s">
         <v>167</v>
       </c>
       <c r="F1006" s="3" t="s">
@@ -39102,17 +39121,17 @@
     </row>
     <row r="1007" spans="1:13">
       <c r="A1007" s="2" t="s">
+        <v>2208</v>
+      </c>
+      <c r="B1007" s="3" t="s">
         <v>2209</v>
-      </c>
-      <c r="B1007" s="3" t="s">
-        <v>2210</v>
       </c>
       <c r="C1007" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D1007" s="3"/>
-      <c r="E1007" s="3" t="s">
-        <v>1354</v>
+      <c r="E1007" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="F1007" s="3" t="s">
         <v>1296</v>
@@ -39133,16 +39152,16 @@
     </row>
     <row r="1008" spans="1:13">
       <c r="A1008" s="2" t="s">
+        <v>2210</v>
+      </c>
+      <c r="B1008" s="3" t="s">
         <v>2211</v>
-      </c>
-      <c r="B1008" s="3" t="s">
-        <v>2212</v>
       </c>
       <c r="C1008" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D1008" s="3"/>
-      <c r="E1008" s="3" t="s">
+      <c r="E1008" s="9" t="s">
         <v>142</v>
       </c>
       <c r="F1008" s="3" t="s">
@@ -39164,17 +39183,17 @@
     </row>
     <row r="1009" spans="1:13">
       <c r="A1009" s="2" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B1009" s="3" t="s">
         <v>2213</v>
-      </c>
-      <c r="B1009" s="3" t="s">
-        <v>2214</v>
       </c>
       <c r="C1009" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D1009" s="3"/>
-      <c r="E1009" s="3" t="s">
-        <v>2474</v>
+      <c r="E1009" s="9" t="s">
+        <v>552</v>
       </c>
       <c r="F1009" s="3" t="s">
         <v>1296</v>
@@ -39195,17 +39214,17 @@
     </row>
     <row r="1010" spans="1:13">
       <c r="A1010" s="2" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B1010" s="3" t="s">
         <v>2215</v>
-      </c>
-      <c r="B1010" s="3" t="s">
-        <v>2216</v>
       </c>
       <c r="C1010" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D1010" s="3"/>
-      <c r="E1010" s="3" t="s">
-        <v>2474</v>
+      <c r="E1010" s="9" t="s">
+        <v>552</v>
       </c>
       <c r="F1010" s="3" t="s">
         <v>1296</v>
@@ -39226,17 +39245,17 @@
     </row>
     <row r="1011" spans="1:13">
       <c r="A1011" s="2" t="s">
+        <v>2216</v>
+      </c>
+      <c r="B1011" s="3" t="s">
         <v>2217</v>
-      </c>
-      <c r="B1011" s="3" t="s">
-        <v>2218</v>
       </c>
       <c r="C1011" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D1011" s="3"/>
-      <c r="E1011" s="3" t="s">
-        <v>496</v>
+      <c r="E1011" s="9" t="s">
+        <v>1367</v>
       </c>
       <c r="F1011" s="3" t="s">
         <v>1296</v>
@@ -39257,17 +39276,17 @@
     </row>
     <row r="1012" spans="1:13">
       <c r="A1012" s="2" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B1012" s="3" t="s">
         <v>2219</v>
-      </c>
-      <c r="B1012" s="3" t="s">
-        <v>2220</v>
       </c>
       <c r="C1012" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D1012" s="3"/>
-      <c r="E1012" s="3" t="s">
-        <v>194</v>
+      <c r="E1012" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="F1012" s="3" t="s">
         <v>1296</v>
@@ -39288,17 +39307,17 @@
     </row>
     <row r="1013" spans="1:13">
       <c r="A1013" s="2" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B1013" s="3" t="s">
         <v>2221</v>
-      </c>
-      <c r="B1013" s="3" t="s">
-        <v>2222</v>
       </c>
       <c r="C1013" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D1013" s="3"/>
-      <c r="E1013" s="3" t="s">
-        <v>2473</v>
+      <c r="E1013" s="9" t="s">
+        <v>2463</v>
       </c>
       <c r="F1013" s="3" t="s">
         <v>1296</v>
@@ -39319,16 +39338,16 @@
     </row>
     <row r="1014" spans="1:13">
       <c r="A1014" s="2" t="s">
+        <v>2222</v>
+      </c>
+      <c r="B1014" s="3" t="s">
         <v>2223</v>
-      </c>
-      <c r="B1014" s="3" t="s">
-        <v>2224</v>
       </c>
       <c r="C1014" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D1014" s="3"/>
-      <c r="E1014" s="3" t="s">
+      <c r="E1014" s="9" t="s">
         <v>200</v>
       </c>
       <c r="F1014" s="3" t="s">
@@ -39350,16 +39369,16 @@
     </row>
     <row r="1015" spans="1:13">
       <c r="A1015" s="2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B1015" s="3" t="s">
         <v>2225</v>
-      </c>
-      <c r="B1015" s="3" t="s">
-        <v>2226</v>
       </c>
       <c r="C1015" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="D1015" s="3"/>
-      <c r="E1015" s="3" t="s">
+      <c r="E1015" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F1015" s="3" t="s">
@@ -39381,13 +39400,13 @@
     </row>
     <row r="1016" spans="1:13">
       <c r="A1016" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B1016" s="3" t="s">
         <v>2227</v>
       </c>
-      <c r="B1016" s="3" t="s">
+      <c r="C1016" s="3" t="s">
         <v>2228</v>
-      </c>
-      <c r="C1016" s="3" t="s">
-        <v>2229</v>
       </c>
       <c r="D1016" s="3"/>
       <c r="E1016" s="3"/>
@@ -39395,11 +39414,11 @@
         <v>1296</v>
       </c>
       <c r="G1016" s="3" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="H1016" s="3"/>
       <c r="I1016" s="3" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="J1016" s="4" t="s">
         <v>6</v>
@@ -39412,13 +39431,13 @@
     </row>
     <row r="1017" spans="1:13">
       <c r="A1017" s="2" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B1017" s="3" t="s">
         <v>2232</v>
       </c>
-      <c r="B1017" s="3" t="s">
-        <v>2233</v>
-      </c>
       <c r="C1017" s="3" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D1017" s="3"/>
       <c r="E1017" s="3"/>
@@ -39430,7 +39449,7 @@
       </c>
       <c r="H1017" s="3"/>
       <c r="I1017" s="3" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="J1017" s="4" t="s">
         <v>6</v>
@@ -39443,13 +39462,13 @@
     </row>
     <row r="1018" spans="1:13">
       <c r="A1018" s="2" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B1018" s="3" t="s">
         <v>2235</v>
       </c>
-      <c r="B1018" s="3" t="s">
-        <v>2236</v>
-      </c>
       <c r="C1018" s="3" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D1018" s="3"/>
       <c r="E1018" s="3"/>
@@ -39461,7 +39480,7 @@
       </c>
       <c r="H1018" s="3"/>
       <c r="I1018" s="3" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="J1018" s="4" t="s">
         <v>6</v>
@@ -39474,10 +39493,10 @@
     </row>
     <row r="1019" spans="1:13">
       <c r="A1019" s="2" t="s">
+        <v>2236</v>
+      </c>
+      <c r="B1019" s="3" t="s">
         <v>2237</v>
-      </c>
-      <c r="B1019" s="3" t="s">
-        <v>2238</v>
       </c>
       <c r="C1019" s="3" t="s">
         <v>1301</v>
@@ -39492,7 +39511,7 @@
       </c>
       <c r="H1019" s="3"/>
       <c r="I1019" s="3" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="J1019" s="4" t="s">
         <v>6</v>
@@ -39505,10 +39524,10 @@
     </row>
     <row r="1020" spans="1:13">
       <c r="A1020" s="2" t="s">
+        <v>2238</v>
+      </c>
+      <c r="B1020" s="3" t="s">
         <v>2239</v>
-      </c>
-      <c r="B1020" s="3" t="s">
-        <v>2240</v>
       </c>
       <c r="C1020" s="3" t="s">
         <v>1301</v>
@@ -39523,7 +39542,7 @@
       </c>
       <c r="H1020" s="3"/>
       <c r="I1020" s="3" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="J1020" s="4" t="s">
         <v>6</v>
@@ -39536,13 +39555,13 @@
     </row>
     <row r="1021" spans="1:13">
       <c r="A1021" s="2" t="s">
+        <v>2240</v>
+      </c>
+      <c r="B1021" s="3" t="s">
         <v>2241</v>
       </c>
-      <c r="B1021" s="3" t="s">
-        <v>2242</v>
-      </c>
       <c r="C1021" s="3" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D1021" s="3"/>
       <c r="E1021" s="3"/>
@@ -39554,7 +39573,7 @@
       </c>
       <c r="H1021" s="3"/>
       <c r="I1021" s="3" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="J1021" s="4" t="s">
         <v>6</v>
@@ -39567,13 +39586,13 @@
     </row>
     <row r="1022" spans="1:13">
       <c r="A1022" s="2" t="s">
+        <v>2243</v>
+      </c>
+      <c r="B1022" s="3" t="s">
         <v>2244</v>
       </c>
-      <c r="B1022" s="3" t="s">
-        <v>2245</v>
-      </c>
       <c r="C1022" s="3" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D1022" s="3"/>
       <c r="E1022" s="3"/>
@@ -39585,7 +39604,7 @@
       </c>
       <c r="H1022" s="3"/>
       <c r="I1022" s="3" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="J1022" s="4" t="s">
         <v>6</v>
@@ -39598,10 +39617,10 @@
     </row>
     <row r="1023" spans="1:13">
       <c r="A1023" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B1023" s="3" t="s">
         <v>2246</v>
-      </c>
-      <c r="B1023" s="3" t="s">
-        <v>2247</v>
       </c>
       <c r="C1023" s="3" t="s">
         <v>1301</v>
@@ -39616,7 +39635,7 @@
       </c>
       <c r="H1023" s="3"/>
       <c r="I1023" s="3" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="J1023" s="4" t="s">
         <v>6</v>
@@ -39629,10 +39648,10 @@
     </row>
     <row r="1024" spans="1:13">
       <c r="A1024" s="2" t="s">
+        <v>2247</v>
+      </c>
+      <c r="B1024" s="3" t="s">
         <v>2248</v>
-      </c>
-      <c r="B1024" s="3" t="s">
-        <v>2249</v>
       </c>
       <c r="C1024" s="3" t="s">
         <v>1301</v>
@@ -39647,7 +39666,7 @@
       </c>
       <c r="H1024" s="3"/>
       <c r="I1024" s="3" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="J1024" s="4" t="s">
         <v>6</v>
@@ -39660,13 +39679,13 @@
     </row>
     <row r="1025" spans="1:13">
       <c r="A1025" s="2" t="s">
+        <v>2249</v>
+      </c>
+      <c r="B1025" s="3" t="s">
         <v>2250</v>
       </c>
-      <c r="B1025" s="3" t="s">
-        <v>2251</v>
-      </c>
       <c r="C1025" s="3" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D1025" s="3"/>
       <c r="E1025" s="3"/>
@@ -39674,11 +39693,11 @@
         <v>1296</v>
       </c>
       <c r="G1025" s="3" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="H1025" s="3"/>
       <c r="I1025" s="3" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="J1025" s="4" t="s">
         <v>6</v>
@@ -39691,13 +39710,13 @@
     </row>
     <row r="1026" spans="1:13">
       <c r="A1026" s="2" t="s">
+        <v>2252</v>
+      </c>
+      <c r="B1026" s="3" t="s">
         <v>2253</v>
       </c>
-      <c r="B1026" s="3" t="s">
-        <v>2254</v>
-      </c>
       <c r="C1026" s="3" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D1026" s="3"/>
       <c r="E1026" s="3"/>
@@ -39705,11 +39724,11 @@
         <v>1296</v>
       </c>
       <c r="G1026" s="3" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="H1026" s="3"/>
       <c r="I1026" s="3" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="J1026" s="4" t="s">
         <v>6</v>
@@ -39722,10 +39741,10 @@
     </row>
     <row r="1027" spans="1:13">
       <c r="A1027" s="2" t="s">
+        <v>2254</v>
+      </c>
+      <c r="B1027" s="3" t="s">
         <v>2255</v>
-      </c>
-      <c r="B1027" s="3" t="s">
-        <v>2256</v>
       </c>
       <c r="C1027" s="3" t="s">
         <v>1301</v>
@@ -39736,11 +39755,11 @@
         <v>1296</v>
       </c>
       <c r="G1027" s="3" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="H1027" s="3"/>
       <c r="I1027" s="3" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="J1027" s="4" t="s">
         <v>6</v>
@@ -39753,10 +39772,10 @@
     </row>
     <row r="1028" spans="1:13">
       <c r="A1028" s="2" t="s">
+        <v>2256</v>
+      </c>
+      <c r="B1028" s="3" t="s">
         <v>2257</v>
-      </c>
-      <c r="B1028" s="3" t="s">
-        <v>2258</v>
       </c>
       <c r="C1028" s="3" t="s">
         <v>1328</v>
@@ -39767,11 +39786,11 @@
         <v>1296</v>
       </c>
       <c r="G1028" s="3" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="H1028" s="3"/>
       <c r="I1028" s="3" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="J1028" s="4" t="s">
         <v>6</v>
@@ -39784,13 +39803,13 @@
     </row>
     <row r="1029" spans="1:13">
       <c r="A1029" s="2" t="s">
+        <v>2258</v>
+      </c>
+      <c r="B1029" s="3" t="s">
         <v>2259</v>
       </c>
-      <c r="B1029" s="3" t="s">
-        <v>2260</v>
-      </c>
       <c r="C1029" s="3" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D1029" s="3"/>
       <c r="E1029" s="3"/>
@@ -39798,11 +39817,11 @@
         <v>1296</v>
       </c>
       <c r="G1029" s="3" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="H1029" s="3"/>
       <c r="I1029" s="3" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="J1029" s="4" t="s">
         <v>6</v>
@@ -39815,10 +39834,10 @@
     </row>
     <row r="1030" spans="1:13">
       <c r="A1030" s="2" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B1030" s="3" t="s">
         <v>2261</v>
-      </c>
-      <c r="B1030" s="3" t="s">
-        <v>2262</v>
       </c>
       <c r="C1030" s="3" t="s">
         <v>1301</v>
@@ -39829,11 +39848,11 @@
         <v>1296</v>
       </c>
       <c r="G1030" s="3" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="H1030" s="3"/>
       <c r="I1030" s="3" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="J1030" s="4" t="s">
         <v>6</v>
@@ -39846,10 +39865,10 @@
     </row>
     <row r="1031" spans="1:13">
       <c r="A1031" s="2" t="s">
+        <v>2262</v>
+      </c>
+      <c r="B1031" s="3" t="s">
         <v>2263</v>
-      </c>
-      <c r="B1031" s="3" t="s">
-        <v>2264</v>
       </c>
       <c r="C1031" s="3" t="s">
         <v>1328</v>
@@ -39860,11 +39879,11 @@
         <v>1296</v>
       </c>
       <c r="G1031" s="3" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="H1031" s="3"/>
       <c r="I1031" s="3" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="J1031" s="4" t="s">
         <v>6</v>
@@ -39877,13 +39896,13 @@
     </row>
     <row r="1032" spans="1:13">
       <c r="A1032" s="2" t="s">
+        <v>2264</v>
+      </c>
+      <c r="B1032" s="3" t="s">
         <v>2265</v>
       </c>
-      <c r="B1032" s="3" t="s">
-        <v>2266</v>
-      </c>
       <c r="C1032" s="3" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D1032" s="3"/>
       <c r="E1032" s="3"/>
@@ -39891,11 +39910,11 @@
         <v>1296</v>
       </c>
       <c r="G1032" s="3" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="H1032" s="3"/>
       <c r="I1032" s="3" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="J1032" s="4" t="s">
         <v>6</v>
@@ -39908,13 +39927,13 @@
     </row>
     <row r="1033" spans="1:13">
       <c r="A1033" s="2" t="s">
+        <v>2268</v>
+      </c>
+      <c r="B1033" s="3" t="s">
         <v>2269</v>
       </c>
-      <c r="B1033" s="3" t="s">
-        <v>2270</v>
-      </c>
       <c r="C1033" s="3" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D1033" s="3"/>
       <c r="E1033" s="3"/>
@@ -39922,11 +39941,11 @@
         <v>1296</v>
       </c>
       <c r="G1033" s="3" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="H1033" s="3"/>
       <c r="I1033" s="3" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="J1033" s="4" t="s">
         <v>6</v>
@@ -39939,10 +39958,10 @@
     </row>
     <row r="1034" spans="1:13">
       <c r="A1034" s="2" t="s">
+        <v>2271</v>
+      </c>
+      <c r="B1034" s="3" t="s">
         <v>2272</v>
-      </c>
-      <c r="B1034" s="3" t="s">
-        <v>2273</v>
       </c>
       <c r="C1034" s="3" t="s">
         <v>1301</v>
@@ -39953,11 +39972,11 @@
         <v>1296</v>
       </c>
       <c r="G1034" s="3" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="H1034" s="3"/>
       <c r="I1034" s="3" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="J1034" s="4" t="s">
         <v>6</v>
@@ -39970,10 +39989,10 @@
     </row>
     <row r="1035" spans="1:13">
       <c r="A1035" s="2" t="s">
+        <v>2273</v>
+      </c>
+      <c r="B1035" s="3" t="s">
         <v>2274</v>
-      </c>
-      <c r="B1035" s="3" t="s">
-        <v>2275</v>
       </c>
       <c r="C1035" s="3" t="s">
         <v>1301</v>
@@ -39984,11 +40003,11 @@
         <v>1296</v>
       </c>
       <c r="G1035" s="3" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="H1035" s="3"/>
       <c r="I1035" s="3" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="J1035" s="4" t="s">
         <v>6</v>
@@ -40001,13 +40020,13 @@
     </row>
     <row r="1036" spans="1:13">
       <c r="A1036" s="2" t="s">
+        <v>2275</v>
+      </c>
+      <c r="B1036" s="3" t="s">
         <v>2276</v>
       </c>
-      <c r="B1036" s="3" t="s">
-        <v>2277</v>
-      </c>
       <c r="C1036" s="3" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D1036" s="3"/>
       <c r="E1036" s="3"/>
@@ -40015,11 +40034,11 @@
         <v>1296</v>
       </c>
       <c r="G1036" s="3" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="H1036" s="3"/>
       <c r="I1036" s="3" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="J1036" s="4" t="s">
         <v>6</v>
@@ -40032,13 +40051,13 @@
     </row>
     <row r="1037" spans="1:13">
       <c r="A1037" s="2" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B1037" s="3" t="s">
         <v>2280</v>
       </c>
-      <c r="B1037" s="3" t="s">
-        <v>2281</v>
-      </c>
       <c r="C1037" s="3" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D1037" s="3"/>
       <c r="E1037" s="3"/>
@@ -40046,11 +40065,11 @@
         <v>1296</v>
       </c>
       <c r="G1037" s="3" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="H1037" s="3"/>
       <c r="I1037" s="3" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="J1037" s="4" t="s">
         <v>6</v>
@@ -40063,10 +40082,10 @@
     </row>
     <row r="1038" spans="1:13">
       <c r="A1038" s="2" t="s">
+        <v>2281</v>
+      </c>
+      <c r="B1038" s="3" t="s">
         <v>2282</v>
-      </c>
-      <c r="B1038" s="3" t="s">
-        <v>2283</v>
       </c>
       <c r="C1038" s="3" t="s">
         <v>1301</v>
@@ -40077,11 +40096,11 @@
         <v>1296</v>
       </c>
       <c r="G1038" s="3" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="H1038" s="3"/>
       <c r="I1038" s="3" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="J1038" s="4" t="s">
         <v>6</v>
@@ -40094,10 +40113,10 @@
     </row>
     <row r="1039" spans="1:13">
       <c r="A1039" s="2" t="s">
+        <v>2283</v>
+      </c>
+      <c r="B1039" s="3" t="s">
         <v>2284</v>
-      </c>
-      <c r="B1039" s="3" t="s">
-        <v>2285</v>
       </c>
       <c r="C1039" s="3" t="s">
         <v>1301</v>
@@ -40108,11 +40127,11 @@
         <v>1296</v>
       </c>
       <c r="G1039" s="3" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="H1039" s="3"/>
       <c r="I1039" s="3" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="J1039" s="4" t="s">
         <v>6</v>
@@ -40125,13 +40144,13 @@
     </row>
     <row r="1040" spans="1:13">
       <c r="A1040" s="2" t="s">
+        <v>2285</v>
+      </c>
+      <c r="B1040" s="3" t="s">
         <v>2286</v>
       </c>
-      <c r="B1040" s="3" t="s">
-        <v>2287</v>
-      </c>
       <c r="C1040" s="3" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D1040" s="3"/>
       <c r="E1040" s="3"/>
@@ -40139,11 +40158,11 @@
         <v>1296</v>
       </c>
       <c r="G1040" s="3" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="H1040" s="3"/>
       <c r="I1040" s="3" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="J1040" s="4" t="s">
         <v>6</v>
@@ -40156,13 +40175,13 @@
     </row>
     <row r="1041" spans="1:13">
       <c r="A1041" s="2" t="s">
+        <v>2288</v>
+      </c>
+      <c r="B1041" s="3" t="s">
         <v>2289</v>
       </c>
-      <c r="B1041" s="3" t="s">
-        <v>2290</v>
-      </c>
       <c r="C1041" s="3" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D1041" s="3"/>
       <c r="E1041" s="3"/>
@@ -40170,11 +40189,11 @@
         <v>1296</v>
       </c>
       <c r="G1041" s="3" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="H1041" s="3"/>
       <c r="I1041" s="3" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="J1041" s="4" t="s">
         <v>6</v>
@@ -40187,10 +40206,10 @@
     </row>
     <row r="1042" spans="1:13">
       <c r="A1042" s="2" t="s">
+        <v>2290</v>
+      </c>
+      <c r="B1042" s="3" t="s">
         <v>2291</v>
-      </c>
-      <c r="B1042" s="3" t="s">
-        <v>2292</v>
       </c>
       <c r="C1042" s="3" t="s">
         <v>1301</v>
@@ -40201,11 +40220,11 @@
         <v>1296</v>
       </c>
       <c r="G1042" s="3" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="H1042" s="3"/>
       <c r="I1042" s="3" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="J1042" s="4" t="s">
         <v>6</v>
@@ -40218,10 +40237,10 @@
     </row>
     <row r="1043" spans="1:13">
       <c r="A1043" s="2" t="s">
+        <v>2292</v>
+      </c>
+      <c r="B1043" s="3" t="s">
         <v>2293</v>
-      </c>
-      <c r="B1043" s="3" t="s">
-        <v>2294</v>
       </c>
       <c r="C1043" s="3" t="s">
         <v>1301</v>
@@ -40232,11 +40251,11 @@
         <v>1296</v>
       </c>
       <c r="G1043" s="3" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="H1043" s="3"/>
       <c r="I1043" s="3" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="J1043" s="4" t="s">
         <v>6</v>
@@ -40249,13 +40268,13 @@
     </row>
     <row r="1044" spans="1:13">
       <c r="A1044" s="2" t="s">
+        <v>2294</v>
+      </c>
+      <c r="B1044" s="3" t="s">
         <v>2295</v>
       </c>
-      <c r="B1044" s="3" t="s">
-        <v>2296</v>
-      </c>
       <c r="C1044" s="3" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D1044" s="3"/>
       <c r="E1044" s="3"/>
@@ -40263,11 +40282,11 @@
         <v>1296</v>
       </c>
       <c r="G1044" s="3" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="H1044" s="3"/>
       <c r="I1044" s="3" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="J1044" s="4" t="s">
         <v>6</v>
@@ -40280,10 +40299,10 @@
     </row>
     <row r="1045" spans="1:13">
       <c r="A1045" s="2" t="s">
+        <v>2296</v>
+      </c>
+      <c r="B1045" s="3" t="s">
         <v>2297</v>
-      </c>
-      <c r="B1045" s="3" t="s">
-        <v>2298</v>
       </c>
       <c r="C1045" s="3" t="s">
         <v>1301</v>
@@ -40294,11 +40313,11 @@
         <v>1296</v>
       </c>
       <c r="G1045" s="3" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="H1045" s="3"/>
       <c r="I1045" s="3" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="J1045" s="4" t="s">
         <v>6</v>
@@ -40311,10 +40330,10 @@
     </row>
     <row r="1046" spans="1:13">
       <c r="A1046" s="2" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B1046" s="3" t="s">
         <v>2299</v>
-      </c>
-      <c r="B1046" s="3" t="s">
-        <v>2300</v>
       </c>
       <c r="C1046" s="3" t="s">
         <v>1328</v>
@@ -40325,11 +40344,11 @@
         <v>1296</v>
       </c>
       <c r="G1046" s="3" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="H1046" s="3"/>
       <c r="I1046" s="3" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="J1046" s="4" t="s">
         <v>6</v>
@@ -40342,13 +40361,13 @@
     </row>
     <row r="1047" spans="1:13">
       <c r="A1047" s="2" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B1047" s="3" t="s">
         <v>2301</v>
       </c>
-      <c r="B1047" s="3" t="s">
-        <v>2302</v>
-      </c>
       <c r="C1047" s="3" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D1047" s="3"/>
       <c r="E1047" s="3"/>
@@ -40356,11 +40375,11 @@
         <v>1296</v>
       </c>
       <c r="G1047" s="3" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="H1047" s="3"/>
       <c r="I1047" s="3" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="J1047" s="4" t="s">
         <v>6</v>
@@ -40373,10 +40392,10 @@
     </row>
     <row r="1048" spans="1:13">
       <c r="A1048" s="2" t="s">
+        <v>2302</v>
+      </c>
+      <c r="B1048" s="3" t="s">
         <v>2303</v>
-      </c>
-      <c r="B1048" s="3" t="s">
-        <v>2304</v>
       </c>
       <c r="C1048" s="3" t="s">
         <v>1301</v>
@@ -40387,11 +40406,11 @@
         <v>1296</v>
       </c>
       <c r="G1048" s="3" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="H1048" s="3"/>
       <c r="I1048" s="3" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="J1048" s="4" t="s">
         <v>6</v>
@@ -40404,10 +40423,10 @@
     </row>
     <row r="1049" spans="1:13">
       <c r="A1049" s="2" t="s">
+        <v>2304</v>
+      </c>
+      <c r="B1049" s="3" t="s">
         <v>2305</v>
-      </c>
-      <c r="B1049" s="3" t="s">
-        <v>2306</v>
       </c>
       <c r="C1049" s="3" t="s">
         <v>1328</v>
@@ -40418,11 +40437,11 @@
         <v>1296</v>
       </c>
       <c r="G1049" s="3" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="H1049" s="3"/>
       <c r="I1049" s="3" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="J1049" s="4" t="s">
         <v>6</v>
@@ -40435,13 +40454,13 @@
     </row>
     <row r="1050" spans="1:13">
       <c r="A1050" s="2" t="s">
+        <v>2306</v>
+      </c>
+      <c r="B1050" s="3" t="s">
         <v>2307</v>
       </c>
-      <c r="B1050" s="3" t="s">
-        <v>2308</v>
-      </c>
       <c r="C1050" s="3" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D1050" s="3"/>
       <c r="E1050" s="3"/>
@@ -40449,11 +40468,11 @@
         <v>1296</v>
       </c>
       <c r="G1050" s="3" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="H1050" s="3"/>
       <c r="I1050" s="3" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="J1050" s="4" t="s">
         <v>6</v>
@@ -40466,10 +40485,10 @@
     </row>
     <row r="1051" spans="1:13">
       <c r="A1051" s="2" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B1051" s="3" t="s">
         <v>2309</v>
-      </c>
-      <c r="B1051" s="3" t="s">
-        <v>2310</v>
       </c>
       <c r="C1051" s="3" t="s">
         <v>1301</v>
@@ -40480,11 +40499,11 @@
         <v>1296</v>
       </c>
       <c r="G1051" s="3" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="H1051" s="3"/>
       <c r="I1051" s="3" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="J1051" s="4" t="s">
         <v>6</v>
@@ -40497,17 +40516,17 @@
     </row>
     <row r="1052" spans="1:13">
       <c r="A1052" s="2" t="s">
+        <v>2310</v>
+      </c>
+      <c r="B1052" s="3" t="s">
         <v>2311</v>
       </c>
-      <c r="B1052" s="3" t="s">
-        <v>2312</v>
-      </c>
       <c r="C1052" s="3" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D1052" s="3"/>
       <c r="E1052" s="3" t="s">
-        <v>2469</v>
+        <v>2476</v>
       </c>
       <c r="F1052" s="3" t="s">
         <v>1296</v>
@@ -40515,7 +40534,7 @@
       <c r="G1052" s="3"/>
       <c r="H1052" s="3"/>
       <c r="I1052" s="3" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="J1052" s="4" t="s">
         <v>6</v>
@@ -40528,13 +40547,13 @@
     </row>
     <row r="1053" spans="1:13">
       <c r="A1053" s="2" t="s">
+        <v>2313</v>
+      </c>
+      <c r="B1053" s="3" t="s">
         <v>2314</v>
       </c>
-      <c r="B1053" s="3" t="s">
-        <v>2315</v>
-      </c>
       <c r="C1053" s="3" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D1053" s="3"/>
       <c r="E1053" s="3" t="s">
@@ -40546,7 +40565,7 @@
       <c r="G1053" s="3"/>
       <c r="H1053" s="3"/>
       <c r="I1053" s="3" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="J1053" s="4" t="s">
         <v>6</v>
@@ -40559,17 +40578,17 @@
     </row>
     <row r="1054" spans="1:13">
       <c r="A1054" s="2" t="s">
+        <v>2315</v>
+      </c>
+      <c r="B1054" s="3" t="s">
         <v>2316</v>
-      </c>
-      <c r="B1054" s="3" t="s">
-        <v>2317</v>
       </c>
       <c r="C1054" s="3" t="s">
         <v>1301</v>
       </c>
       <c r="D1054" s="3"/>
       <c r="E1054" s="3" t="s">
-        <v>2470</v>
+        <v>2477</v>
       </c>
       <c r="F1054" s="3" t="s">
         <v>1296</v>
@@ -40577,7 +40596,7 @@
       <c r="G1054" s="3"/>
       <c r="H1054" s="3"/>
       <c r="I1054" s="3" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="J1054" s="4" t="s">
         <v>6</v>
@@ -40590,10 +40609,10 @@
     </row>
     <row r="1055" spans="1:13">
       <c r="A1055" s="2" t="s">
+        <v>2317</v>
+      </c>
+      <c r="B1055" s="3" t="s">
         <v>2318</v>
-      </c>
-      <c r="B1055" s="3" t="s">
-        <v>2319</v>
       </c>
       <c r="C1055" s="3" t="s">
         <v>1301</v>
@@ -40608,7 +40627,7 @@
       <c r="G1055" s="3"/>
       <c r="H1055" s="3"/>
       <c r="I1055" s="3" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="J1055" s="4" t="s">
         <v>6</v>
@@ -40621,17 +40640,17 @@
     </row>
     <row r="1056" spans="1:13">
       <c r="A1056" s="2" t="s">
+        <v>2319</v>
+      </c>
+      <c r="B1056" s="3" t="s">
         <v>2320</v>
-      </c>
-      <c r="B1056" s="3" t="s">
-        <v>2321</v>
       </c>
       <c r="C1056" s="3" t="s">
         <v>1301</v>
       </c>
       <c r="D1056" s="3"/>
       <c r="E1056" s="3" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="F1056" s="3" t="s">
         <v>1296</v>
@@ -40639,7 +40658,7 @@
       <c r="G1056" s="3"/>
       <c r="H1056" s="3"/>
       <c r="I1056" s="3" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="J1056" s="4" t="s">
         <v>6</v>
@@ -40652,17 +40671,17 @@
     </row>
     <row r="1057" spans="1:13">
       <c r="A1057" s="2" t="s">
+        <v>2322</v>
+      </c>
+      <c r="B1057" s="3" t="s">
         <v>2323</v>
-      </c>
-      <c r="B1057" s="3" t="s">
-        <v>2324</v>
       </c>
       <c r="C1057" s="3" t="s">
         <v>1301</v>
       </c>
       <c r="D1057" s="3"/>
       <c r="E1057" s="3" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="F1057" s="3" t="s">
         <v>1296</v>
@@ -40670,7 +40689,7 @@
       <c r="G1057" s="3"/>
       <c r="H1057" s="3"/>
       <c r="I1057" s="3" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="J1057" s="4" t="s">
         <v>6</v>
@@ -40683,13 +40702,13 @@
     </row>
     <row r="1058" spans="1:13">
       <c r="A1058" s="2" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B1058" s="3" t="s">
         <v>2326</v>
       </c>
-      <c r="B1058" s="3" t="s">
-        <v>2327</v>
-      </c>
       <c r="C1058" s="3" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D1058" s="3"/>
       <c r="E1058" s="3" t="s">
@@ -40701,7 +40720,7 @@
       <c r="G1058" s="3"/>
       <c r="H1058" s="3"/>
       <c r="I1058" s="3" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="J1058" s="4" t="s">
         <v>6</v>
@@ -40714,13 +40733,13 @@
     </row>
     <row r="1059" spans="1:13">
       <c r="A1059" s="2" t="s">
+        <v>2327</v>
+      </c>
+      <c r="B1059" s="3" t="s">
         <v>2328</v>
       </c>
-      <c r="B1059" s="3" t="s">
-        <v>2329</v>
-      </c>
       <c r="C1059" s="3" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D1059" s="3"/>
       <c r="E1059" s="3" t="s">
@@ -40732,7 +40751,7 @@
       <c r="G1059" s="3"/>
       <c r="H1059" s="3"/>
       <c r="I1059" s="3" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="J1059" s="4" t="s">
         <v>6</v>
@@ -40745,17 +40764,17 @@
     </row>
     <row r="1060" spans="1:13">
       <c r="A1060" s="2" t="s">
+        <v>2329</v>
+      </c>
+      <c r="B1060" s="3" t="s">
         <v>2330</v>
       </c>
-      <c r="B1060" s="3" t="s">
-        <v>2331</v>
-      </c>
       <c r="C1060" s="3" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D1060" s="3"/>
       <c r="E1060" s="3" t="s">
-        <v>2470</v>
+        <v>2477</v>
       </c>
       <c r="F1060" s="3" t="s">
         <v>1296</v>
@@ -40763,7 +40782,7 @@
       <c r="G1060" s="3"/>
       <c r="H1060" s="3"/>
       <c r="I1060" s="3" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="J1060" s="4" t="s">
         <v>6</v>
@@ -40776,13 +40795,13 @@
     </row>
     <row r="1061" spans="1:13">
       <c r="A1061" s="2" t="s">
+        <v>2332</v>
+      </c>
+      <c r="B1061" s="3" t="s">
         <v>2333</v>
       </c>
-      <c r="B1061" s="3" t="s">
-        <v>2334</v>
-      </c>
       <c r="C1061" s="3" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D1061" s="3"/>
       <c r="E1061" s="3" t="s">
@@ -40794,7 +40813,7 @@
       <c r="G1061" s="3"/>
       <c r="H1061" s="3"/>
       <c r="I1061" s="3" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="J1061" s="4" t="s">
         <v>6</v>
@@ -40807,17 +40826,17 @@
     </row>
     <row r="1062" spans="1:13">
       <c r="A1062" s="2" t="s">
+        <v>2334</v>
+      </c>
+      <c r="B1062" s="3" t="s">
         <v>2335</v>
-      </c>
-      <c r="B1062" s="3" t="s">
-        <v>2336</v>
       </c>
       <c r="C1062" s="3" t="s">
         <v>1301</v>
       </c>
       <c r="D1062" s="3"/>
       <c r="E1062" s="3" t="s">
-        <v>2469</v>
+        <v>2478</v>
       </c>
       <c r="F1062" s="3" t="s">
         <v>1296</v>
@@ -40825,7 +40844,7 @@
       <c r="G1062" s="3"/>
       <c r="H1062" s="3"/>
       <c r="I1062" s="3" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="J1062" s="4" t="s">
         <v>6</v>
@@ -40838,10 +40857,10 @@
     </row>
     <row r="1063" spans="1:13">
       <c r="A1063" s="2" t="s">
+        <v>2336</v>
+      </c>
+      <c r="B1063" s="3" t="s">
         <v>2337</v>
-      </c>
-      <c r="B1063" s="3" t="s">
-        <v>2338</v>
       </c>
       <c r="C1063" s="3" t="s">
         <v>1301</v>
@@ -40856,7 +40875,7 @@
       <c r="G1063" s="3"/>
       <c r="H1063" s="3"/>
       <c r="I1063" s="3" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="J1063" s="4" t="s">
         <v>6</v>
@@ -40869,10 +40888,10 @@
     </row>
     <row r="1064" spans="1:13">
       <c r="A1064" s="2" t="s">
+        <v>2338</v>
+      </c>
+      <c r="B1064" s="3" t="s">
         <v>2339</v>
-      </c>
-      <c r="B1064" s="3" t="s">
-        <v>2340</v>
       </c>
       <c r="C1064" s="3" t="s">
         <v>1301</v>
@@ -40887,7 +40906,7 @@
       <c r="G1064" s="3"/>
       <c r="H1064" s="3"/>
       <c r="I1064" s="3" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="J1064" s="4" t="s">
         <v>6</v>
@@ -40900,10 +40919,10 @@
     </row>
     <row r="1065" spans="1:13">
       <c r="A1065" s="2" t="s">
+        <v>2340</v>
+      </c>
+      <c r="B1065" s="3" t="s">
         <v>2341</v>
-      </c>
-      <c r="B1065" s="3" t="s">
-        <v>2342</v>
       </c>
       <c r="C1065" s="3" t="s">
         <v>1301</v>
@@ -40918,7 +40937,7 @@
       <c r="G1065" s="3"/>
       <c r="H1065" s="3"/>
       <c r="I1065" s="3" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="J1065" s="4" t="s">
         <v>6</v>
@@ -40931,13 +40950,13 @@
     </row>
     <row r="1066" spans="1:13">
       <c r="A1066" s="2" t="s">
+        <v>2342</v>
+      </c>
+      <c r="B1066" s="3" t="s">
         <v>2343</v>
       </c>
-      <c r="B1066" s="3" t="s">
-        <v>2344</v>
-      </c>
       <c r="C1066" s="3" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D1066" s="3"/>
       <c r="E1066" s="3" t="s">
@@ -40949,7 +40968,7 @@
       <c r="G1066" s="3"/>
       <c r="H1066" s="3"/>
       <c r="I1066" s="3" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="J1066" s="4" t="s">
         <v>6</v>
@@ -40962,13 +40981,13 @@
     </row>
     <row r="1067" spans="1:13">
       <c r="A1067" s="2" t="s">
+        <v>2344</v>
+      </c>
+      <c r="B1067" s="3" t="s">
         <v>2345</v>
       </c>
-      <c r="B1067" s="3" t="s">
-        <v>2346</v>
-      </c>
       <c r="C1067" s="3" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D1067" s="3"/>
       <c r="E1067" s="3" t="s">
@@ -40980,7 +40999,7 @@
       <c r="G1067" s="3"/>
       <c r="H1067" s="3"/>
       <c r="I1067" s="3" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="J1067" s="4" t="s">
         <v>6</v>
@@ -40993,17 +41012,17 @@
     </row>
     <row r="1068" spans="1:13">
       <c r="A1068" s="2" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B1068" s="3" t="s">
         <v>2347</v>
       </c>
-      <c r="B1068" s="3" t="s">
-        <v>2348</v>
-      </c>
       <c r="C1068" s="3" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D1068" s="3"/>
       <c r="E1068" s="3" t="s">
-        <v>2467</v>
+        <v>2469</v>
       </c>
       <c r="F1068" s="3" t="s">
         <v>1296</v>
@@ -41011,7 +41030,7 @@
       <c r="G1068" s="3"/>
       <c r="H1068" s="3"/>
       <c r="I1068" s="3" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="J1068" s="4" t="s">
         <v>6</v>
@@ -41024,13 +41043,13 @@
     </row>
     <row r="1069" spans="1:13">
       <c r="A1069" s="2" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B1069" s="3" t="s">
         <v>2350</v>
       </c>
-      <c r="B1069" s="3" t="s">
-        <v>2351</v>
-      </c>
       <c r="C1069" s="3" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D1069" s="3"/>
       <c r="E1069" s="3" t="s">
@@ -41042,7 +41061,7 @@
       <c r="G1069" s="3"/>
       <c r="H1069" s="3"/>
       <c r="I1069" s="3" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="J1069" s="4" t="s">
         <v>6</v>
@@ -41055,17 +41074,17 @@
     </row>
     <row r="1070" spans="1:13">
       <c r="A1070" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B1070" s="3" t="s">
         <v>2352</v>
-      </c>
-      <c r="B1070" s="3" t="s">
-        <v>2353</v>
       </c>
       <c r="C1070" s="3" t="s">
         <v>1301</v>
       </c>
       <c r="D1070" s="3"/>
       <c r="E1070" s="3" t="s">
-        <v>2467</v>
+        <v>2469</v>
       </c>
       <c r="F1070" s="3" t="s">
         <v>1296</v>
@@ -41073,7 +41092,7 @@
       <c r="G1070" s="3"/>
       <c r="H1070" s="3"/>
       <c r="I1070" s="3" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="J1070" s="4" t="s">
         <v>6</v>
@@ -41086,10 +41105,10 @@
     </row>
     <row r="1071" spans="1:13">
       <c r="A1071" s="2" t="s">
+        <v>2353</v>
+      </c>
+      <c r="B1071" s="3" t="s">
         <v>2354</v>
-      </c>
-      <c r="B1071" s="3" t="s">
-        <v>2355</v>
       </c>
       <c r="C1071" s="3" t="s">
         <v>1301</v>
@@ -41104,7 +41123,7 @@
       <c r="G1071" s="3"/>
       <c r="H1071" s="3"/>
       <c r="I1071" s="3" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="J1071" s="4" t="s">
         <v>6</v>
@@ -41117,17 +41136,17 @@
     </row>
     <row r="1072" spans="1:13">
       <c r="A1072" s="2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="B1072" s="3" t="s">
         <v>2356</v>
-      </c>
-      <c r="B1072" s="3" t="s">
-        <v>2357</v>
       </c>
       <c r="C1072" s="3" t="s">
         <v>1301</v>
       </c>
       <c r="D1072" s="3"/>
       <c r="E1072" s="3" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="F1072" s="3" t="s">
         <v>1296</v>
@@ -41135,7 +41154,7 @@
       <c r="G1072" s="3"/>
       <c r="H1072" s="3"/>
       <c r="I1072" s="3" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="J1072" s="4" t="s">
         <v>6</v>
@@ -41148,17 +41167,17 @@
     </row>
     <row r="1073" spans="1:13">
       <c r="A1073" s="2" t="s">
+        <v>2358</v>
+      </c>
+      <c r="B1073" s="3" t="s">
         <v>2359</v>
-      </c>
-      <c r="B1073" s="3" t="s">
-        <v>2360</v>
       </c>
       <c r="C1073" s="3" t="s">
         <v>1301</v>
       </c>
       <c r="D1073" s="3"/>
       <c r="E1073" s="3" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="F1073" s="3" t="s">
         <v>1296</v>
@@ -41166,7 +41185,7 @@
       <c r="G1073" s="3"/>
       <c r="H1073" s="3"/>
       <c r="I1073" s="3" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="J1073" s="4" t="s">
         <v>6</v>
@@ -41179,17 +41198,17 @@
     </row>
     <row r="1074" spans="1:13">
       <c r="A1074" s="2" t="s">
+        <v>2361</v>
+      </c>
+      <c r="B1074" s="3" t="s">
         <v>2362</v>
       </c>
-      <c r="B1074" s="3" t="s">
-        <v>2363</v>
-      </c>
       <c r="C1074" s="3" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D1074" s="3"/>
       <c r="E1074" s="3" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="F1074" s="3" t="s">
         <v>1296</v>
@@ -41197,7 +41216,7 @@
       <c r="G1074" s="3"/>
       <c r="H1074" s="3"/>
       <c r="I1074" s="3" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="J1074" s="4" t="s">
         <v>6</v>
@@ -41210,17 +41229,17 @@
     </row>
     <row r="1075" spans="1:13">
       <c r="A1075" s="2" t="s">
+        <v>2363</v>
+      </c>
+      <c r="B1075" s="3" t="s">
         <v>2364</v>
       </c>
-      <c r="B1075" s="3" t="s">
-        <v>2365</v>
-      </c>
       <c r="C1075" s="3" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D1075" s="3"/>
       <c r="E1075" s="3" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="F1075" s="3" t="s">
         <v>1296</v>
@@ -41228,7 +41247,7 @@
       <c r="G1075" s="3"/>
       <c r="H1075" s="3"/>
       <c r="I1075" s="3" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="J1075" s="4" t="s">
         <v>6</v>
@@ -41241,17 +41260,17 @@
     </row>
     <row r="1076" spans="1:13">
       <c r="A1076" s="2" t="s">
+        <v>2366</v>
+      </c>
+      <c r="B1076" s="3" t="s">
         <v>2367</v>
       </c>
-      <c r="B1076" s="3" t="s">
-        <v>2368</v>
-      </c>
       <c r="C1076" s="3" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D1076" s="3"/>
       <c r="E1076" s="3" t="s">
-        <v>2467</v>
+        <v>2469</v>
       </c>
       <c r="F1076" s="3" t="s">
         <v>1296</v>
@@ -41259,7 +41278,7 @@
       <c r="G1076" s="3"/>
       <c r="H1076" s="3"/>
       <c r="I1076" s="3" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="J1076" s="4" t="s">
         <v>6</v>
@@ -41272,13 +41291,13 @@
     </row>
     <row r="1077" spans="1:13">
       <c r="A1077" s="2" t="s">
+        <v>2368</v>
+      </c>
+      <c r="B1077" s="3" t="s">
         <v>2369</v>
       </c>
-      <c r="B1077" s="3" t="s">
-        <v>2370</v>
-      </c>
       <c r="C1077" s="3" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D1077" s="3"/>
       <c r="E1077" s="3" t="s">
@@ -41290,7 +41309,7 @@
       <c r="G1077" s="3"/>
       <c r="H1077" s="3"/>
       <c r="I1077" s="3" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="J1077" s="4" t="s">
         <v>6</v>
@@ -41303,17 +41322,17 @@
     </row>
     <row r="1078" spans="1:13">
       <c r="A1078" s="2" t="s">
+        <v>2370</v>
+      </c>
+      <c r="B1078" s="3" t="s">
         <v>2371</v>
-      </c>
-      <c r="B1078" s="3" t="s">
-        <v>2372</v>
       </c>
       <c r="C1078" s="3" t="s">
         <v>1301</v>
       </c>
       <c r="D1078" s="3"/>
       <c r="E1078" s="3" t="s">
-        <v>2467</v>
+        <v>2469</v>
       </c>
       <c r="F1078" s="3" t="s">
         <v>1296</v>
@@ -41321,7 +41340,7 @@
       <c r="G1078" s="3"/>
       <c r="H1078" s="3"/>
       <c r="I1078" s="3" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="J1078" s="4" t="s">
         <v>6</v>
@@ -41334,10 +41353,10 @@
     </row>
     <row r="1079" spans="1:13">
       <c r="A1079" s="2" t="s">
+        <v>2372</v>
+      </c>
+      <c r="B1079" s="3" t="s">
         <v>2373</v>
-      </c>
-      <c r="B1079" s="3" t="s">
-        <v>2374</v>
       </c>
       <c r="C1079" s="3" t="s">
         <v>1301</v>
@@ -41352,7 +41371,7 @@
       <c r="G1079" s="3"/>
       <c r="H1079" s="3"/>
       <c r="I1079" s="3" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="J1079" s="4" t="s">
         <v>6</v>
@@ -41365,17 +41384,17 @@
     </row>
     <row r="1080" spans="1:13">
       <c r="A1080" s="2" t="s">
+        <v>2374</v>
+      </c>
+      <c r="B1080" s="3" t="s">
         <v>2375</v>
-      </c>
-      <c r="B1080" s="3" t="s">
-        <v>2376</v>
       </c>
       <c r="C1080" s="3" t="s">
         <v>1301</v>
       </c>
       <c r="D1080" s="3"/>
       <c r="E1080" s="3" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="F1080" s="3" t="s">
         <v>1296</v>
@@ -41383,7 +41402,7 @@
       <c r="G1080" s="3"/>
       <c r="H1080" s="3"/>
       <c r="I1080" s="3" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="J1080" s="4" t="s">
         <v>6</v>
@@ -41396,17 +41415,17 @@
     </row>
     <row r="1081" spans="1:13">
       <c r="A1081" s="2" t="s">
+        <v>2376</v>
+      </c>
+      <c r="B1081" s="3" t="s">
         <v>2377</v>
-      </c>
-      <c r="B1081" s="3" t="s">
-        <v>2378</v>
       </c>
       <c r="C1081" s="3" t="s">
         <v>1301</v>
       </c>
       <c r="D1081" s="3"/>
       <c r="E1081" s="3" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="F1081" s="3" t="s">
         <v>1296</v>
@@ -41414,7 +41433,7 @@
       <c r="G1081" s="3"/>
       <c r="H1081" s="3"/>
       <c r="I1081" s="3" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="J1081" s="4" t="s">
         <v>6</v>
@@ -41427,17 +41446,17 @@
     </row>
     <row r="1082" spans="1:13">
       <c r="A1082" s="2" t="s">
+        <v>2378</v>
+      </c>
+      <c r="B1082" s="3" t="s">
         <v>2379</v>
       </c>
-      <c r="B1082" s="3" t="s">
-        <v>2380</v>
-      </c>
       <c r="C1082" s="3" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D1082" s="3"/>
       <c r="E1082" s="3" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="F1082" s="3" t="s">
         <v>1296</v>
@@ -41445,7 +41464,7 @@
       <c r="G1082" s="3"/>
       <c r="H1082" s="3"/>
       <c r="I1082" s="3" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="J1082" s="4" t="s">
         <v>6</v>
@@ -41458,17 +41477,17 @@
     </row>
     <row r="1083" spans="1:13">
       <c r="A1083" s="2" t="s">
+        <v>2381</v>
+      </c>
+      <c r="B1083" s="3" t="s">
         <v>2382</v>
       </c>
-      <c r="B1083" s="3" t="s">
-        <v>2383</v>
-      </c>
       <c r="C1083" s="3" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D1083" s="3"/>
       <c r="E1083" s="3" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="F1083" s="3" t="s">
         <v>1296</v>
@@ -41476,7 +41495,7 @@
       <c r="G1083" s="3"/>
       <c r="H1083" s="3"/>
       <c r="I1083" s="3" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="J1083" s="4" t="s">
         <v>6</v>
@@ -41489,10 +41508,10 @@
     </row>
     <row r="1084" spans="1:13">
       <c r="A1084" s="2" t="s">
+        <v>2384</v>
+      </c>
+      <c r="B1084" s="3" t="s">
         <v>2385</v>
-      </c>
-      <c r="B1084" s="3" t="s">
-        <v>2386</v>
       </c>
       <c r="C1084" s="3"/>
       <c r="D1084" s="3"/>
@@ -41503,7 +41522,7 @@
       <c r="G1084" s="3"/>
       <c r="H1084" s="3"/>
       <c r="I1084" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="J1084" s="4" t="s">
         <v>6</v>
@@ -41516,10 +41535,10 @@
     </row>
     <row r="1085" spans="1:13">
       <c r="A1085" s="2" t="s">
+        <v>2387</v>
+      </c>
+      <c r="B1085" s="3" t="s">
         <v>2388</v>
-      </c>
-      <c r="B1085" s="3" t="s">
-        <v>2389</v>
       </c>
       <c r="C1085" s="3"/>
       <c r="D1085" s="3" t="s">
@@ -41532,7 +41551,7 @@
       <c r="G1085" s="3"/>
       <c r="H1085" s="3"/>
       <c r="I1085" s="3" t="s">
-        <v>2471</v>
+        <v>2461</v>
       </c>
       <c r="J1085" s="4" t="s">
         <v>6</v>
@@ -41545,10 +41564,10 @@
     </row>
     <row r="1086" spans="1:13">
       <c r="A1086" s="2" t="s">
+        <v>2390</v>
+      </c>
+      <c r="B1086" s="3" t="s">
         <v>2391</v>
-      </c>
-      <c r="B1086" s="3" t="s">
-        <v>2392</v>
       </c>
       <c r="C1086" s="3"/>
       <c r="D1086" s="3" t="s">
@@ -41561,7 +41580,7 @@
       <c r="G1086" s="3"/>
       <c r="H1086" s="3"/>
       <c r="I1086" s="3" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="J1086" s="4" t="s">
         <v>6</v>
@@ -41574,10 +41593,10 @@
     </row>
     <row r="1087" spans="1:13">
       <c r="A1087" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="B1087" s="3" t="s">
         <v>2394</v>
-      </c>
-      <c r="B1087" s="3" t="s">
-        <v>2395</v>
       </c>
       <c r="C1087" s="3"/>
       <c r="D1087" s="3" t="s">
@@ -41590,7 +41609,7 @@
       <c r="G1087" s="3"/>
       <c r="H1087" s="3"/>
       <c r="I1087" s="3" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="J1087" s="4" t="s">
         <v>6</v>
@@ -41603,17 +41622,17 @@
     </row>
     <row r="1088" spans="1:13">
       <c r="A1088" s="2" t="s">
+        <v>2395</v>
+      </c>
+      <c r="B1088" s="3" t="s">
         <v>2396</v>
       </c>
-      <c r="B1088" s="3" t="s">
+      <c r="C1088" s="3" t="s">
         <v>2397</v>
-      </c>
-      <c r="C1088" s="3" t="s">
-        <v>2398</v>
       </c>
       <c r="D1088" s="3"/>
       <c r="E1088" s="3" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="F1088" s="3" t="s">
         <v>1296</v>
@@ -41621,7 +41640,7 @@
       <c r="G1088" s="3"/>
       <c r="H1088" s="3"/>
       <c r="I1088" s="3" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="J1088" s="4" t="s">
         <v>6</v>
@@ -41634,17 +41653,17 @@
     </row>
     <row r="1089" spans="1:13">
       <c r="A1089" s="2" t="s">
+        <v>2400</v>
+      </c>
+      <c r="B1089" s="3" t="s">
         <v>2401</v>
-      </c>
-      <c r="B1089" s="3" t="s">
-        <v>2402</v>
       </c>
       <c r="C1089" s="3" t="s">
         <v>549</v>
       </c>
       <c r="D1089" s="3"/>
       <c r="E1089" s="3" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="F1089" s="3" t="s">
         <v>1296</v>
@@ -41652,7 +41671,7 @@
       <c r="G1089" s="3"/>
       <c r="H1089" s="3"/>
       <c r="I1089" s="3" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="J1089" s="4" t="s">
         <v>6</v>
@@ -41665,13 +41684,13 @@
     </row>
     <row r="1090" spans="1:13">
       <c r="A1090" s="2" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B1090" s="3" t="s">
         <v>2403</v>
       </c>
-      <c r="B1090" s="3" t="s">
-        <v>2404</v>
-      </c>
       <c r="C1090" s="3" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="D1090" s="3"/>
       <c r="E1090" s="3" t="s">
@@ -41683,7 +41702,7 @@
       <c r="G1090" s="3"/>
       <c r="H1090" s="3"/>
       <c r="I1090" s="3" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="J1090" s="4" t="s">
         <v>6</v>
@@ -41696,10 +41715,10 @@
     </row>
     <row r="1091" spans="1:13">
       <c r="A1091" s="2" t="s">
+        <v>2404</v>
+      </c>
+      <c r="B1091" s="3" t="s">
         <v>2405</v>
-      </c>
-      <c r="B1091" s="3" t="s">
-        <v>2406</v>
       </c>
       <c r="C1091" s="3" t="s">
         <v>549</v>
@@ -41714,7 +41733,7 @@
       <c r="G1091" s="3"/>
       <c r="H1091" s="3"/>
       <c r="I1091" s="3" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="J1091" s="4" t="s">
         <v>6</v>
@@ -41727,13 +41746,13 @@
     </row>
     <row r="1092" spans="1:13">
       <c r="A1092" s="2" t="s">
+        <v>2406</v>
+      </c>
+      <c r="B1092" s="3" t="s">
         <v>2407</v>
       </c>
-      <c r="B1092" s="3" t="s">
-        <v>2408</v>
-      </c>
       <c r="C1092" s="3" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="D1092" s="3"/>
       <c r="E1092" s="3" t="s">
@@ -41745,7 +41764,7 @@
       <c r="G1092" s="3"/>
       <c r="H1092" s="3"/>
       <c r="I1092" s="3" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="J1092" s="4" t="s">
         <v>6</v>
@@ -41758,10 +41777,10 @@
     </row>
     <row r="1093" spans="1:13">
       <c r="A1093" s="2" t="s">
+        <v>2409</v>
+      </c>
+      <c r="B1093" s="3" t="s">
         <v>2410</v>
-      </c>
-      <c r="B1093" s="3" t="s">
-        <v>2411</v>
       </c>
       <c r="C1093" s="3" t="s">
         <v>549</v>
@@ -41776,7 +41795,7 @@
       <c r="G1093" s="3"/>
       <c r="H1093" s="3"/>
       <c r="I1093" s="3" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="J1093" s="4" t="s">
         <v>6</v>
@@ -41789,17 +41808,17 @@
     </row>
     <row r="1094" spans="1:13">
       <c r="A1094" s="2" t="s">
+        <v>2411</v>
+      </c>
+      <c r="B1094" s="3" t="s">
         <v>2412</v>
       </c>
-      <c r="B1094" s="3" t="s">
-        <v>2413</v>
-      </c>
       <c r="C1094" s="3" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="D1094" s="3"/>
       <c r="E1094" s="3" t="s">
-        <v>2470</v>
+        <v>2477</v>
       </c>
       <c r="F1094" s="3" t="s">
         <v>1296</v>
@@ -41807,7 +41826,7 @@
       <c r="G1094" s="3"/>
       <c r="H1094" s="3"/>
       <c r="I1094" s="3" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="J1094" s="4" t="s">
         <v>6</v>
@@ -41820,17 +41839,17 @@
     </row>
     <row r="1095" spans="1:13">
       <c r="A1095" s="2" t="s">
+        <v>2413</v>
+      </c>
+      <c r="B1095" s="3" t="s">
         <v>2414</v>
-      </c>
-      <c r="B1095" s="3" t="s">
-        <v>2415</v>
       </c>
       <c r="C1095" s="3" t="s">
         <v>549</v>
       </c>
       <c r="D1095" s="3"/>
       <c r="E1095" s="3" t="s">
-        <v>2470</v>
+        <v>2477</v>
       </c>
       <c r="F1095" s="3" t="s">
         <v>1296</v>
@@ -41838,7 +41857,7 @@
       <c r="G1095" s="3"/>
       <c r="H1095" s="3"/>
       <c r="I1095" s="3" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="J1095" s="4" t="s">
         <v>6</v>
@@ -41851,13 +41870,13 @@
     </row>
     <row r="1096" spans="1:13">
       <c r="A1096" s="2" t="s">
+        <v>2415</v>
+      </c>
+      <c r="B1096" s="3" t="s">
         <v>2416</v>
       </c>
-      <c r="B1096" s="3" t="s">
-        <v>2417</v>
-      </c>
       <c r="C1096" s="3" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="D1096" s="3"/>
       <c r="E1096" s="3" t="s">
@@ -41869,7 +41888,7 @@
       <c r="G1096" s="3"/>
       <c r="H1096" s="3"/>
       <c r="I1096" s="3" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="J1096" s="4" t="s">
         <v>6</v>
@@ -41882,10 +41901,10 @@
     </row>
     <row r="1097" spans="1:13">
       <c r="A1097" s="2" t="s">
+        <v>2418</v>
+      </c>
+      <c r="B1097" s="3" t="s">
         <v>2419</v>
-      </c>
-      <c r="B1097" s="3" t="s">
-        <v>2420</v>
       </c>
       <c r="C1097" s="3" t="s">
         <v>549</v>
@@ -41900,7 +41919,7 @@
       <c r="G1097" s="3"/>
       <c r="H1097" s="3"/>
       <c r="I1097" s="3" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="J1097" s="4" t="s">
         <v>6</v>
@@ -41913,13 +41932,13 @@
     </row>
     <row r="1098" spans="1:13">
       <c r="A1098" s="2" t="s">
+        <v>2420</v>
+      </c>
+      <c r="B1098" s="3" t="s">
         <v>2421</v>
       </c>
-      <c r="B1098" s="3" t="s">
-        <v>2422</v>
-      </c>
       <c r="C1098" s="3" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="D1098" s="3"/>
       <c r="E1098" s="3" t="s">
@@ -41931,7 +41950,7 @@
       <c r="G1098" s="3"/>
       <c r="H1098" s="3"/>
       <c r="I1098" s="3" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="J1098" s="4" t="s">
         <v>6</v>
@@ -41944,10 +41963,10 @@
     </row>
     <row r="1099" spans="1:13">
       <c r="A1099" s="2" t="s">
+        <v>2422</v>
+      </c>
+      <c r="B1099" s="3" t="s">
         <v>2423</v>
-      </c>
-      <c r="B1099" s="3" t="s">
-        <v>2424</v>
       </c>
       <c r="C1099" s="3" t="s">
         <v>549</v>
@@ -41962,7 +41981,7 @@
       <c r="G1099" s="3"/>
       <c r="H1099" s="3"/>
       <c r="I1099" s="3" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="J1099" s="4" t="s">
         <v>6</v>
@@ -41975,13 +41994,13 @@
     </row>
     <row r="1100" spans="1:13">
       <c r="A1100" s="2" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B1100" s="3" t="s">
         <v>2425</v>
       </c>
-      <c r="B1100" s="3" t="s">
+      <c r="C1100" s="3" t="s">
         <v>2426</v>
-      </c>
-      <c r="C1100" s="3" t="s">
-        <v>2427</v>
       </c>
       <c r="D1100" s="3"/>
       <c r="E1100" s="3"/>
@@ -41991,7 +42010,7 @@
       <c r="G1100" s="3"/>
       <c r="H1100" s="3"/>
       <c r="I1100" s="3" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="J1100" s="4" t="s">
         <v>6</v>
@@ -42004,13 +42023,13 @@
     </row>
     <row r="1101" spans="1:13">
       <c r="A1101" s="2" t="s">
+        <v>2428</v>
+      </c>
+      <c r="B1101" s="3" t="s">
         <v>2429</v>
       </c>
-      <c r="B1101" s="3" t="s">
+      <c r="C1101" s="3" t="s">
         <v>2430</v>
-      </c>
-      <c r="C1101" s="3" t="s">
-        <v>2431</v>
       </c>
       <c r="D1101" s="3"/>
       <c r="E1101" s="3"/>
@@ -42020,7 +42039,7 @@
       <c r="G1101" s="3"/>
       <c r="H1101" s="3"/>
       <c r="I1101" s="3" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="J1101" s="4" t="s">
         <v>6</v>
@@ -42033,13 +42052,13 @@
     </row>
     <row r="1102" spans="1:13">
       <c r="A1102" s="2" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B1102" s="3" t="s">
         <v>2432</v>
       </c>
-      <c r="B1102" s="3" t="s">
-        <v>2433</v>
-      </c>
       <c r="C1102" s="3" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="D1102" s="3"/>
       <c r="E1102" s="3"/>
@@ -42049,7 +42068,7 @@
       <c r="G1102" s="3"/>
       <c r="H1102" s="3"/>
       <c r="I1102" s="3" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="J1102" s="4" t="s">
         <v>6</v>
@@ -42062,13 +42081,13 @@
     </row>
     <row r="1103" spans="1:13">
       <c r="A1103" s="2" t="s">
+        <v>2434</v>
+      </c>
+      <c r="B1103" s="3" t="s">
         <v>2435</v>
       </c>
-      <c r="B1103" s="3" t="s">
-        <v>2436</v>
-      </c>
       <c r="C1103" s="3" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="D1103" s="3"/>
       <c r="E1103" s="3"/>
@@ -42078,7 +42097,7 @@
       <c r="G1103" s="3"/>
       <c r="H1103" s="3"/>
       <c r="I1103" s="3" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="J1103" s="4" t="s">
         <v>6</v>
@@ -42091,13 +42110,13 @@
     </row>
     <row r="1104" spans="1:13">
       <c r="A1104" s="2" t="s">
+        <v>2436</v>
+      </c>
+      <c r="B1104" s="3" t="s">
         <v>2437</v>
       </c>
-      <c r="B1104" s="3" t="s">
+      <c r="C1104" s="3" t="s">
         <v>2438</v>
-      </c>
-      <c r="C1104" s="3" t="s">
-        <v>2439</v>
       </c>
       <c r="D1104" s="3"/>
       <c r="E1104" s="3"/>
@@ -42107,7 +42126,7 @@
       <c r="G1104" s="3"/>
       <c r="H1104" s="3"/>
       <c r="I1104" s="3" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="J1104" s="4" t="s">
         <v>6</v>
@@ -42120,13 +42139,13 @@
     </row>
     <row r="1105" spans="1:13">
       <c r="A1105" s="2" t="s">
+        <v>2440</v>
+      </c>
+      <c r="B1105" s="3" t="s">
         <v>2441</v>
       </c>
-      <c r="B1105" s="3" t="s">
+      <c r="C1105" s="3" t="s">
         <v>2442</v>
-      </c>
-      <c r="C1105" s="3" t="s">
-        <v>2443</v>
       </c>
       <c r="D1105" s="3"/>
       <c r="E1105" s="3"/>
@@ -42136,7 +42155,7 @@
       <c r="G1105" s="3"/>
       <c r="H1105" s="3"/>
       <c r="I1105" s="3" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="J1105" s="4" t="s">
         <v>6</v>
@@ -42149,13 +42168,13 @@
     </row>
     <row r="1106" spans="1:13">
       <c r="A1106" s="2" t="s">
+        <v>2443</v>
+      </c>
+      <c r="B1106" s="3" t="s">
         <v>2444</v>
       </c>
-      <c r="B1106" s="3" t="s">
-        <v>2445</v>
-      </c>
       <c r="C1106" s="3" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="D1106" s="3"/>
       <c r="E1106" s="3"/>
@@ -42165,7 +42184,7 @@
       <c r="G1106" s="3"/>
       <c r="H1106" s="3"/>
       <c r="I1106" s="3" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="J1106" s="4" t="s">
         <v>6</v>
@@ -42178,13 +42197,13 @@
     </row>
     <row r="1107" spans="1:13">
       <c r="A1107" s="2" t="s">
+        <v>2446</v>
+      </c>
+      <c r="B1107" s="3" t="s">
         <v>2447</v>
       </c>
-      <c r="B1107" s="3" t="s">
-        <v>2448</v>
-      </c>
       <c r="C1107" s="3" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="D1107" s="3"/>
       <c r="E1107" s="3"/>
@@ -42194,7 +42213,7 @@
       <c r="G1107" s="3"/>
       <c r="H1107" s="3"/>
       <c r="I1107" s="3" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="J1107" s="4" t="s">
         <v>6</v>
@@ -42207,13 +42226,13 @@
     </row>
     <row r="1108" spans="1:13">
       <c r="A1108" s="2" t="s">
+        <v>2448</v>
+      </c>
+      <c r="B1108" s="3" t="s">
         <v>2449</v>
       </c>
-      <c r="B1108" s="3" t="s">
-        <v>2450</v>
-      </c>
       <c r="C1108" s="3" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="D1108" s="3"/>
       <c r="E1108" s="3"/>
@@ -42223,7 +42242,7 @@
       <c r="G1108" s="3"/>
       <c r="H1108" s="3"/>
       <c r="I1108" s="3" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="J1108" s="4" t="s">
         <v>6</v>
@@ -42236,13 +42255,13 @@
     </row>
     <row r="1109" spans="1:13">
       <c r="A1109" s="2" t="s">
+        <v>2451</v>
+      </c>
+      <c r="B1109" s="3" t="s">
         <v>2452</v>
       </c>
-      <c r="B1109" s="3" t="s">
-        <v>2453</v>
-      </c>
       <c r="C1109" s="3" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="D1109" s="3"/>
       <c r="E1109" s="3"/>
@@ -42252,7 +42271,7 @@
       <c r="G1109" s="3"/>
       <c r="H1109" s="3"/>
       <c r="I1109" s="3" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="J1109" s="4" t="s">
         <v>6</v>
